--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2020.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2020.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>152.7894031976266</v>
+        <v>155.6045626240207</v>
       </c>
       <c r="C2">
-        <v>139.5560050964756</v>
+        <v>145.0219486294209</v>
       </c>
       <c r="D2">
-        <v>136.1941921843371</v>
+        <v>142.2187189177684</v>
       </c>
       <c r="E2">
-        <v>118.5527609237816</v>
+        <v>123.1570984247956</v>
       </c>
       <c r="F2">
-        <v>138.311420765538</v>
+        <v>138.1860234016504</v>
       </c>
       <c r="G2">
-        <v>143.1197637049284</v>
+        <v>152.1462476908184</v>
       </c>
       <c r="H2">
-        <v>155.7081170550167</v>
+        <v>158.7932911828355</v>
       </c>
       <c r="I2">
-        <v>155.692630371955</v>
+        <v>162.9616828920697</v>
       </c>
       <c r="J2">
-        <v>137.0377802964875</v>
+        <v>143.3308744790349</v>
       </c>
       <c r="K2">
-        <v>139.9139643433526</v>
+        <v>146.3245678005389</v>
       </c>
       <c r="L2">
-        <v>179.1742593565145</v>
+        <v>185.2733332722661</v>
       </c>
       <c r="M2">
-        <v>144.6090313523631</v>
+        <v>154.0232549319016</v>
       </c>
       <c r="N2">
-        <v>118.2722502758676</v>
+        <v>123.2163912235994</v>
       </c>
       <c r="O2">
-        <v>145.8078606100049</v>
+        <v>152.1516476344507</v>
       </c>
       <c r="P2">
-        <v>130.7343799711216</v>
+        <v>139.4963285080313</v>
       </c>
       <c r="Q2">
-        <v>126.0349637022021</v>
+        <v>131.7398992650753</v>
       </c>
       <c r="R2">
-        <v>144.0621236986591</v>
+        <v>151.3180275205496</v>
       </c>
       <c r="S2">
-        <v>179.1752127205264</v>
+        <v>202.8244397363709</v>
       </c>
       <c r="T2">
-        <v>166.3464810969221</v>
+        <v>179.0285694230661</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>12.25758079174943</v>
+        <v>12.48342789494184</v>
       </c>
       <c r="C3">
-        <v>9.988198177505261</v>
+        <v>10.37940260612422</v>
       </c>
       <c r="D3">
-        <v>8.883460947269961</v>
+        <v>9.276419318723741</v>
       </c>
       <c r="E3">
-        <v>10.45218018025514</v>
+        <v>10.85812066444381</v>
       </c>
       <c r="F3">
-        <v>14.44681617721122</v>
+        <v>14.43371825185434</v>
       </c>
       <c r="G3">
-        <v>9.044602552432615</v>
+        <v>9.615040610635344</v>
       </c>
       <c r="H3">
-        <v>8.897628777481353</v>
+        <v>9.073924879588366</v>
       </c>
       <c r="I3">
-        <v>10.70025391404056</v>
+        <v>11.19983252282829</v>
       </c>
       <c r="J3">
-        <v>10.25263540910792</v>
+        <v>10.72346031673007</v>
       </c>
       <c r="K3">
-        <v>11.30312243834896</v>
+        <v>11.8210109573424</v>
       </c>
       <c r="L3">
-        <v>13.02269257544854</v>
+        <v>13.4659837316951</v>
       </c>
       <c r="M3">
-        <v>10.61610903135236</v>
+        <v>11.30723062335296</v>
       </c>
       <c r="N3">
-        <v>8.998509218728305</v>
+        <v>9.37467436138083</v>
       </c>
       <c r="O3">
-        <v>11.69675687770171</v>
+        <v>12.20565766122894</v>
       </c>
       <c r="P3">
-        <v>8.286189765301877</v>
+        <v>8.841538467813642</v>
       </c>
       <c r="Q3">
-        <v>7.133426893289672</v>
+        <v>7.456319363547694</v>
       </c>
       <c r="R3">
-        <v>7.989641290412075</v>
+        <v>8.392051495719739</v>
       </c>
       <c r="S3">
-        <v>15.76923004988503</v>
+        <v>17.85060110368417</v>
       </c>
       <c r="T3">
-        <v>16.30877075318627</v>
+        <v>17.55213502406755</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>7.415069880991205</v>
+        <v>7.55169325562304</v>
       </c>
       <c r="C4">
-        <v>5.724116691575674</v>
+        <v>5.948311261995722</v>
       </c>
       <c r="D4">
-        <v>6.018754234183342</v>
+        <v>6.284992795492273</v>
       </c>
       <c r="E4">
-        <v>7.301085982074328</v>
+        <v>7.584644658594773</v>
       </c>
       <c r="F4">
-        <v>6.292568397595453</v>
+        <v>6.2868633626477</v>
       </c>
       <c r="G4">
-        <v>6.614032806375508</v>
+        <v>7.031176181010941</v>
       </c>
       <c r="H4">
-        <v>5.914228877203263</v>
+        <v>6.031412401498915</v>
       </c>
       <c r="I4">
-        <v>6.751081608523514</v>
+        <v>7.066279358492146</v>
       </c>
       <c r="J4">
-        <v>6.882835388614365</v>
+        <v>7.19891122733423</v>
       </c>
       <c r="K4">
-        <v>6.184251596218811</v>
+        <v>6.467602760263745</v>
       </c>
       <c r="L4">
-        <v>6.739084236110263</v>
+        <v>6.968481991279602</v>
       </c>
       <c r="M4">
-        <v>7.62540945250351</v>
+        <v>8.121832869492405</v>
       </c>
       <c r="N4">
-        <v>5.587280128031803</v>
+        <v>5.820845485949804</v>
       </c>
       <c r="O4">
-        <v>8.935900749811756</v>
+        <v>9.324682609659588</v>
       </c>
       <c r="P4">
-        <v>5.58447541665647</v>
+        <v>5.958752528898787</v>
       </c>
       <c r="Q4">
-        <v>5.698840896096471</v>
+        <v>5.956797253128602</v>
       </c>
       <c r="R4">
-        <v>6.756089923717223</v>
+        <v>7.096370473801827</v>
       </c>
       <c r="S4">
-        <v>7.625293922671451</v>
+        <v>8.631751815488776</v>
       </c>
       <c r="T4">
-        <v>6.206241525326647</v>
+        <v>6.679399133943059</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>19.65268978687601</v>
+        <v>20.01479248346135</v>
       </c>
       <c r="C5">
-        <v>14.86588379252771</v>
+        <v>15.44813090773505</v>
       </c>
       <c r="D5">
-        <v>13.43068833749844</v>
+        <v>14.02479253269148</v>
       </c>
       <c r="E5">
-        <v>13.32926618728979</v>
+        <v>13.84694658282771</v>
       </c>
       <c r="F5">
-        <v>13.45305080222511</v>
+        <v>13.4408538549484</v>
       </c>
       <c r="G5">
-        <v>14.79816462633055</v>
+        <v>15.73147664811065</v>
       </c>
       <c r="H5">
-        <v>14.48251628191487</v>
+        <v>14.76947039441558</v>
       </c>
       <c r="I5">
-        <v>17.33442692855824</v>
+        <v>18.14374500256567</v>
       </c>
       <c r="J5">
-        <v>12.56249385715989</v>
+        <v>13.13939284691102</v>
       </c>
       <c r="K5">
-        <v>16.31718881280618</v>
+        <v>17.06481273659294</v>
       </c>
       <c r="L5">
-        <v>20.20255993746718</v>
+        <v>20.89025306252061</v>
       </c>
       <c r="M5">
-        <v>13.14599906410856</v>
+        <v>14.00181956998252</v>
       </c>
       <c r="N5">
-        <v>15.25945440328556</v>
+        <v>15.89734615878491</v>
       </c>
       <c r="O5">
-        <v>21.53733171635272</v>
+        <v>22.47437478736263</v>
       </c>
       <c r="P5">
-        <v>12.2583392476934</v>
+        <v>13.07990537023894</v>
       </c>
       <c r="Q5">
-        <v>11.31798257012665</v>
+        <v>11.83028772234503</v>
       </c>
       <c r="R5">
-        <v>15.3628965220398</v>
+        <v>16.13667172906609</v>
       </c>
       <c r="S5">
-        <v>20.37511754309221</v>
+        <v>23.06441687716188</v>
       </c>
       <c r="T5">
-        <v>23.08380735960942</v>
+        <v>24.8436936037175</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>42.26278442345499</v>
+        <v>43.04148028498317</v>
       </c>
       <c r="C6">
-        <v>41.25475477073584</v>
+        <v>42.87056599925634</v>
       </c>
       <c r="D6">
-        <v>41.44632539404768</v>
+        <v>43.27969648964456</v>
       </c>
       <c r="E6">
-        <v>31.49716908331132</v>
+        <v>32.72045224986115</v>
       </c>
       <c r="F6">
-        <v>30.1168462600038</v>
+        <v>30.08954140615508</v>
       </c>
       <c r="G6">
-        <v>42.63862829967862</v>
+        <v>45.32782289841252</v>
       </c>
       <c r="H6">
-        <v>39.1923964614143</v>
+        <v>39.96894793385457</v>
       </c>
       <c r="I6">
-        <v>43.58664140788144</v>
+        <v>45.62163551654523</v>
       </c>
       <c r="J6">
-        <v>33.49445523725478</v>
+        <v>35.03259866708212</v>
       </c>
       <c r="K6">
-        <v>38.30406292566261</v>
+        <v>40.05908544516569</v>
       </c>
       <c r="L6">
-        <v>45.33291196958039</v>
+        <v>46.87603977103867</v>
       </c>
       <c r="M6">
-        <v>45.3981048198409</v>
+        <v>48.35357658301112</v>
       </c>
       <c r="N6">
-        <v>33.33926966333189</v>
+        <v>34.73295286395994</v>
       </c>
       <c r="O6">
-        <v>43.30336878907291</v>
+        <v>45.18740541021008</v>
       </c>
       <c r="P6">
-        <v>46.22674432833264</v>
+        <v>49.32490683863177</v>
       </c>
       <c r="Q6">
-        <v>37.42051735190672</v>
+        <v>39.11434606380625</v>
       </c>
       <c r="R6">
-        <v>38.88219364748769</v>
+        <v>40.84055334847633</v>
       </c>
       <c r="S6">
-        <v>43.74378775016547</v>
+        <v>49.51750360811834</v>
       </c>
       <c r="T6">
-        <v>55.149112593651</v>
+        <v>59.35362544182859</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>12.49711142212494</v>
+        <v>12.72737190018433</v>
       </c>
       <c r="C7">
-        <v>10.97167789202846</v>
+        <v>11.40140194279958</v>
       </c>
       <c r="D7">
-        <v>12.65575142810945</v>
+        <v>13.21557642202042</v>
       </c>
       <c r="E7">
-        <v>10.22456491036124</v>
+        <v>10.6216653007823</v>
       </c>
       <c r="F7">
-        <v>11.82158733718999</v>
+        <v>11.81086952458388</v>
       </c>
       <c r="G7">
-        <v>13.06087570359087</v>
+        <v>13.88461787817429</v>
       </c>
       <c r="H7">
-        <v>12.40673791128862</v>
+        <v>12.65256290447772</v>
       </c>
       <c r="I7">
-        <v>13.94173953050896</v>
+        <v>14.59265818110223</v>
       </c>
       <c r="J7">
-        <v>11.36911725034975</v>
+        <v>11.8912136056328</v>
       </c>
       <c r="K7">
-        <v>10.65695955495199</v>
+        <v>11.14524206546979</v>
       </c>
       <c r="L7">
-        <v>13.1492136578852</v>
+        <v>13.59681157915736</v>
       </c>
       <c r="M7">
-        <v>15.36259943846514</v>
+        <v>16.36272332093688</v>
       </c>
       <c r="N7">
-        <v>10.10873933981774</v>
+        <v>10.53131548919653</v>
       </c>
       <c r="O7">
-        <v>12.30403594682763</v>
+        <v>12.83935813906919</v>
       </c>
       <c r="P7">
-        <v>12.63286507917085</v>
+        <v>13.47953229648483</v>
       </c>
       <c r="Q7">
-        <v>11.13987213472634</v>
+        <v>11.64411517047174</v>
       </c>
       <c r="R7">
-        <v>11.43470167711955</v>
+        <v>12.01062748933887</v>
       </c>
       <c r="S7">
-        <v>12.54456039143278</v>
+        <v>14.20030926431792</v>
       </c>
       <c r="T7">
-        <v>15.56528023961325</v>
+        <v>16.75196154190628</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>219</v>
+        <v>204.61</v>
       </c>
       <c r="C8">
-        <v>244</v>
+        <v>214.39</v>
       </c>
       <c r="D8">
-        <v>242</v>
+        <v>208.47</v>
       </c>
       <c r="E8">
-        <v>303</v>
+        <v>275.93</v>
       </c>
       <c r="F8">
-        <v>261</v>
+        <v>261.67</v>
       </c>
       <c r="G8">
-        <v>280</v>
+        <v>234.59</v>
       </c>
       <c r="H8">
-        <v>248</v>
+        <v>233.1</v>
       </c>
       <c r="I8">
-        <v>236</v>
+        <v>200.33</v>
       </c>
       <c r="J8">
-        <v>279</v>
+        <v>245.89</v>
       </c>
       <c r="K8">
-        <v>230</v>
+        <v>194.72</v>
       </c>
       <c r="L8">
-        <v>198</v>
+        <v>170.7</v>
       </c>
       <c r="M8">
-        <v>259</v>
+        <v>210.76</v>
       </c>
       <c r="N8">
-        <v>279</v>
+        <v>248.86</v>
       </c>
       <c r="O8">
-        <v>236</v>
+        <v>202.76</v>
       </c>
       <c r="P8">
-        <v>238</v>
+        <v>186.93</v>
       </c>
       <c r="Q8">
-        <v>320</v>
+        <v>289.22</v>
       </c>
       <c r="R8">
-        <v>236</v>
+        <v>197.52</v>
       </c>
       <c r="S8">
-        <v>246</v>
+        <v>146.48</v>
       </c>
       <c r="T8">
-        <v>205</v>
+        <v>144.39</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>10.33494826526867</v>
+        <v>10.52537067952887</v>
       </c>
       <c r="C9">
-        <v>8.989923439564842</v>
+        <v>9.342028774281134</v>
       </c>
       <c r="D9">
-        <v>10.26578083969356</v>
+        <v>10.71988589451537</v>
       </c>
       <c r="E9">
-        <v>10.8733409184983</v>
+        <v>11.29563839147355</v>
       </c>
       <c r="F9">
-        <v>11.3688293671191</v>
+        <v>11.35852203873484</v>
       </c>
       <c r="G9">
-        <v>10.95205364938418</v>
+        <v>11.64279358857659</v>
       </c>
       <c r="H9">
-        <v>8.413667041908901</v>
+        <v>8.58037400856375</v>
       </c>
       <c r="I9">
-        <v>8.635648143897544</v>
+        <v>9.038833444019046</v>
       </c>
       <c r="J9">
-        <v>8.577535712119849</v>
+        <v>8.971436138511375</v>
       </c>
       <c r="K9">
-        <v>7.148767900216239</v>
+        <v>7.476311447644329</v>
       </c>
       <c r="L9">
-        <v>10.74286429644467</v>
+        <v>11.10855032548823</v>
       </c>
       <c r="M9">
-        <v>9.235201216658867</v>
+        <v>9.836424032706946</v>
       </c>
       <c r="N9">
-        <v>7.481069270174874</v>
+        <v>7.793800792786623</v>
       </c>
       <c r="O9">
-        <v>10.27066579891886</v>
+        <v>10.71752042085088</v>
       </c>
       <c r="P9">
-        <v>13.14026210812266</v>
+        <v>14.02093558038227</v>
       </c>
       <c r="Q9">
-        <v>7.050955524368903</v>
+        <v>7.370114952369013</v>
       </c>
       <c r="R9">
-        <v>5.704103603415233</v>
+        <v>5.991399292760021</v>
       </c>
       <c r="S9">
-        <v>6.215871980116645</v>
+        <v>7.0363011305957</v>
       </c>
       <c r="T9">
-        <v>6.602824995261472</v>
+        <v>7.106217728548011</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>26.82104311858044</v>
+        <v>27.31522341368463</v>
       </c>
       <c r="C10">
-        <v>31.15831931665203</v>
+        <v>32.3786868232209</v>
       </c>
       <c r="D10">
-        <v>27.25543868697847</v>
+        <v>28.46107834288136</v>
       </c>
       <c r="E10">
-        <v>26.32363347428983</v>
+        <v>27.34598750319804</v>
       </c>
       <c r="F10">
-        <v>22.91722714948666</v>
+        <v>22.89644969050133</v>
       </c>
       <c r="G10">
-        <v>26.17673831063885</v>
+        <v>27.82769065325845</v>
       </c>
       <c r="H10">
-        <v>26.93641340385831</v>
+        <v>27.47012691412094</v>
       </c>
       <c r="I10">
-        <v>23.83766231778939</v>
+        <v>24.9506065780977</v>
       </c>
       <c r="J10">
-        <v>26.25202373907097</v>
+        <v>27.45757783893317</v>
       </c>
       <c r="K10">
-        <v>26.63924687331462</v>
+        <v>27.85980873005557</v>
       </c>
       <c r="L10">
-        <v>26.69349959899198</v>
+        <v>27.60214366264844</v>
       </c>
       <c r="M10">
-        <v>19.23765793167993</v>
+        <v>20.49005282860873</v>
       </c>
       <c r="N10">
-        <v>33.36937759881906</v>
+        <v>34.76431940301935</v>
       </c>
       <c r="O10">
-        <v>30.00255215937408</v>
+        <v>31.30789880044423</v>
       </c>
       <c r="P10">
-        <v>24.69617116565919</v>
+        <v>26.35133318853348</v>
       </c>
       <c r="Q10">
-        <v>28.20382209747561</v>
+        <v>29.48045980947605</v>
       </c>
       <c r="R10">
-        <v>30.22006036120849</v>
+        <v>31.74213879406098</v>
       </c>
       <c r="S10">
-        <v>26.76726519695806</v>
+        <v>30.30026020014276</v>
       </c>
       <c r="T10">
-        <v>22.06544062052834</v>
+        <v>23.74768760922044</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>41.19048563480729</v>
+        <v>41.94942428818101</v>
       </c>
       <c r="C11">
-        <v>49.71750816538208</v>
+        <v>51.66477723519289</v>
       </c>
       <c r="D11">
-        <v>46.59085150322463</v>
+        <v>48.65178982895436</v>
       </c>
       <c r="E11">
-        <v>36.18502879797322</v>
+        <v>37.59037848170512</v>
       </c>
       <c r="F11">
-        <v>27.83156959073072</v>
+        <v>27.80633663859839</v>
       </c>
       <c r="G11">
-        <v>41.4207426947298</v>
+        <v>44.03312592496269</v>
       </c>
       <c r="H11">
-        <v>54.77812903192643</v>
+        <v>55.86349355662819</v>
       </c>
       <c r="I11">
-        <v>56.90097148389243</v>
+        <v>59.55759144833019</v>
       </c>
       <c r="J11">
-        <v>44.39089584043463</v>
+        <v>46.4294292125245</v>
       </c>
       <c r="K11">
-        <v>42.75313077890566</v>
+        <v>44.71200149823006</v>
       </c>
       <c r="L11">
-        <v>49.26159564550077</v>
+        <v>50.93845544739874</v>
       </c>
       <c r="M11">
-        <v>43.17542115114647</v>
+        <v>45.98619350786889</v>
       </c>
       <c r="N11">
-        <v>39.7402167479045</v>
+        <v>41.40147906799027</v>
       </c>
       <c r="O11">
-        <v>34.87171261336829</v>
+        <v>36.38890597366719</v>
       </c>
       <c r="P11">
-        <v>46.04103546168718</v>
+        <v>49.1267515785223</v>
       </c>
       <c r="Q11">
-        <v>38.81421418299634</v>
+        <v>40.57112817204432</v>
       </c>
       <c r="R11">
-        <v>55.46539430107779</v>
+        <v>58.25899164755093</v>
       </c>
       <c r="S11">
-        <v>31.16240532910508</v>
+        <v>35.27551219694663</v>
       </c>
       <c r="T11">
-        <v>34.72547786222655</v>
+        <v>37.3729133505656</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>9.859879181690578</v>
+        <v>10.04154840246462</v>
       </c>
       <c r="C12">
-        <v>10.83618662494451</v>
+        <v>11.2606039344215</v>
       </c>
       <c r="D12">
-        <v>10.31232359701422</v>
+        <v>10.76848746272384</v>
       </c>
       <c r="E12">
-        <v>9.3996407793445</v>
+        <v>9.76470286814917</v>
       </c>
       <c r="F12">
-        <v>8.103600277879023</v>
+        <v>8.096253306043868</v>
       </c>
       <c r="G12">
-        <v>8.97698352250562</v>
+        <v>9.54315688605698</v>
       </c>
       <c r="H12">
-        <v>9.658360962470637</v>
+        <v>9.849730082604699</v>
       </c>
       <c r="I12">
-        <v>9.265395770275633</v>
+        <v>9.697983030911409</v>
       </c>
       <c r="J12">
-        <v>8.387560408951085</v>
+        <v>8.772736726760199</v>
       </c>
       <c r="K12">
-        <v>9.661711113817384</v>
+        <v>10.10439315030502</v>
       </c>
       <c r="L12">
-        <v>9.879255875683445</v>
+        <v>10.21554476022978</v>
       </c>
       <c r="M12">
-        <v>10.87540945250351</v>
+        <v>11.58341181686083</v>
       </c>
       <c r="N12">
-        <v>8.824635891289891</v>
+        <v>9.193532598312744</v>
       </c>
       <c r="O12">
-        <v>10.43068149194047</v>
+        <v>10.88449805318668</v>
       </c>
       <c r="P12">
-        <v>11.59009813758841</v>
+        <v>12.36687807444751</v>
       </c>
       <c r="Q12">
-        <v>10.41287662213906</v>
+        <v>10.88421241982941</v>
       </c>
       <c r="R12">
-        <v>10.87675930279642</v>
+        <v>11.42458351480114</v>
       </c>
       <c r="S12">
-        <v>7.566535364755047</v>
+        <v>8.565237751360382</v>
       </c>
       <c r="T12">
-        <v>11.1647768101694</v>
+        <v>12.01596815918118</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>4.410557340647724</v>
+        <v>4.491822283198199</v>
       </c>
       <c r="C13">
-        <v>4.610596508069592</v>
+        <v>4.791178204635652</v>
       </c>
       <c r="D13">
-        <v>4.459571863941234</v>
+        <v>4.65684026050845</v>
       </c>
       <c r="E13">
-        <v>3.764350625984112</v>
+        <v>3.910550011128143</v>
       </c>
       <c r="F13">
-        <v>4.039521956700301</v>
+        <v>4.035859602558231</v>
       </c>
       <c r="G13">
-        <v>3.149857888577214</v>
+        <v>3.34851767568873</v>
       </c>
       <c r="H13">
-        <v>4.08816239250338</v>
+        <v>4.169164546291015</v>
       </c>
       <c r="I13">
-        <v>4.21806207173046</v>
+        <v>4.414996985472118</v>
       </c>
       <c r="J13">
-        <v>3.385631295757624</v>
+        <v>3.541107373708436</v>
       </c>
       <c r="K13">
-        <v>3.869097265218446</v>
+        <v>4.046372267188454</v>
       </c>
       <c r="L13">
-        <v>4.127852347627132</v>
+        <v>4.268364029784514</v>
       </c>
       <c r="M13">
-        <v>3.987599438465138</v>
+        <v>4.247197005147404</v>
       </c>
       <c r="N13">
-        <v>3.17187100357349</v>
+        <v>3.304464889908726</v>
       </c>
       <c r="O13">
-        <v>4.272809285855132</v>
+        <v>4.458710045883699</v>
       </c>
       <c r="P13">
-        <v>4.733633538092557</v>
+        <v>5.050886379024822</v>
       </c>
       <c r="Q13">
-        <v>3.89833151411196</v>
+        <v>4.074788343530146</v>
       </c>
       <c r="R13">
-        <v>3.900141876378858</v>
+        <v>4.096578341566107</v>
       </c>
       <c r="S13">
-        <v>3.47850662865111</v>
+        <v>3.937632596400921</v>
       </c>
       <c r="T13">
-        <v>5.480965701395731</v>
+        <v>5.898829011032957</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>8.324487840983558</v>
+        <v>8.477867328860324</v>
       </c>
       <c r="C14">
-        <v>7.298618657344415</v>
+        <v>7.584481221423738</v>
       </c>
       <c r="D14">
-        <v>7.339017116846064</v>
+        <v>7.66365728033927</v>
       </c>
       <c r="E14">
-        <v>7.985381570545155</v>
+        <v>8.295516834698176</v>
       </c>
       <c r="F14">
-        <v>5.532088485154344</v>
+        <v>5.527072924552106</v>
       </c>
       <c r="G14">
-        <v>6.617005071427244</v>
+        <v>7.034335905168232</v>
       </c>
       <c r="H14">
-        <v>7.608868053520852</v>
+        <v>7.759628870006839</v>
       </c>
       <c r="I14">
-        <v>6.616247030103453</v>
+        <v>6.925149558328311</v>
       </c>
       <c r="J14">
-        <v>6.430513238212543</v>
+        <v>6.725817389831431</v>
       </c>
       <c r="K14">
-        <v>8.584510306983656</v>
+        <v>8.977836961049087</v>
       </c>
       <c r="L14">
-        <v>7.321897480366893</v>
+        <v>7.571134140234743</v>
       </c>
       <c r="M14">
-        <v>7.082475432849789</v>
+        <v>7.543553185725195</v>
       </c>
       <c r="N14">
-        <v>5.825885516767635</v>
+        <v>6.069425307995619</v>
       </c>
       <c r="O14">
-        <v>8.486295680638836</v>
+        <v>8.855516189047785</v>
       </c>
       <c r="P14">
-        <v>7.648252612515601</v>
+        <v>8.160846130784854</v>
       </c>
       <c r="Q14">
-        <v>6.272675294973752</v>
+        <v>6.556606097296238</v>
       </c>
       <c r="R14">
-        <v>6.113988643769934</v>
+        <v>6.421928804780754</v>
       </c>
       <c r="S14">
-        <v>6.425835893737927</v>
+        <v>7.27397805308116</v>
       </c>
       <c r="T14">
-        <v>6.75433809546622</v>
+        <v>7.269282035046353</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.742984553699128</v>
+        <v>1.775099211481113</v>
       </c>
       <c r="C15">
-        <v>1.861836894239891</v>
+        <v>1.934758839264287</v>
       </c>
       <c r="D15">
-        <v>1.556079519754064</v>
+        <v>1.624912430436589</v>
       </c>
       <c r="E15">
-        <v>1.391062748173216</v>
+        <v>1.445088671549183</v>
       </c>
       <c r="F15">
-        <v>1.939952793795281</v>
+        <v>1.938193973265047</v>
       </c>
       <c r="G15">
-        <v>1.896305103007561</v>
+        <v>2.015904012351413</v>
       </c>
       <c r="H15">
-        <v>1.808285142977573</v>
+        <v>1.844114197007315</v>
       </c>
       <c r="I15">
-        <v>1.42004972185752</v>
+        <v>1.486349687274612</v>
       </c>
       <c r="J15">
-        <v>1.572573342896995</v>
+        <v>1.644789575051391</v>
       </c>
       <c r="K15">
-        <v>1.832108175485313</v>
+        <v>1.916052040980276</v>
       </c>
       <c r="L15">
-        <v>1.605593349373654</v>
+        <v>1.660247586827396</v>
       </c>
       <c r="M15">
-        <v>2.466775854000936</v>
+        <v>2.627365958180431</v>
       </c>
       <c r="N15">
-        <v>1.227651069489407</v>
+        <v>1.278970630147397</v>
       </c>
       <c r="O15">
-        <v>2.144990850845799</v>
+        <v>2.238314798335478</v>
       </c>
       <c r="P15">
-        <v>2.183438976040724</v>
+        <v>2.329775233923137</v>
       </c>
       <c r="Q15">
-        <v>1.553095275222205</v>
+        <v>1.62339567606241</v>
       </c>
       <c r="R15">
-        <v>1.2374476123256</v>
+        <v>1.299773507773622</v>
       </c>
       <c r="S15">
-        <v>1.356930964149487</v>
+        <v>1.536031454271711</v>
       </c>
       <c r="T15">
-        <v>2.422553722399382</v>
+        <v>2.607246780405201</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.772526664778774</v>
+        <v>1.805185638794352</v>
       </c>
       <c r="C16">
-        <v>1.678067129689236</v>
+        <v>1.743791425602065</v>
       </c>
       <c r="D16">
-        <v>1.978842898750059</v>
+        <v>2.06637667499688</v>
       </c>
       <c r="E16">
-        <v>1.920956895601367</v>
+        <v>1.995562782493661</v>
       </c>
       <c r="F16">
-        <v>2.033573933369262</v>
+        <v>2.031730233050781</v>
       </c>
       <c r="G16">
-        <v>1.605023127937434</v>
+        <v>1.706251044936932</v>
       </c>
       <c r="H16">
-        <v>1.778134172231046</v>
+        <v>1.813365820058497</v>
       </c>
       <c r="I16">
-        <v>1.487077315754198</v>
+        <v>1.55650669776068</v>
       </c>
       <c r="J16">
-        <v>1.414260590256357</v>
+        <v>1.479206731925412</v>
       </c>
       <c r="K16">
-        <v>1.531090832244285</v>
+        <v>1.601242630376205</v>
       </c>
       <c r="L16">
-        <v>1.523150579527828</v>
+        <v>1.574998473319736</v>
       </c>
       <c r="M16">
-        <v>1.859967243799719</v>
+        <v>1.981053370440608</v>
       </c>
       <c r="N16">
-        <v>1.525719630812403</v>
+        <v>1.589499366835545</v>
       </c>
       <c r="O16">
-        <v>1.751586415319495</v>
+        <v>1.82779418030015</v>
       </c>
       <c r="P16">
-        <v>1.530738356868407</v>
+        <v>1.633329968266399</v>
       </c>
       <c r="Q16">
-        <v>1.44428851118388</v>
+        <v>1.50966380585188</v>
       </c>
       <c r="R16">
-        <v>1.6488911509326</v>
+        <v>1.73194001413664</v>
       </c>
       <c r="S16">
-        <v>1.23236282136671</v>
+        <v>1.395021638319515</v>
       </c>
       <c r="T16">
-        <v>1.316425296860908</v>
+        <v>1.416788236788883</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>21.78531083265264</v>
+        <v>22.18670727680356</v>
       </c>
       <c r="C17">
-        <v>21.11639184357898</v>
+        <v>21.94345052411916</v>
       </c>
       <c r="D17">
-        <v>18.70475845455122</v>
+        <v>19.5321602368482</v>
       </c>
       <c r="E17">
-        <v>21.84526679465766</v>
+        <v>22.69369057102979</v>
       </c>
       <c r="F17">
-        <v>20.87521196582794</v>
+        <v>20.85628586025675</v>
       </c>
       <c r="G17">
-        <v>17.47394623915588</v>
+        <v>18.57601832071153</v>
       </c>
       <c r="H17">
-        <v>20.32020807953079</v>
+        <v>20.7228292236598</v>
       </c>
       <c r="I17">
-        <v>19.30628521412329</v>
+        <v>20.2076663575628</v>
       </c>
       <c r="J17">
-        <v>18.90254266529206</v>
+        <v>19.77059146924189</v>
       </c>
       <c r="K17">
-        <v>23.01049068057919</v>
+        <v>24.06478952630754</v>
       </c>
       <c r="L17">
-        <v>21.32084305319768</v>
+        <v>22.04660242396115</v>
       </c>
       <c r="M17">
-        <v>19.1707416939635</v>
+        <v>20.41878026254218</v>
       </c>
       <c r="N17">
-        <v>21.69126212173252</v>
+        <v>22.59802306535113</v>
       </c>
       <c r="O17">
-        <v>21.59353234999934</v>
+        <v>22.53302058993911</v>
       </c>
       <c r="P17">
-        <v>18.98270967426152</v>
+        <v>20.25494980951681</v>
       </c>
       <c r="Q17">
-        <v>17.55184780913769</v>
+        <v>18.34632703791013</v>
       </c>
       <c r="R17">
-        <v>17.28530411625091</v>
+        <v>18.1559042502736</v>
       </c>
       <c r="S17">
-        <v>25.10714007395993</v>
+        <v>28.42101617496853</v>
       </c>
       <c r="T17">
-        <v>25.57508013838582</v>
+        <v>27.52489851220665</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>20.28425221563277</v>
+        <v>20.65799151061735</v>
       </c>
       <c r="C18">
-        <v>19.03107222719487</v>
+        <v>19.77645588942667</v>
       </c>
       <c r="D18">
-        <v>19.16087747629369</v>
+        <v>20.00845560529123</v>
       </c>
       <c r="E18">
-        <v>17.99972855648209</v>
+        <v>18.69879979324532</v>
       </c>
       <c r="F18">
-        <v>21.73928904091239</v>
+        <v>21.71957953663984</v>
       </c>
       <c r="G18">
-        <v>17.51927328119485</v>
+        <v>18.62420411411021</v>
       </c>
       <c r="H18">
-        <v>17.48369752391527</v>
+        <v>17.83011653070561</v>
       </c>
       <c r="I18">
-        <v>19.49333896453262</v>
+        <v>20.40345336357043</v>
       </c>
       <c r="J18">
-        <v>18.07931635156075</v>
+        <v>18.9095606849868</v>
       </c>
       <c r="K18">
-        <v>21.26979091298906</v>
+        <v>22.2443340602751</v>
       </c>
       <c r="L18">
-        <v>18.81246056075984</v>
+        <v>19.45283484169343</v>
       </c>
       <c r="M18">
-        <v>19.11295039775386</v>
+        <v>20.35722668275744</v>
       </c>
       <c r="N18">
-        <v>18.52691810203082</v>
+        <v>19.30139981020726</v>
       </c>
       <c r="O18">
-        <v>19.06060101412065</v>
+        <v>19.88988684881879</v>
       </c>
       <c r="P18">
-        <v>20.91283864809966</v>
+        <v>22.3144379522446</v>
       </c>
       <c r="Q18">
-        <v>14.67158722733337</v>
+        <v>15.3356923080059</v>
       </c>
       <c r="R18">
-        <v>20.7147795204354</v>
+        <v>21.75811030046989</v>
       </c>
       <c r="S18">
-        <v>20.07584062143799</v>
+        <v>22.72563857720126</v>
       </c>
       <c r="T18">
-        <v>16.79394385001677</v>
+        <v>18.0742972295759</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>9.346485197252401</v>
+        <v>9.518695084561571</v>
       </c>
       <c r="C19">
-        <v>10.31291000724095</v>
+        <v>10.71683231585789</v>
       </c>
       <c r="D19">
-        <v>11.18112173366654</v>
+        <v>11.67571673594865</v>
       </c>
       <c r="E19">
-        <v>9.381518544480338</v>
+        <v>9.74587680416338</v>
       </c>
       <c r="F19">
-        <v>9.912329998992741</v>
+        <v>9.90334317747809</v>
       </c>
       <c r="G19">
-        <v>9.529824822128512</v>
+        <v>10.13086557931303</v>
       </c>
       <c r="H19">
-        <v>9.32128857156075</v>
+        <v>9.505978996715349</v>
       </c>
       <c r="I19">
-        <v>8.804775909892649</v>
+        <v>9.215857528617613</v>
       </c>
       <c r="J19">
-        <v>9.655570170577521</v>
+        <v>10.09897645122637</v>
       </c>
       <c r="K19">
-        <v>10.96034090874203</v>
+        <v>11.46252380128803</v>
       </c>
       <c r="L19">
-        <v>8.324270959284455</v>
+        <v>8.607628312387281</v>
       </c>
       <c r="M19">
-        <v>10.5529948525971</v>
+        <v>11.24000763490383</v>
       </c>
       <c r="N19">
-        <v>9.940887599476765</v>
+        <v>10.35644703394033</v>
       </c>
       <c r="O19">
-        <v>8.029665532260092</v>
+        <v>8.379019043113923</v>
       </c>
       <c r="P19">
-        <v>13.31586965566188</v>
+        <v>14.2083125209042</v>
       </c>
       <c r="Q19">
-        <v>8.273472287194416</v>
+        <v>8.647968576900066</v>
       </c>
       <c r="R19">
-        <v>13.17242722843321</v>
+        <v>13.83587618098571</v>
       </c>
       <c r="S19">
-        <v>8.381320701195849</v>
+        <v>9.487566107274111</v>
       </c>
       <c r="T19">
-        <v>7.721372527374107</v>
+        <v>8.310042198926491</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5828578672470743</v>
+        <v>0.5935970794233681</v>
       </c>
       <c r="C20">
-        <v>0.7950378373144829</v>
+        <v>0.8261768192759668</v>
       </c>
       <c r="D20">
-        <v>1.420329810902139</v>
+        <v>1.483157856495212</v>
       </c>
       <c r="E20">
-        <v>1.004696700869243</v>
+        <v>1.043716987372156</v>
       </c>
       <c r="F20">
-        <v>0.6476741131183612</v>
+        <v>0.6470869119603242</v>
       </c>
       <c r="G20">
-        <v>1.385818580371905</v>
+        <v>1.473221388336749</v>
       </c>
       <c r="H20">
-        <v>0.5048354845508145</v>
+        <v>0.5148382089122602</v>
       </c>
       <c r="I20">
-        <v>0.6188361576042103</v>
+        <v>0.6477286782085851</v>
       </c>
       <c r="J20">
-        <v>1.675099696988074</v>
+        <v>1.752024178218692</v>
       </c>
       <c r="K20">
-        <v>1.31754187931675</v>
+        <v>1.377909252696353</v>
       </c>
       <c r="L20">
-        <v>1.26031323407876</v>
+        <v>1.30321417084977</v>
       </c>
       <c r="M20">
-        <v>0.9695250350959288</v>
+        <v>1.032642292441445</v>
       </c>
       <c r="N20">
-        <v>1.217113292068897</v>
+        <v>1.267992341476604</v>
       </c>
       <c r="O20">
-        <v>0.6884577621710315</v>
+        <v>0.7184110815618237</v>
       </c>
       <c r="P20">
-        <v>1.479454736790583</v>
+        <v>1.578609268821941</v>
       </c>
       <c r="Q20">
-        <v>0.8593655248886811</v>
+        <v>0.8982644526182009</v>
       </c>
       <c r="R20">
-        <v>0.6553485150918321</v>
+        <v>0.6883561209304887</v>
       </c>
       <c r="S20">
-        <v>0.6071717651361733</v>
+        <v>0.687311995993404</v>
       </c>
       <c r="T20">
-        <v>0.5017319055960443</v>
+        <v>0.5399834411912344</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>33.65644887406291</v>
+        <v>34.27657217662087</v>
       </c>
       <c r="C21">
-        <v>29.74578392302962</v>
+        <v>30.91082712668162</v>
       </c>
       <c r="D21">
-        <v>29.13809322059916</v>
+        <v>30.42701177691406</v>
       </c>
       <c r="E21">
-        <v>28.40116647911757</v>
+        <v>29.50420747852892</v>
       </c>
       <c r="F21">
-        <v>29.85900443298037</v>
+        <v>29.83193334641732</v>
       </c>
       <c r="G21">
-        <v>24.93878991659081</v>
+        <v>26.51166554174691</v>
       </c>
       <c r="H21">
-        <v>30.53520234809114</v>
+        <v>31.14022164993498</v>
       </c>
       <c r="I21">
-        <v>31.68222897558079</v>
+        <v>33.1614241425428</v>
       </c>
       <c r="J21">
-        <v>26.26408566308168</v>
+        <v>27.47019367459991</v>
       </c>
       <c r="K21">
-        <v>31.71792953611154</v>
+        <v>33.17118739849337</v>
       </c>
       <c r="L21">
-        <v>32.30532180384397</v>
+        <v>33.40499173557083</v>
       </c>
       <c r="M21">
-        <v>29.62868507253159</v>
+        <v>31.55754845701057</v>
       </c>
       <c r="N21">
-        <v>25.46754993021097</v>
+        <v>26.53217122687749</v>
       </c>
       <c r="O21">
-        <v>30.05484997123968</v>
+        <v>31.36247197784179</v>
       </c>
       <c r="P21">
-        <v>34.84411174469543</v>
+        <v>37.17939886648229</v>
       </c>
       <c r="Q21">
-        <v>23.68799487152832</v>
+        <v>24.76022499233073</v>
       </c>
       <c r="R21">
-        <v>29.24755745177377</v>
+        <v>30.72065432447566</v>
       </c>
       <c r="S21">
-        <v>19.96224074279961</v>
+        <v>22.59704471988637</v>
       </c>
       <c r="T21">
-        <v>25.3714067905696</v>
+        <v>27.30569731330724</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>80.88550170063681</v>
+        <v>82.3758248369648</v>
       </c>
       <c r="C22">
-        <v>69.66742921533023</v>
+        <v>72.39607019293067</v>
       </c>
       <c r="D22">
-        <v>75.11613175243509</v>
+        <v>78.4388809577902</v>
       </c>
       <c r="E22">
-        <v>77.29060680626421</v>
+        <v>80.29240985683172</v>
       </c>
       <c r="F22">
-        <v>81.0521178929792</v>
+        <v>80.97863356417228</v>
       </c>
       <c r="G22">
-        <v>81.25206665304378</v>
+        <v>86.37658935681422</v>
       </c>
       <c r="H22">
-        <v>71.98814851368093</v>
+        <v>73.41450943502915</v>
       </c>
       <c r="I22">
-        <v>84.31136043450007</v>
+        <v>88.24772984117367</v>
       </c>
       <c r="J22">
-        <v>70.56677868418797</v>
+        <v>73.80736958881135</v>
       </c>
       <c r="K22">
-        <v>80.54971944004674</v>
+        <v>84.24036113075432</v>
       </c>
       <c r="L22">
-        <v>77.88392955286589</v>
+        <v>80.53509074587491</v>
       </c>
       <c r="M22">
-        <v>86.5584347215723</v>
+        <v>92.19349395364877</v>
       </c>
       <c r="N22">
-        <v>68.39469164943254</v>
+        <v>71.25379845430619</v>
       </c>
       <c r="O22">
-        <v>84.24318870756321</v>
+        <v>87.90842901206506</v>
       </c>
       <c r="P22">
-        <v>67.60424365531925</v>
+        <v>72.13514749190344</v>
       </c>
       <c r="Q22">
-        <v>61.0163383405236</v>
+        <v>63.77822494952552</v>
       </c>
       <c r="R22">
-        <v>71.54831701567984</v>
+        <v>75.15195476275228</v>
       </c>
       <c r="S22">
-        <v>57.53246267454825</v>
+        <v>65.12613732358145</v>
       </c>
       <c r="T22">
-        <v>68.83827980012789</v>
+        <v>74.08644098086469</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>12.77097477618761</v>
+        <v>13.00628121284489</v>
       </c>
       <c r="C23">
-        <v>12.07896859199046</v>
+        <v>12.55206152851009</v>
       </c>
       <c r="D23">
-        <v>12.43467333083632</v>
+        <v>12.98471897303017</v>
       </c>
       <c r="E23">
-        <v>17.05012344959991</v>
+        <v>17.71231404038996</v>
       </c>
       <c r="F23">
-        <v>25.1579954081426</v>
+        <v>25.1351864001271</v>
       </c>
       <c r="G23">
-        <v>11.6758001894819</v>
+        <v>12.41218642087686</v>
       </c>
       <c r="H23">
-        <v>9.836174379693741</v>
+        <v>10.03106666461055</v>
       </c>
       <c r="I23">
-        <v>8.333244580735789</v>
+        <v>8.722311117640039</v>
       </c>
       <c r="J23">
-        <v>12.1365571655315</v>
+        <v>12.69389614992922</v>
       </c>
       <c r="K23">
-        <v>10.97216096148709</v>
+        <v>11.47488542735887</v>
       </c>
       <c r="L23">
-        <v>7.793698678098449</v>
+        <v>8.058995403674619</v>
       </c>
       <c r="M23">
-        <v>10.29597566682265</v>
+        <v>10.96625618796641</v>
       </c>
       <c r="N23">
-        <v>24.22559759136516</v>
+        <v>25.23830149067688</v>
       </c>
       <c r="O23">
-        <v>8.025762710479077</v>
+        <v>8.374946417935002</v>
       </c>
       <c r="P23">
-        <v>9.593145052739777</v>
+        <v>10.23608720214059</v>
       </c>
       <c r="Q23">
-        <v>11.32144775369475</v>
+        <v>11.83390975642817</v>
       </c>
       <c r="R23">
-        <v>7.89691064440027</v>
+        <v>8.294650332353832</v>
       </c>
       <c r="S23">
-        <v>22.73329433413721</v>
+        <v>25.73384798418142</v>
       </c>
       <c r="T23">
-        <v>27.01404062011177</v>
+        <v>29.07356389304884</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.2547009036326257</v>
+        <v>0.2593937922411704</v>
       </c>
       <c r="C24">
-        <v>0.3153676044195549</v>
+        <v>0.3277195022593209</v>
       </c>
       <c r="D24">
-        <v>0.3149393245364657</v>
+        <v>0.3288706115439957</v>
       </c>
       <c r="E24">
-        <v>0.1225063076817476</v>
+        <v>0.1272641925439354</v>
       </c>
       <c r="F24">
-        <v>0.2056595525067783</v>
+        <v>0.2054730952670224</v>
       </c>
       <c r="G24">
-        <v>0.3782207278334045</v>
+        <v>0.4020748990152308</v>
       </c>
       <c r="H24">
-        <v>0.3664502598423982</v>
+        <v>0.3737110429164034</v>
       </c>
       <c r="I24">
-        <v>0.1457460471939387</v>
+        <v>0.1525507088476139</v>
       </c>
       <c r="J24">
-        <v>0.2140991511901948</v>
+        <v>0.2239310830846573</v>
       </c>
       <c r="K24">
-        <v>0.1552366927185405</v>
+        <v>0.1623493557303718</v>
       </c>
       <c r="L24">
-        <v>0.2236566231461013</v>
+        <v>0.2312698722881069</v>
       </c>
       <c r="M24">
-        <v>0.1536031820308844</v>
+        <v>0.1636029357436643</v>
       </c>
       <c r="N24">
-        <v>0.1693571371153382</v>
+        <v>0.176436782209175</v>
       </c>
       <c r="O24">
-        <v>0.3941849998825067</v>
+        <v>0.4113351430711122</v>
       </c>
       <c r="P24">
-        <v>0.2750666895083331</v>
+        <v>0.2935019333839112</v>
       </c>
       <c r="Q24">
-        <v>0.3236481452604952</v>
+        <v>0.3382979833650805</v>
       </c>
       <c r="R24">
-        <v>0.2711786959000684</v>
+        <v>0.2848370155574436</v>
       </c>
       <c r="S24">
-        <v>0.2953596844597902</v>
+        <v>0.3343440290187268</v>
       </c>
       <c r="T24">
-        <v>0.3626379119654577</v>
+        <v>0.3902850614550506</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>2.52545127959246</v>
+        <v>2.571982961939881</v>
       </c>
       <c r="C25">
-        <v>2.461424685358551</v>
+        <v>2.557830485535094</v>
       </c>
       <c r="D25">
-        <v>3.108280476398074</v>
+        <v>3.245774730189139</v>
       </c>
       <c r="E25">
-        <v>1.902834660737203</v>
+        <v>1.976736718507872</v>
       </c>
       <c r="F25">
-        <v>2.598370316372952</v>
+        <v>2.596014554381112</v>
       </c>
       <c r="G25">
-        <v>1.57084207984247</v>
+        <v>1.66991421712809</v>
       </c>
       <c r="H25">
-        <v>2.58989107694522</v>
+        <v>2.641206737911289</v>
       </c>
       <c r="I25">
-        <v>1.983549144965636</v>
+        <v>2.076158042872605</v>
       </c>
       <c r="J25">
-        <v>2.677747130378775</v>
+        <v>2.800715518016558</v>
       </c>
       <c r="K25">
-        <v>3.491643580892655</v>
+        <v>3.651624341326281</v>
       </c>
       <c r="L25">
-        <v>3.323831275368337</v>
+        <v>3.436974160427633</v>
       </c>
       <c r="M25">
-        <v>2.431796911558259</v>
+        <v>2.59010984410019</v>
       </c>
       <c r="N25">
-        <v>1.929918664727676</v>
+        <v>2.010595153708109</v>
       </c>
       <c r="O25">
-        <v>2.475950137875864</v>
+        <v>2.583673413508055</v>
       </c>
       <c r="P25">
-        <v>3.193570886664546</v>
+        <v>3.407607192677614</v>
       </c>
       <c r="Q25">
-        <v>2.075644957291613</v>
+        <v>2.169598415799606</v>
       </c>
       <c r="R25">
-        <v>2.953354188107067</v>
+        <v>3.102104278628481</v>
       </c>
       <c r="S25">
-        <v>0.8375053121684763</v>
+        <v>0.9480471273767082</v>
       </c>
       <c r="T25">
-        <v>3.026122301903534</v>
+        <v>3.256830821046141</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>27.26896539738264</v>
+        <v>27.77139870348807</v>
       </c>
       <c r="C26">
-        <v>26.94329501363215</v>
+        <v>27.99857406833274</v>
       </c>
       <c r="D26">
-        <v>28.10174115759246</v>
+        <v>29.34481685813875</v>
       </c>
       <c r="E26">
-        <v>27.11593758255107</v>
+        <v>28.16906302065674</v>
       </c>
       <c r="F26">
-        <v>26.95751649257691</v>
+        <v>26.93307598371354</v>
       </c>
       <c r="G26">
-        <v>24.46322750831305</v>
+        <v>26.00610967658041</v>
       </c>
       <c r="H26">
-        <v>27.2966788491886</v>
+        <v>27.83753059766322</v>
       </c>
       <c r="I26">
-        <v>25.72067007191</v>
+        <v>26.9215291052412</v>
       </c>
       <c r="J26">
-        <v>25.99193850258992</v>
+        <v>27.18554888236906</v>
       </c>
       <c r="K26">
-        <v>28.2995702822383</v>
+        <v>29.5962051388063</v>
       </c>
       <c r="L26">
-        <v>29.75204473376731</v>
+        <v>30.76480136871974</v>
       </c>
       <c r="M26">
-        <v>25.02971455311184</v>
+        <v>26.65917937098244</v>
       </c>
       <c r="N26">
-        <v>26.37982037547226</v>
+        <v>27.48257736037758</v>
       </c>
       <c r="O26">
-        <v>24.05387120075114</v>
+        <v>25.10040350273147</v>
       </c>
       <c r="P26">
-        <v>24.4428611634566</v>
+        <v>26.08104609733812</v>
       </c>
       <c r="Q26">
-        <v>23.07673649011557</v>
+        <v>24.1212981800652</v>
       </c>
       <c r="R26">
-        <v>28.44103460620891</v>
+        <v>29.87350975234361</v>
       </c>
       <c r="S26">
-        <v>30.87566356647302</v>
+        <v>34.95092356400006</v>
       </c>
       <c r="T26">
-        <v>27.41724761355281</v>
+        <v>29.50751098192695</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>6.859358818520021</v>
+        <v>6.985743163460486</v>
       </c>
       <c r="C27">
-        <v>7.531445604804778</v>
+        <v>7.8264272243263</v>
       </c>
       <c r="D27">
-        <v>6.890655221323705</v>
+        <v>7.195462173264319</v>
       </c>
       <c r="E27">
-        <v>5.72952577465404</v>
+        <v>5.95204838974713</v>
       </c>
       <c r="F27">
-        <v>7.161249791019607</v>
+        <v>7.154757182954676</v>
       </c>
       <c r="G27">
-        <v>5.761735802790214</v>
+        <v>6.125125278907857</v>
       </c>
       <c r="H27">
-        <v>6.412106445427956</v>
+        <v>6.539154831115294</v>
       </c>
       <c r="I27">
-        <v>5.72618293440571</v>
+        <v>5.993529721408658</v>
       </c>
       <c r="J27">
-        <v>7.171567694620859</v>
+        <v>7.500902793606847</v>
       </c>
       <c r="K27">
-        <v>7.35364881446406</v>
+        <v>7.690579632872231</v>
       </c>
       <c r="L27">
-        <v>6.601135443001901</v>
+        <v>6.825837435014309</v>
       </c>
       <c r="M27">
-        <v>5.845285446888162</v>
+        <v>6.225820629017563</v>
       </c>
       <c r="N27">
-        <v>6.696757550734064</v>
+        <v>6.976702450289022</v>
       </c>
       <c r="O27">
-        <v>5.745734226010161</v>
+        <v>5.995718788408825</v>
       </c>
       <c r="P27">
-        <v>7.237983651893003</v>
+        <v>7.723080535229189</v>
       </c>
       <c r="Q27">
-        <v>6.618500615070085</v>
+        <v>6.918085098793402</v>
       </c>
       <c r="R27">
-        <v>6.879990534775013</v>
+        <v>7.22651152401342</v>
       </c>
       <c r="S27">
-        <v>6.457957238732228</v>
+        <v>7.310339074804682</v>
       </c>
       <c r="T27">
-        <v>6.92572176618962</v>
+        <v>7.453731824364152</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.5956328342004349</v>
+        <v>0.6066074263696337</v>
       </c>
       <c r="C28">
-        <v>0.454752298718568</v>
+        <v>0.4725634304183787</v>
       </c>
       <c r="D28">
-        <v>0.2614151536177067</v>
+        <v>0.2729788081042526</v>
       </c>
       <c r="E28">
-        <v>0.5733875111021439</v>
+        <v>0.595656664510372</v>
       </c>
       <c r="F28">
-        <v>0.169592392179097</v>
+        <v>0.1694386345298954</v>
       </c>
       <c r="G28">
-        <v>0.256357860712229</v>
+        <v>0.2725262085663156</v>
       </c>
       <c r="H28">
-        <v>0.6022463131165152</v>
+        <v>0.6141791190545954</v>
       </c>
       <c r="I28">
-        <v>0.3047417350418718</v>
+        <v>0.3189696639541017</v>
       </c>
       <c r="J28">
-        <v>0.545802061484863</v>
+        <v>0.5708665639200418</v>
       </c>
       <c r="K28">
-        <v>0.6556189255930237</v>
+        <v>0.6856581927292859</v>
       </c>
       <c r="L28">
-        <v>0.4824126433552768</v>
+        <v>0.4988339216141285</v>
       </c>
       <c r="M28">
-        <v>0.3878100140383716</v>
+        <v>0.4130569169765782</v>
       </c>
       <c r="N28">
-        <v>0.503555221022939</v>
+        <v>0.5246053657686137</v>
       </c>
       <c r="O28">
-        <v>0.139721019760334</v>
+        <v>0.1457999814054041</v>
       </c>
       <c r="P28">
-        <v>0.4234783779153716</v>
+        <v>0.4518603211701459</v>
       </c>
       <c r="Q28">
-        <v>0.6043280142765562</v>
+        <v>0.6316827440992508</v>
       </c>
       <c r="R28">
-        <v>0.5727481077199722</v>
+        <v>0.6015954207894283</v>
       </c>
       <c r="S28">
-        <v>0.1856770430158362</v>
+        <v>0.2101844426457248</v>
       </c>
       <c r="T28">
-        <v>0.1846307177358381</v>
+        <v>0.1987067778641011</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>10.44832609697975</v>
+        <v>10.64083750867698</v>
       </c>
       <c r="C29">
-        <v>10.77544916038963</v>
+        <v>11.19748758583823</v>
       </c>
       <c r="D29">
-        <v>9.831381771367402</v>
+        <v>10.26627125790296</v>
       </c>
       <c r="E29">
-        <v>11.70623883285528</v>
+        <v>12.16088429226042</v>
       </c>
       <c r="F29">
-        <v>14.57190015877318</v>
+        <v>14.55868882845332</v>
       </c>
       <c r="G29">
-        <v>9.934795935427541</v>
+        <v>10.56137799574388</v>
       </c>
       <c r="H29">
-        <v>8.721361563886276</v>
+        <v>8.894165137426047</v>
       </c>
       <c r="I29">
-        <v>9.251366738994932</v>
+        <v>9.683299005460837</v>
       </c>
       <c r="J29">
-        <v>11.4648587721848</v>
+        <v>11.99135180123756</v>
       </c>
       <c r="K29">
-        <v>11.38428680053175</v>
+        <v>11.90589412302884</v>
       </c>
       <c r="L29">
-        <v>8.734036013369646</v>
+        <v>9.031341728039212</v>
       </c>
       <c r="M29">
-        <v>10.74842068320075</v>
+        <v>11.44815592443909</v>
       </c>
       <c r="N29">
-        <v>9.502064439751244</v>
+        <v>9.899279727149445</v>
       </c>
       <c r="O29">
-        <v>11.12850602638594</v>
+        <v>11.61268343517791</v>
       </c>
       <c r="P29">
-        <v>9.795171434864541</v>
+        <v>10.45165359389148</v>
       </c>
       <c r="Q29">
-        <v>9.356688670582324</v>
+        <v>9.780216431288975</v>
       </c>
       <c r="R29">
-        <v>8.181336575444883</v>
+        <v>8.593401799820692</v>
       </c>
       <c r="S29">
-        <v>11.55428282868166</v>
+        <v>13.07932557020738</v>
       </c>
       <c r="T29">
-        <v>11.84534385043334</v>
+        <v>12.74842094574751</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>20.58845611620967</v>
+        <v>20.9678003972753</v>
       </c>
       <c r="C30">
-        <v>24.46318187764133</v>
+        <v>25.42132316784895</v>
       </c>
       <c r="D30">
-        <v>24.10837257947984</v>
+        <v>25.17480230585183</v>
       </c>
       <c r="E30">
-        <v>21.85614013557616</v>
+        <v>22.70498620942127</v>
       </c>
       <c r="F30">
-        <v>24.73056118894008</v>
+        <v>24.70813970585944</v>
       </c>
       <c r="G30">
-        <v>21.09193587338151</v>
+        <v>22.42219255117353</v>
       </c>
       <c r="H30">
-        <v>20.51425663484818</v>
+        <v>20.92072262402271</v>
       </c>
       <c r="I30">
-        <v>18.9430891820785</v>
+        <v>19.82751325423131</v>
       </c>
       <c r="J30">
-        <v>27.56074249423357</v>
+        <v>28.82639600877459</v>
       </c>
       <c r="K30">
-        <v>25.99938801804835</v>
+        <v>27.19063270542075</v>
       </c>
       <c r="L30">
-        <v>19.40996657588008</v>
+        <v>20.07067990196677</v>
       </c>
       <c r="M30">
-        <v>19.56007253158634</v>
+        <v>20.83345701056573</v>
       </c>
       <c r="N30">
-        <v>27.75801112239752</v>
+        <v>28.91838068582202</v>
       </c>
       <c r="O30">
-        <v>20.49137547904072</v>
+        <v>21.38291123941156</v>
       </c>
       <c r="P30">
-        <v>28.2230855828296</v>
+        <v>30.11462492760007</v>
       </c>
       <c r="Q30">
-        <v>23.10099277509226</v>
+        <v>24.14665241864716</v>
       </c>
       <c r="R30">
-        <v>25.457289702182</v>
+        <v>26.73948408404059</v>
       </c>
       <c r="S30">
-        <v>23.20179590259067</v>
+        <v>26.26418678883181</v>
       </c>
       <c r="T30">
-        <v>22.26331838527662</v>
+        <v>23.96065137563085</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>9.848701085606386</v>
+        <v>10.03016434888664</v>
       </c>
       <c r="C31">
-        <v>9.569265409165212</v>
+        <v>9.944061637690849</v>
       </c>
       <c r="D31">
-        <v>10.95151079755129</v>
+        <v>11.43594899945353</v>
       </c>
       <c r="E31">
-        <v>8.52469928010267</v>
+        <v>8.855780498915264</v>
       </c>
       <c r="F31">
-        <v>10.60451252272824</v>
+        <v>10.59489814736934</v>
       </c>
       <c r="G31">
-        <v>9.234827515743717</v>
+        <v>9.817262956701942</v>
       </c>
       <c r="H31">
-        <v>9.305826535280481</v>
+        <v>9.490210598280058</v>
       </c>
       <c r="I31">
-        <v>7.605293735392801</v>
+        <v>7.960373352593667</v>
       </c>
       <c r="J31">
-        <v>9.348744978554953</v>
+        <v>9.778061131453644</v>
       </c>
       <c r="K31">
-        <v>9.946180383215319</v>
+        <v>10.40189628440991</v>
       </c>
       <c r="L31">
-        <v>8.741382398801454</v>
+        <v>9.03893818369831</v>
       </c>
       <c r="M31">
-        <v>9.566740758072063</v>
+        <v>10.18954720094575</v>
       </c>
       <c r="N31">
-        <v>10.89004026570984</v>
+        <v>11.34527717778819</v>
       </c>
       <c r="O31">
-        <v>10.08801373956736</v>
+        <v>10.52692156247733</v>
       </c>
       <c r="P31">
-        <v>11.00810675215976</v>
+        <v>11.74588104590359</v>
       </c>
       <c r="Q31">
-        <v>9.474504911897707</v>
+        <v>9.903365590115664</v>
       </c>
       <c r="R31">
-        <v>9.054874845858606</v>
+        <v>9.51093712867096</v>
       </c>
       <c r="S31">
-        <v>10.28039729305402</v>
+        <v>11.6373006599038</v>
       </c>
       <c r="T31">
-        <v>11.0298225187302</v>
+        <v>11.87072508836572</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>8.801153795430823</v>
+        <v>8.963315899292857</v>
       </c>
       <c r="C32">
-        <v>12.54150774513914</v>
+        <v>13.03271679849042</v>
       </c>
       <c r="D32">
-        <v>13.68434636489603</v>
+        <v>14.28967107942765</v>
       </c>
       <c r="E32">
-        <v>8.942960460767571</v>
+        <v>9.290286055707281</v>
       </c>
       <c r="F32">
-        <v>10.48710240506579</v>
+        <v>10.47759447731018</v>
       </c>
       <c r="G32">
-        <v>11.44322044918356</v>
+        <v>12.16493800556887</v>
       </c>
       <c r="H32">
-        <v>11.13034681635234</v>
+        <v>11.35088161364443</v>
       </c>
       <c r="I32">
-        <v>9.911510599814537</v>
+        <v>10.37426398082944</v>
       </c>
       <c r="J32">
-        <v>15.91193938088536</v>
+        <v>16.64265271361923</v>
       </c>
       <c r="K32">
-        <v>12.12343409885657</v>
+        <v>12.67890780665873</v>
       </c>
       <c r="L32">
-        <v>8.862189625902268</v>
+        <v>9.16385767675904</v>
       </c>
       <c r="M32">
-        <v>9.069431445952269</v>
+        <v>9.659862448587544</v>
       </c>
       <c r="N32">
-        <v>15.73290168882133</v>
+        <v>16.39058498549412</v>
       </c>
       <c r="O32">
-        <v>13.50688561973643</v>
+        <v>14.09454121921292</v>
       </c>
       <c r="P32">
-        <v>18.44889381072416</v>
+        <v>19.68535707439041</v>
       </c>
       <c r="Q32">
-        <v>13.86905071296152</v>
+        <v>14.49682921435116</v>
       </c>
       <c r="R32">
-        <v>15.83122524685572</v>
+        <v>16.62858852892248</v>
       </c>
       <c r="S32">
-        <v>9.221959803119868</v>
+        <v>10.43916065140433</v>
       </c>
       <c r="T32">
-        <v>14.26541375151789</v>
+        <v>15.35299454080028</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.353787661156678</v>
+        <v>2.397156424849437</v>
       </c>
       <c r="C33">
-        <v>2.896709848001838</v>
+        <v>3.010164317048577</v>
       </c>
       <c r="D33">
-        <v>2.381437749573767</v>
+        <v>2.486780240000164</v>
       </c>
       <c r="E33">
-        <v>4.061555277756399</v>
+        <v>4.219297460495087</v>
       </c>
       <c r="F33">
-        <v>3.770169333827618</v>
+        <v>3.766751183010751</v>
       </c>
       <c r="G33">
-        <v>2.246289312849473</v>
+        <v>2.387961531872382</v>
       </c>
       <c r="H33">
-        <v>2.613084131365625</v>
+        <v>2.664859335564226</v>
       </c>
       <c r="I33">
-        <v>1.981990363712225</v>
+        <v>2.074526484489209</v>
       </c>
       <c r="J33">
-        <v>4.692842310418883</v>
+        <v>4.908348564091519</v>
       </c>
       <c r="K33">
-        <v>2.686303987195454</v>
+        <v>2.809385551699682</v>
       </c>
       <c r="L33">
-        <v>1.844759008431346</v>
+        <v>1.907554421062488</v>
       </c>
       <c r="M33">
-        <v>2.682732802994853</v>
+        <v>2.857381966849741</v>
       </c>
       <c r="N33">
-        <v>5.408137911883134</v>
+        <v>5.63421457854632</v>
       </c>
       <c r="O33">
-        <v>1.579862256954838</v>
+        <v>1.648598672427586</v>
       </c>
       <c r="P33">
-        <v>4.102689606225986</v>
+        <v>4.377655955556643</v>
       </c>
       <c r="Q33">
-        <v>3.61210735138694</v>
+        <v>3.775608328262954</v>
       </c>
       <c r="R33">
-        <v>1.913835853823472</v>
+        <v>2.010229052324947</v>
       </c>
       <c r="S33">
-        <v>1.543391454604208</v>
+        <v>1.747102751105814</v>
       </c>
       <c r="T33">
-        <v>2.066539333940143</v>
+        <v>2.224090213223302</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.206435941657985</v>
+        <v>1.228664639737958</v>
       </c>
       <c r="C34">
-        <v>1.484953139822448</v>
+        <v>1.543113804465493</v>
       </c>
       <c r="D34">
-        <v>1.220971667045313</v>
+        <v>1.274981139335589</v>
       </c>
       <c r="E34">
-        <v>2.082607230589709</v>
+        <v>2.163491273246901</v>
       </c>
       <c r="F34">
-        <v>1.933046316285725</v>
+        <v>1.931293757379214</v>
       </c>
       <c r="G34">
-        <v>1.151752707547696</v>
+        <v>1.224393110950114</v>
       </c>
       <c r="H34">
-        <v>1.339785443685393</v>
+        <v>1.36633172441799</v>
       </c>
       <c r="I34">
-        <v>1.016325377224043</v>
+        <v>1.063776065974805</v>
       </c>
       <c r="J34">
-        <v>2.406353840137683</v>
+        <v>2.51685921551488</v>
       </c>
       <c r="K34">
-        <v>1.37743014655842</v>
+        <v>1.440541491455279</v>
       </c>
       <c r="L34">
-        <v>0.9460511906070488</v>
+        <v>0.9782546787661166</v>
       </c>
       <c r="M34">
-        <v>1.375584932147871</v>
+        <v>1.465137181981627</v>
       </c>
       <c r="N34">
-        <v>2.772940858368472</v>
+        <v>2.888858247371558</v>
       </c>
       <c r="O34">
-        <v>0.810225801738697</v>
+        <v>0.845476987144187</v>
       </c>
       <c r="P34">
-        <v>2.103405447737452</v>
+        <v>2.244377778729513</v>
       </c>
       <c r="Q34">
-        <v>1.852487135506004</v>
+        <v>1.936339420845525</v>
       </c>
       <c r="R34">
-        <v>0.9810746498223739</v>
+        <v>1.030487938467878</v>
       </c>
       <c r="S34">
-        <v>0.7912819132742388</v>
+        <v>0.8957227302623718</v>
       </c>
       <c r="T34">
-        <v>1.059763760994945</v>
+        <v>1.140559083704257</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>3.253624395934011</v>
+        <v>3.313572737877021</v>
       </c>
       <c r="C35">
-        <v>4.301458387194127</v>
+        <v>4.469932174025897</v>
       </c>
       <c r="D35">
-        <v>4.558087366936631</v>
+        <v>4.759713579883051</v>
       </c>
       <c r="E35">
-        <v>4.067354392912932</v>
+        <v>4.22532180097054</v>
       </c>
       <c r="F35">
-        <v>4.67338311479955</v>
+        <v>4.66914608274689</v>
       </c>
       <c r="G35">
-        <v>3.324478460366703</v>
+        <v>3.534151469929554</v>
       </c>
       <c r="H35">
-        <v>5.319713582226883</v>
+        <v>5.425117481661965</v>
       </c>
       <c r="I35">
-        <v>3.341247616686712</v>
+        <v>3.49724539481134</v>
       </c>
       <c r="J35">
-        <v>7.085626486044512</v>
+        <v>7.411014964481316</v>
       </c>
       <c r="K35">
-        <v>3.266274575220052</v>
+        <v>3.415929337575588</v>
       </c>
       <c r="L35">
-        <v>2.764689717503084</v>
+        <v>2.858799479707366</v>
       </c>
       <c r="M35">
-        <v>4.199754328497894</v>
+        <v>4.473163436199297</v>
       </c>
       <c r="N35">
-        <v>5.567709969965142</v>
+        <v>5.800457235561188</v>
       </c>
       <c r="O35">
-        <v>2.802226038768711</v>
+        <v>2.924144878465926</v>
       </c>
       <c r="P35">
-        <v>6.07244683194244</v>
+        <v>6.479428275127871</v>
       </c>
       <c r="Q35">
-        <v>7.432125716859852</v>
+        <v>7.768538701514182</v>
       </c>
       <c r="R35">
-        <v>6.503613206844745</v>
+        <v>6.831177390351795</v>
       </c>
       <c r="S35">
-        <v>2.284532731789783</v>
+        <v>2.586066813311956</v>
       </c>
       <c r="T35">
-        <v>3.059239919434626</v>
+        <v>3.2924732924119</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>2.14938818990291</v>
+        <v>2.188990873709188</v>
       </c>
       <c r="C36">
-        <v>1.950607034743173</v>
+        <v>2.027005810270614</v>
       </c>
       <c r="D36">
-        <v>3.389088445566055</v>
+        <v>3.539004191713589</v>
       </c>
       <c r="E36">
-        <v>2.204388648876889</v>
+        <v>2.290002423231404</v>
       </c>
       <c r="F36">
-        <v>2.79251907303047</v>
+        <v>2.789987289838412</v>
       </c>
       <c r="G36">
-        <v>1.551522357006186</v>
+        <v>1.649376010105701</v>
       </c>
       <c r="H36">
-        <v>2.085055592394405</v>
+        <v>2.126368528999029</v>
       </c>
       <c r="I36">
-        <v>1.627367628561198</v>
+        <v>1.703346952266405</v>
       </c>
       <c r="J36">
-        <v>2.436508650164471</v>
+        <v>2.548398804681734</v>
       </c>
       <c r="K36">
-        <v>2.612231656659704</v>
+        <v>2.731919361655748</v>
       </c>
       <c r="L36">
-        <v>1.796599370600616</v>
+        <v>1.857755433963954</v>
       </c>
       <c r="M36">
-        <v>1.997601778193729</v>
+        <v>2.127648080191119</v>
       </c>
       <c r="N36">
-        <v>2.519281501889054</v>
+        <v>2.624595155796039</v>
       </c>
       <c r="O36">
-        <v>2.244903088439781</v>
+        <v>2.342574002915878</v>
       </c>
       <c r="P36">
-        <v>2.833808521573138</v>
+        <v>3.023733195059673</v>
       </c>
       <c r="Q36">
-        <v>2.765216487343417</v>
+        <v>2.89038319834405</v>
       </c>
       <c r="R36">
-        <v>2.640096039394919</v>
+        <v>2.773068415829365</v>
       </c>
       <c r="S36">
-        <v>1.066271964323009</v>
+        <v>1.207008550383255</v>
       </c>
       <c r="T36">
-        <v>1.427369315590066</v>
+        <v>1.536190515864172</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>93.35706318885502</v>
+        <v>95.07717604325659</v>
       </c>
       <c r="C37">
-        <v>84.19458484014804</v>
+        <v>87.49220607972052</v>
       </c>
       <c r="D37">
-        <v>91.01901621628258</v>
+        <v>95.04522678848836</v>
       </c>
       <c r="E37">
-        <v>73.1297416814522</v>
+        <v>75.96994556569452</v>
       </c>
       <c r="F37">
-        <v>83.67044025549086</v>
+        <v>83.59458207555691</v>
       </c>
       <c r="G37">
-        <v>74.27987590793408</v>
+        <v>78.96466641484976</v>
       </c>
       <c r="H37">
-        <v>81.05122107936116</v>
+        <v>82.65715617787512</v>
       </c>
       <c r="I37">
-        <v>83.45481013575066</v>
+        <v>87.35118850949705</v>
       </c>
       <c r="J37">
-        <v>76.11300211836493</v>
+        <v>79.60828852632483</v>
       </c>
       <c r="K37">
-        <v>89.49986337861112</v>
+        <v>93.60058439159475</v>
       </c>
       <c r="L37">
-        <v>89.40632697013</v>
+        <v>92.44970942185637</v>
       </c>
       <c r="M37">
-        <v>72.74327328029949</v>
+        <v>77.47894872300078</v>
       </c>
       <c r="N37">
-        <v>86.58816436594296</v>
+        <v>90.2078138444305</v>
       </c>
       <c r="O37">
-        <v>85.80353685561296</v>
+        <v>89.53666455859803</v>
       </c>
       <c r="P37">
-        <v>86.38725802109592</v>
+        <v>92.17701821418956</v>
       </c>
       <c r="Q37">
-        <v>87.78834658766048</v>
+        <v>91.76206027584898</v>
       </c>
       <c r="R37">
-        <v>89.48273565401338</v>
+        <v>93.98966715658725</v>
       </c>
       <c r="S37">
-        <v>77.64747566793051</v>
+        <v>87.89611861020164</v>
       </c>
       <c r="T37">
-        <v>85.907927816091</v>
+        <v>92.45746178456052</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>7.600306901814932</v>
+        <v>7.740343286343891</v>
       </c>
       <c r="C38">
-        <v>11.94814943756457</v>
+        <v>12.41611862386918</v>
       </c>
       <c r="D38">
-        <v>6.834028199916903</v>
+        <v>7.136330265277345</v>
       </c>
       <c r="E38">
-        <v>6.22390034174843</v>
+        <v>6.465623415279461</v>
       </c>
       <c r="F38">
-        <v>6.181297371052606</v>
+        <v>6.175693217820393</v>
       </c>
       <c r="G38">
-        <v>5.105608292619495</v>
+        <v>5.427616171185955</v>
       </c>
       <c r="H38">
-        <v>10.98732298075984</v>
+        <v>11.20502392811798</v>
       </c>
       <c r="I38">
-        <v>9.05885725419866</v>
+        <v>9.481801545111313</v>
       </c>
       <c r="J38">
-        <v>6.729799727728413</v>
+        <v>7.038847812312448</v>
       </c>
       <c r="K38">
-        <v>6.672813776348227</v>
+        <v>6.978549971191819</v>
       </c>
       <c r="L38">
-        <v>11.22854199999186</v>
+        <v>11.61076044961752</v>
       </c>
       <c r="M38">
-        <v>7.718940102948058</v>
+        <v>8.221452478880874</v>
       </c>
       <c r="N38">
-        <v>9.199479688105173</v>
+        <v>9.584046009602384</v>
       </c>
       <c r="O38">
-        <v>5.69031415671975</v>
+        <v>5.937887510868133</v>
       </c>
       <c r="P38">
-        <v>12.30185262230489</v>
+        <v>13.12633505461605</v>
       </c>
       <c r="Q38">
-        <v>8.053086612263284</v>
+        <v>8.417607209212495</v>
       </c>
       <c r="R38">
-        <v>12.6760455350759</v>
+        <v>13.3144934829682</v>
       </c>
       <c r="S38">
-        <v>6.092087284772753</v>
+        <v>6.896178168831884</v>
       </c>
       <c r="T38">
-        <v>6.322153186685469</v>
+        <v>6.804147783723211</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>26.18788381895451</v>
+        <v>26.67039809316034</v>
       </c>
       <c r="C39">
-        <v>25.07211389407612</v>
+        <v>26.05410502159411</v>
       </c>
       <c r="D39">
-        <v>26.51773598344601</v>
+        <v>27.69074348677708</v>
       </c>
       <c r="E39">
-        <v>25.82708423901174</v>
+        <v>26.83015334998741</v>
       </c>
       <c r="F39">
-        <v>28.19070642122763</v>
+        <v>28.1651478646617</v>
       </c>
       <c r="G39">
-        <v>29.59335698760937</v>
+        <v>31.45979357206401</v>
       </c>
       <c r="H39">
-        <v>24.56994875116299</v>
+        <v>25.05677353359961</v>
       </c>
       <c r="I39">
-        <v>27.20307104390397</v>
+        <v>28.47314112785169</v>
       </c>
       <c r="J39">
-        <v>21.33377422370185</v>
+        <v>22.31347084581942</v>
       </c>
       <c r="K39">
-        <v>31.10249878985174</v>
+        <v>32.52755873440494</v>
       </c>
       <c r="L39">
-        <v>26.86083393382756</v>
+        <v>27.77517404155012</v>
       </c>
       <c r="M39">
-        <v>31.22478942442677</v>
+        <v>33.25756114080242</v>
       </c>
       <c r="N39">
-        <v>19.40456442148187</v>
+        <v>20.21573442378903</v>
       </c>
       <c r="O39">
-        <v>29.45693767438819</v>
+        <v>30.73854580043095</v>
       </c>
       <c r="P39">
-        <v>24.57029318910452</v>
+        <v>26.21701874444254</v>
       </c>
       <c r="Q39">
-        <v>22.17370965226883</v>
+        <v>23.17739609799946</v>
       </c>
       <c r="R39">
-        <v>27.3243706084365</v>
+        <v>28.70060330609701</v>
       </c>
       <c r="S39">
-        <v>33.28476444104557</v>
+        <v>37.67800019326422</v>
       </c>
       <c r="T39">
-        <v>28.35778795143582</v>
+        <v>30.51975716871447</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>5.173063180676431</v>
+        <v>5.268377366553427</v>
       </c>
       <c r="C40">
-        <v>5.975632089668308</v>
+        <v>6.209677679846983</v>
       </c>
       <c r="D40">
-        <v>5.584355165857183</v>
+        <v>5.831378158879864</v>
       </c>
       <c r="E40">
-        <v>4.265974087024167</v>
+        <v>4.43165546225479</v>
       </c>
       <c r="F40">
-        <v>4.570553338546161</v>
+        <v>4.566409535113379</v>
       </c>
       <c r="G40">
-        <v>3.962772380227007</v>
+        <v>4.212702232707713</v>
       </c>
       <c r="H40">
-        <v>5.615811576994052</v>
+        <v>5.727082311697792</v>
       </c>
       <c r="I40">
-        <v>4.837677619961378</v>
+        <v>5.063541442872402</v>
       </c>
       <c r="J40">
-        <v>4.646102354877363</v>
+        <v>4.859462200882898</v>
       </c>
       <c r="K40">
-        <v>5.858806143971312</v>
+        <v>6.127245989113269</v>
       </c>
       <c r="L40">
-        <v>5.233891487637961</v>
+        <v>5.412052631793218</v>
       </c>
       <c r="M40">
-        <v>5.636932615816566</v>
+        <v>6.003903775583087</v>
       </c>
       <c r="N40">
-        <v>4.14586271658348</v>
+        <v>4.319172428480603</v>
       </c>
       <c r="O40">
-        <v>5.948680958622938</v>
+        <v>6.207495297712764</v>
       </c>
       <c r="P40">
-        <v>6.280689410440273</v>
+        <v>6.70162747893264</v>
       </c>
       <c r="Q40">
-        <v>4.600377705008923</v>
+        <v>4.808612448773885</v>
       </c>
       <c r="R40">
-        <v>5.757871793119557</v>
+        <v>6.047875597568824</v>
       </c>
       <c r="S40">
-        <v>4.381821525685958</v>
+        <v>4.96017547560143</v>
       </c>
       <c r="T40">
-        <v>6.868593875948486</v>
+        <v>7.392248561258218</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>2.848817630599399</v>
+        <v>2.901307369017229</v>
       </c>
       <c r="C41">
-        <v>4.140270500490799</v>
+        <v>4.302431095093356</v>
       </c>
       <c r="D41">
-        <v>3.438734053374759</v>
+        <v>3.590845864469292</v>
       </c>
       <c r="E41">
-        <v>4.636392567647677</v>
+        <v>4.816460210124323</v>
       </c>
       <c r="F41">
-        <v>3.251416134220968</v>
+        <v>3.248468300919306</v>
       </c>
       <c r="G41">
-        <v>2.328026601772213</v>
+        <v>2.474853946197874</v>
       </c>
       <c r="H41">
-        <v>2.967164762183807</v>
+        <v>3.025955659732396</v>
       </c>
       <c r="I41">
-        <v>2.582900536902208</v>
+        <v>2.703492241288729</v>
       </c>
       <c r="J41">
-        <v>4.22393501450233</v>
+        <v>4.417907952546953</v>
       </c>
       <c r="K41">
-        <v>3.248938497860621</v>
+        <v>3.39779895267169</v>
       </c>
       <c r="L41">
-        <v>2.470834300230834</v>
+        <v>2.55494125334343</v>
       </c>
       <c r="M41">
-        <v>2.013570425830604</v>
+        <v>2.144656306184273</v>
       </c>
       <c r="N41">
-        <v>4.493609371460307</v>
+        <v>4.681455954616776</v>
       </c>
       <c r="O41">
-        <v>3.23621982081757</v>
+        <v>3.377020798362042</v>
       </c>
       <c r="P41">
-        <v>3.69941386652309</v>
+        <v>3.947352273561586</v>
       </c>
       <c r="Q41">
-        <v>2.60165982292912</v>
+        <v>2.719423189619941</v>
       </c>
       <c r="R41">
-        <v>3.388175200498556</v>
+        <v>3.558825700125761</v>
       </c>
       <c r="S41">
-        <v>2.015810260252096</v>
+        <v>2.281875826698101</v>
       </c>
       <c r="T41">
-        <v>1.433164898658008</v>
+        <v>1.54242794835318</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>11.50146243519741</v>
+        <v>11.71337798505975</v>
       </c>
       <c r="C42">
-        <v>10.32381160344311</v>
+        <v>10.72816089124463</v>
       </c>
       <c r="D42">
-        <v>12.31443787442461</v>
+        <v>12.85916492182496</v>
       </c>
       <c r="E42">
-        <v>13.40030534795731</v>
+        <v>13.92074475365201</v>
       </c>
       <c r="F42">
-        <v>9.402785436065498</v>
+        <v>9.394260583234423</v>
       </c>
       <c r="G42">
-        <v>10.84728130631049</v>
+        <v>11.5314133120321</v>
       </c>
       <c r="H42">
-        <v>10.58608313928683</v>
+        <v>10.79583398872217</v>
       </c>
       <c r="I42">
-        <v>11.16555011818377</v>
+        <v>11.68685270027228</v>
       </c>
       <c r="J42">
-        <v>15.17917749723442</v>
+        <v>15.8762406968647</v>
       </c>
       <c r="K42">
-        <v>12.47094364956153</v>
+        <v>13.04233961314144</v>
       </c>
       <c r="L42">
-        <v>11.57137332014282</v>
+        <v>11.96526171370877</v>
       </c>
       <c r="M42">
-        <v>10.68606691623772</v>
+        <v>11.38174285151344</v>
       </c>
       <c r="N42">
-        <v>13.61029223697576</v>
+        <v>14.17924398180579</v>
       </c>
       <c r="O42">
-        <v>12.29935256069041</v>
+        <v>12.83447098885449</v>
       </c>
       <c r="P42">
-        <v>10.55432441692568</v>
+        <v>11.26168576597081</v>
       </c>
       <c r="Q42">
-        <v>11.32629901069009</v>
+        <v>11.83898060414456</v>
       </c>
       <c r="R42">
-        <v>10.68116777213287</v>
+        <v>11.21914072484448</v>
       </c>
       <c r="S42">
-        <v>8.485519210567604</v>
+        <v>9.605517714328462</v>
       </c>
       <c r="T42">
-        <v>9.197590328822534</v>
+        <v>9.898805360055153</v>
       </c>
     </row>
     <row r="43">
@@ -3090,61 +3090,61 @@
         </is>
       </c>
       <c r="B43">
-        <v>1.160126686452054</v>
+        <v>1.181502132057745</v>
       </c>
       <c r="C43">
-        <v>1.177372389833005</v>
+        <v>1.223486141768131</v>
       </c>
       <c r="D43">
-        <v>0.7951054375612741</v>
+        <v>0.8302767902280678</v>
       </c>
       <c r="E43">
-        <v>0.717640500620888</v>
+        <v>0.7455121338372544</v>
       </c>
       <c r="F43">
-        <v>0.7881058224793329</v>
+        <v>0.7873913016389253</v>
       </c>
       <c r="G43">
-        <v>1.714996934851665</v>
+        <v>1.823160838756685</v>
       </c>
       <c r="H43">
-        <v>1.015855783613737</v>
+        <v>1.035983777198637</v>
       </c>
       <c r="I43">
-        <v>0.6133804232172715</v>
+        <v>0.6420182238666957</v>
       </c>
       <c r="J43">
-        <v>0.5360017482261568</v>
+        <v>0.5606161974408145</v>
       </c>
       <c r="K43">
-        <v>0.7958835515011466</v>
+        <v>0.8323494887699264</v>
       </c>
       <c r="L43">
-        <v>0.6766837247741531</v>
+        <v>0.6997179712658418</v>
       </c>
       <c r="M43">
-        <v>0.5687880205896116</v>
+        <v>0.605816811565648</v>
       </c>
       <c r="N43">
-        <v>0.8106561629920856</v>
+        <v>0.8445440641745842</v>
       </c>
       <c r="O43">
-        <v>1.124793237288499</v>
+        <v>1.173730576565293</v>
       </c>
       <c r="P43">
-        <v>0.4778700961797313</v>
+        <v>0.5098974266415408</v>
       </c>
       <c r="Q43">
-        <v>0.6431380702392709</v>
+        <v>0.6722495258303955</v>
       </c>
       <c r="R43">
-        <v>0.6818429853809193</v>
+        <v>0.7161850247493194</v>
       </c>
       <c r="S43">
-        <v>0.5108077301532711</v>
+        <v>0.578228930822838</v>
       </c>
       <c r="T43">
-        <v>0.7451463944495706</v>
+        <v>0.801955605729556</v>
       </c>
     </row>
     <row r="44">
@@ -3154,61 +3154,61 @@
         </is>
       </c>
       <c r="B44">
-        <v>6.373910074292321</v>
+        <v>6.491349979502393</v>
       </c>
       <c r="C44">
-        <v>6.219360633330827</v>
+        <v>6.462952258136286</v>
       </c>
       <c r="D44">
-        <v>7.151294662319399</v>
+        <v>7.467630955231763</v>
       </c>
       <c r="E44">
-        <v>7.735294729419693</v>
+        <v>8.035717151694284</v>
       </c>
       <c r="F44">
-        <v>4.836836415859041</v>
+        <v>4.832451192044934</v>
       </c>
       <c r="G44">
-        <v>5.912578254165815</v>
+        <v>6.285481279890356</v>
       </c>
       <c r="H44">
-        <v>5.248588215337641</v>
+        <v>5.352582848859624</v>
       </c>
       <c r="I44">
-        <v>4.586713838162188</v>
+        <v>4.800860543145495</v>
       </c>
       <c r="J44">
-        <v>5.439173858581887</v>
+        <v>5.688953395971134</v>
       </c>
       <c r="K44">
-        <v>6.501817013302931</v>
+        <v>6.799718447366992</v>
       </c>
       <c r="L44">
-        <v>4.591490894878904</v>
+        <v>4.747784786936502</v>
       </c>
       <c r="M44">
-        <v>6.392021525503043</v>
+        <v>6.80814989040219</v>
       </c>
       <c r="N44">
-        <v>4.720924284388451</v>
+        <v>4.918273324515313</v>
       </c>
       <c r="O44">
-        <v>7.466098067081536</v>
+        <v>7.7909319672776</v>
       </c>
       <c r="P44">
-        <v>5.548732287511319</v>
+        <v>5.920613859589012</v>
       </c>
       <c r="Q44">
-        <v>4.873434170175165</v>
+        <v>5.094028734525152</v>
       </c>
       <c r="R44">
-        <v>4.151060094999036</v>
+        <v>4.360134430673857</v>
       </c>
       <c r="S44">
-        <v>5.147249673476979</v>
+        <v>5.826632017647309</v>
       </c>
       <c r="T44">
-        <v>6.226112095845301</v>
+        <v>6.700784616762513</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2020.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2020.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>155.6045626240207</v>
+        <v>152.6087280736547</v>
       </c>
       <c r="C2">
-        <v>145.0219486294209</v>
+        <v>145.0723293446581</v>
       </c>
       <c r="D2">
-        <v>142.2187189177684</v>
+        <v>139.2100924139441</v>
       </c>
       <c r="E2">
-        <v>123.1570984247956</v>
+        <v>123.0048550661453</v>
       </c>
       <c r="F2">
-        <v>138.1860234016504</v>
+        <v>137.4846392772778</v>
       </c>
       <c r="G2">
-        <v>152.1462476908184</v>
+        <v>151.7470421248485</v>
       </c>
       <c r="H2">
-        <v>158.7932911828355</v>
+        <v>158.8281971142889</v>
       </c>
       <c r="I2">
-        <v>162.9616828920697</v>
+        <v>160.9218682235343</v>
       </c>
       <c r="J2">
-        <v>143.3308744790349</v>
+        <v>142.5477213606629</v>
       </c>
       <c r="K2">
-        <v>146.3245678005389</v>
+        <v>146.3375766083482</v>
       </c>
       <c r="L2">
-        <v>185.2733332722661</v>
+        <v>182.9453468137583</v>
       </c>
       <c r="M2">
-        <v>154.0232549319016</v>
+        <v>153.0390431555767</v>
       </c>
       <c r="N2">
-        <v>123.2163912235994</v>
+        <v>122.2579006551877</v>
       </c>
       <c r="O2">
-        <v>152.1516476344507</v>
+        <v>152.0818348030967</v>
       </c>
       <c r="P2">
-        <v>139.4963285080313</v>
+        <v>139.6358001651118</v>
       </c>
       <c r="Q2">
-        <v>131.7398992650753</v>
+        <v>126.8458020893652</v>
       </c>
       <c r="R2">
-        <v>151.3180275205496</v>
+        <v>151.3719963666367</v>
       </c>
       <c r="S2">
-        <v>202.8244397363709</v>
+        <v>164.5592305716706</v>
       </c>
       <c r="T2">
-        <v>179.0285694230661</v>
+        <v>179.150150724274</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>12.48342789494184</v>
+        <v>12.24308606971508</v>
       </c>
       <c r="C3">
-        <v>10.37940260612422</v>
+        <v>10.38300841705128</v>
       </c>
       <c r="D3">
-        <v>9.276419318723741</v>
+        <v>9.080177352579769</v>
       </c>
       <c r="E3">
-        <v>10.85812066444381</v>
+        <v>10.84469815953157</v>
       </c>
       <c r="F3">
-        <v>14.43371825185434</v>
+        <v>14.3604577252952</v>
       </c>
       <c r="G3">
-        <v>9.615040610635344</v>
+        <v>9.589812399049135</v>
       </c>
       <c r="H3">
-        <v>9.073924879588366</v>
+        <v>9.075919509194573</v>
       </c>
       <c r="I3">
-        <v>11.19983252282829</v>
+        <v>11.05964261892102</v>
       </c>
       <c r="J3">
-        <v>10.72346031673007</v>
+        <v>10.66486783679642</v>
       </c>
       <c r="K3">
-        <v>11.8210109573424</v>
+        <v>11.82206188995042</v>
       </c>
       <c r="L3">
-        <v>13.4659837316951</v>
+        <v>13.29678168181454</v>
       </c>
       <c r="M3">
-        <v>11.30723062335296</v>
+        <v>11.23497718641549</v>
       </c>
       <c r="N3">
-        <v>9.37467436138083</v>
+        <v>9.301749510489779</v>
       </c>
       <c r="O3">
-        <v>12.20565766122894</v>
+        <v>12.20005725181428</v>
       </c>
       <c r="P3">
-        <v>8.841538467813642</v>
+        <v>8.850378442560192</v>
       </c>
       <c r="Q3">
-        <v>7.456319363547694</v>
+        <v>7.17931936778403</v>
       </c>
       <c r="R3">
-        <v>8.392051495719739</v>
+        <v>8.395044591406677</v>
       </c>
       <c r="S3">
-        <v>17.85060110368417</v>
+        <v>14.48287586388598</v>
       </c>
       <c r="T3">
-        <v>17.55213502406755</v>
+        <v>17.56405497305715</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>7.55169325562304</v>
+        <v>7.406301480552629</v>
       </c>
       <c r="C4">
-        <v>5.948311261995722</v>
+        <v>5.950377709031256</v>
       </c>
       <c r="D4">
-        <v>6.284992795492273</v>
+        <v>6.152034236698081</v>
       </c>
       <c r="E4">
-        <v>7.584644658594773</v>
+        <v>7.575268733116161</v>
       </c>
       <c r="F4">
-        <v>6.2868633626477</v>
+        <v>6.254953433943516</v>
       </c>
       <c r="G4">
-        <v>7.031176181010941</v>
+        <v>7.012727584943833</v>
       </c>
       <c r="H4">
-        <v>6.031412401498915</v>
+        <v>6.032738226200234</v>
       </c>
       <c r="I4">
-        <v>7.066279358492146</v>
+        <v>6.977829730140137</v>
       </c>
       <c r="J4">
-        <v>7.19891122733423</v>
+        <v>7.159576716908183</v>
       </c>
       <c r="K4">
-        <v>6.467602760263745</v>
+        <v>6.468177754624296</v>
       </c>
       <c r="L4">
-        <v>6.968481991279602</v>
+        <v>6.880921998562169</v>
       </c>
       <c r="M4">
-        <v>8.121832869492405</v>
+        <v>8.069934189912939</v>
       </c>
       <c r="N4">
-        <v>5.820845485949804</v>
+        <v>5.775565588989179</v>
       </c>
       <c r="O4">
-        <v>9.324682609659588</v>
+        <v>9.320404098683341</v>
       </c>
       <c r="P4">
-        <v>5.958752528898787</v>
+        <v>5.964710227558149</v>
       </c>
       <c r="Q4">
-        <v>5.956797253128602</v>
+        <v>5.735504047536003</v>
       </c>
       <c r="R4">
-        <v>7.096370473801827</v>
+        <v>7.098901453964292</v>
       </c>
       <c r="S4">
-        <v>8.631751815488776</v>
+        <v>7.00327060727356</v>
       </c>
       <c r="T4">
-        <v>6.679399133943059</v>
+        <v>6.683935225811574</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>20.01479248346135</v>
+        <v>19.62945026836679</v>
       </c>
       <c r="C5">
-        <v>15.44813090773505</v>
+        <v>15.45349759802962</v>
       </c>
       <c r="D5">
-        <v>14.02479253269148</v>
+        <v>13.72809908160724</v>
       </c>
       <c r="E5">
-        <v>13.84694658282771</v>
+        <v>13.82982937495433</v>
       </c>
       <c r="F5">
-        <v>13.4408538549484</v>
+        <v>13.37263276225168</v>
       </c>
       <c r="G5">
-        <v>15.73147664811065</v>
+        <v>15.69019996114554</v>
       </c>
       <c r="H5">
-        <v>14.76947039441558</v>
+        <v>14.77271701848483</v>
       </c>
       <c r="I5">
-        <v>18.14374500256567</v>
+        <v>17.9166371540114</v>
       </c>
       <c r="J5">
-        <v>13.13939284691102</v>
+        <v>13.06759982590996</v>
       </c>
       <c r="K5">
-        <v>17.06481273659294</v>
+        <v>17.06632986302311</v>
       </c>
       <c r="L5">
-        <v>20.89025306252061</v>
+        <v>20.62776398551522</v>
       </c>
       <c r="M5">
-        <v>14.00181956998252</v>
+        <v>13.91234765409004</v>
       </c>
       <c r="N5">
-        <v>15.89734615878491</v>
+        <v>15.77368195952817</v>
       </c>
       <c r="O5">
-        <v>22.47437478736263</v>
+        <v>22.46406270884615</v>
       </c>
       <c r="P5">
-        <v>13.07990537023894</v>
+        <v>13.0929829622871</v>
       </c>
       <c r="Q5">
-        <v>11.83028772234503</v>
+        <v>11.39079613283601</v>
       </c>
       <c r="R5">
-        <v>16.13667172906609</v>
+        <v>16.14242700863968</v>
       </c>
       <c r="S5">
-        <v>23.06441687716188</v>
+        <v>18.71304414706293</v>
       </c>
       <c r="T5">
-        <v>24.8436936037175</v>
+        <v>24.86056537231223</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>43.04148028498317</v>
+        <v>42.21280822317344</v>
       </c>
       <c r="C6">
-        <v>42.87056599925634</v>
+        <v>42.88545926057352</v>
       </c>
       <c r="D6">
-        <v>43.27969648964456</v>
+        <v>42.36411770418591</v>
       </c>
       <c r="E6">
-        <v>32.72045224986115</v>
+        <v>32.68000414243748</v>
       </c>
       <c r="F6">
-        <v>30.08954140615508</v>
+        <v>29.93681737421308</v>
       </c>
       <c r="G6">
-        <v>45.32782289841252</v>
+        <v>45.20889049311842</v>
       </c>
       <c r="H6">
-        <v>39.96894793385457</v>
+        <v>39.97773390551906</v>
       </c>
       <c r="I6">
-        <v>45.62163551654523</v>
+        <v>45.05058298641849</v>
       </c>
       <c r="J6">
-        <v>35.03259866708212</v>
+        <v>34.84118220506358</v>
       </c>
       <c r="K6">
-        <v>40.05908544516569</v>
+        <v>40.06264684945623</v>
       </c>
       <c r="L6">
-        <v>46.87603977103867</v>
+        <v>46.28703549347713</v>
       </c>
       <c r="M6">
-        <v>48.35357658301112</v>
+        <v>48.04459623117094</v>
       </c>
       <c r="N6">
-        <v>34.73295286395994</v>
+        <v>34.46276796889367</v>
       </c>
       <c r="O6">
-        <v>45.18740541021008</v>
+        <v>45.16667174900905</v>
       </c>
       <c r="P6">
-        <v>49.32490683863177</v>
+        <v>49.37422302182961</v>
       </c>
       <c r="Q6">
-        <v>39.11434606380625</v>
+        <v>37.66126000811219</v>
       </c>
       <c r="R6">
-        <v>40.84055334847633</v>
+        <v>40.85511947502378</v>
       </c>
       <c r="S6">
-        <v>49.51750360811834</v>
+        <v>40.17544583963004</v>
       </c>
       <c r="T6">
-        <v>59.35362544182859</v>
+        <v>59.39393348336565</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>12.72737190018433</v>
+        <v>12.48233345252608</v>
       </c>
       <c r="C7">
-        <v>11.40140194279958</v>
+        <v>11.40536279693245</v>
       </c>
       <c r="D7">
-        <v>13.21557642202042</v>
+        <v>12.93600187804217</v>
       </c>
       <c r="E7">
-        <v>10.6216653007823</v>
+        <v>10.60853509537366</v>
       </c>
       <c r="F7">
-        <v>11.81086952458388</v>
+        <v>11.75092166462194</v>
       </c>
       <c r="G7">
-        <v>13.88461787817429</v>
+        <v>13.84818703073337</v>
       </c>
       <c r="H7">
-        <v>12.65256290447772</v>
+        <v>12.65534419007338</v>
       </c>
       <c r="I7">
-        <v>14.59265818110223</v>
+        <v>14.40999979366737</v>
       </c>
       <c r="J7">
-        <v>11.8912136056328</v>
+        <v>11.8262405769652</v>
       </c>
       <c r="K7">
-        <v>11.14524206546979</v>
+        <v>11.14623291966603</v>
       </c>
       <c r="L7">
-        <v>13.59681157915736</v>
+        <v>13.42596565828949</v>
       </c>
       <c r="M7">
-        <v>16.36272332093688</v>
+        <v>16.25816518137326</v>
       </c>
       <c r="N7">
-        <v>10.53131548919653</v>
+        <v>10.44939321839211</v>
       </c>
       <c r="O7">
-        <v>12.83935813906919</v>
+        <v>12.83346696432089</v>
       </c>
       <c r="P7">
-        <v>13.47953229648483</v>
+        <v>13.49300944478091</v>
       </c>
       <c r="Q7">
-        <v>11.64411517047174</v>
+        <v>11.21153983462164</v>
       </c>
       <c r="R7">
-        <v>12.01062748933887</v>
+        <v>12.01491118056194</v>
       </c>
       <c r="S7">
-        <v>14.20030926431792</v>
+        <v>11.52125438854045</v>
       </c>
       <c r="T7">
-        <v>16.75196154190628</v>
+        <v>16.76333807967684</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>204.61</v>
+        <v>219.923540958135</v>
       </c>
       <c r="C8">
-        <v>214.39</v>
+        <v>214.117078596919</v>
       </c>
       <c r="D8">
-        <v>208.47</v>
+        <v>225.214758739874</v>
       </c>
       <c r="E8">
-        <v>275.93</v>
+        <v>276.825075071659</v>
       </c>
       <c r="F8">
-        <v>261.67</v>
+        <v>265.417505918474</v>
       </c>
       <c r="G8">
-        <v>234.59</v>
+        <v>236.59830409482</v>
       </c>
       <c r="H8">
-        <v>233.1</v>
+        <v>232.931420089399</v>
       </c>
       <c r="I8">
-        <v>200.33</v>
+        <v>210.339583645918</v>
       </c>
       <c r="J8">
-        <v>245.89</v>
+        <v>250.010421369381</v>
       </c>
       <c r="K8">
-        <v>194.72</v>
+        <v>194.648407560602</v>
       </c>
       <c r="L8">
-        <v>170.7</v>
+        <v>181.120275470531</v>
       </c>
       <c r="M8">
-        <v>210.76</v>
+        <v>215.803259881049</v>
       </c>
       <c r="N8">
-        <v>248.86</v>
+        <v>254.703058690546</v>
       </c>
       <c r="O8">
-        <v>202.76</v>
+        <v>203.12580334511</v>
       </c>
       <c r="P8">
-        <v>186.93</v>
+        <v>186.117073800183</v>
       </c>
       <c r="Q8">
-        <v>289.22</v>
+        <v>315.625260744521</v>
       </c>
       <c r="R8">
-        <v>197.52</v>
+        <v>197.233788764514</v>
       </c>
       <c r="S8">
-        <v>146.48</v>
+        <v>307.506557591907</v>
       </c>
       <c r="T8">
-        <v>144.39</v>
+        <v>143.808940912829</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>10.52537067952887</v>
+        <v>10.32272707701876</v>
       </c>
       <c r="C9">
-        <v>9.342028774281134</v>
+        <v>9.345274200893192</v>
       </c>
       <c r="D9">
-        <v>10.71988589451537</v>
+        <v>10.49310749947962</v>
       </c>
       <c r="E9">
-        <v>11.29563839147355</v>
+        <v>11.28167503939063</v>
       </c>
       <c r="F9">
-        <v>11.35852203873484</v>
+        <v>11.30087013705771</v>
       </c>
       <c r="G9">
-        <v>11.64279358857659</v>
+        <v>11.61224490220056</v>
       </c>
       <c r="H9">
-        <v>8.58037400856375</v>
+        <v>8.582260145847989</v>
       </c>
       <c r="I9">
-        <v>9.038833444019046</v>
+        <v>8.925693074342266</v>
       </c>
       <c r="J9">
-        <v>8.971436138511375</v>
+        <v>8.922416635813942</v>
       </c>
       <c r="K9">
-        <v>7.476311447644329</v>
+        <v>7.476976120024415</v>
       </c>
       <c r="L9">
-        <v>11.10855032548823</v>
+        <v>10.968969770237</v>
       </c>
       <c r="M9">
-        <v>9.836424032706946</v>
+        <v>9.773569080224634</v>
       </c>
       <c r="N9">
-        <v>7.793800792786623</v>
+        <v>7.73317343243479</v>
       </c>
       <c r="O9">
-        <v>10.71752042085088</v>
+        <v>10.7126028241156</v>
       </c>
       <c r="P9">
-        <v>14.02093558038227</v>
+        <v>14.03495403620925</v>
       </c>
       <c r="Q9">
-        <v>7.370114952369013</v>
+        <v>7.096317424252863</v>
       </c>
       <c r="R9">
-        <v>5.991399292760021</v>
+        <v>5.993536175665354</v>
       </c>
       <c r="S9">
-        <v>7.0363011305957</v>
+        <v>5.708820404614038</v>
       </c>
       <c r="T9">
-        <v>7.106217728548011</v>
+        <v>7.111043680075679</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>27.31522341368463</v>
+        <v>26.78932694462409</v>
       </c>
       <c r="C10">
-        <v>32.3786868232209</v>
+        <v>32.38993519918061</v>
       </c>
       <c r="D10">
-        <v>28.46107834288136</v>
+        <v>27.85898633079312</v>
       </c>
       <c r="E10">
-        <v>27.34598750319804</v>
+        <v>27.31218315869542</v>
       </c>
       <c r="F10">
-        <v>22.89644969050133</v>
+        <v>22.78023528674258</v>
       </c>
       <c r="G10">
-        <v>27.82769065325845</v>
+        <v>27.7546755827886</v>
       </c>
       <c r="H10">
-        <v>27.47012691412094</v>
+        <v>27.47616539572137</v>
       </c>
       <c r="I10">
-        <v>24.9506065780977</v>
+        <v>24.63829627064605</v>
       </c>
       <c r="J10">
-        <v>27.45757783893317</v>
+        <v>27.30755093240894</v>
       </c>
       <c r="K10">
-        <v>27.85980873005557</v>
+        <v>27.86228557248075</v>
       </c>
       <c r="L10">
-        <v>27.60214366264844</v>
+        <v>27.2553187011846</v>
       </c>
       <c r="M10">
-        <v>20.49005282860873</v>
+        <v>20.35912096834937</v>
       </c>
       <c r="N10">
-        <v>34.76431940301935</v>
+        <v>34.49389051012491</v>
       </c>
       <c r="O10">
-        <v>31.30789880044423</v>
+        <v>31.2935335727718</v>
       </c>
       <c r="P10">
-        <v>26.35133318853348</v>
+        <v>26.37767986120505</v>
       </c>
       <c r="Q10">
-        <v>29.48045980947605</v>
+        <v>28.38526969701145</v>
       </c>
       <c r="R10">
-        <v>31.74213879406098</v>
+        <v>31.75345989460083</v>
       </c>
       <c r="S10">
-        <v>30.30026020014276</v>
+        <v>24.58376076935255</v>
       </c>
       <c r="T10">
-        <v>23.74768760922044</v>
+        <v>23.76381506178018</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>41.94942428818101</v>
+        <v>41.14177743945618</v>
       </c>
       <c r="C11">
-        <v>51.66477723519289</v>
+        <v>51.68272561096826</v>
       </c>
       <c r="D11">
-        <v>48.65178982895436</v>
+        <v>47.6225648053306</v>
       </c>
       <c r="E11">
-        <v>37.59037848170512</v>
+        <v>37.54391030775343</v>
       </c>
       <c r="F11">
-        <v>27.80633663859839</v>
+        <v>27.66520135881262</v>
       </c>
       <c r="G11">
-        <v>44.03312592496269</v>
+        <v>43.91759058167892</v>
       </c>
       <c r="H11">
-        <v>55.86349355662819</v>
+        <v>55.87577346632909</v>
       </c>
       <c r="I11">
-        <v>59.55759144833019</v>
+        <v>58.81210056665215</v>
       </c>
       <c r="J11">
-        <v>46.4294292125245</v>
+        <v>46.17574100749413</v>
       </c>
       <c r="K11">
-        <v>44.71200149823006</v>
+        <v>44.7159765643656</v>
       </c>
       <c r="L11">
-        <v>50.93845544739874</v>
+        <v>50.29840632427651</v>
       </c>
       <c r="M11">
-        <v>45.98619350786889</v>
+        <v>45.69234078271507</v>
       </c>
       <c r="N11">
-        <v>41.40147906799027</v>
+        <v>41.07942023465737</v>
       </c>
       <c r="O11">
-        <v>36.38890597366719</v>
+        <v>36.37220939104457</v>
       </c>
       <c r="P11">
-        <v>49.1267515785223</v>
+        <v>49.17586964150591</v>
       </c>
       <c r="Q11">
-        <v>40.57112817204432</v>
+        <v>39.06392310425652</v>
       </c>
       <c r="R11">
-        <v>58.25899164755093</v>
+        <v>58.27977020649023</v>
       </c>
       <c r="S11">
-        <v>35.27551219694663</v>
+        <v>28.62037313006402</v>
       </c>
       <c r="T11">
-        <v>37.3729133505656</v>
+        <v>37.39829392222372</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>10.04154840246462</v>
+        <v>9.848219767776937</v>
       </c>
       <c r="C12">
-        <v>11.2606039344215</v>
+        <v>11.2645158752386</v>
       </c>
       <c r="D12">
-        <v>10.76848746272384</v>
+        <v>10.54068090509915</v>
       </c>
       <c r="E12">
-        <v>9.76470286814917</v>
+        <v>9.752632015718554</v>
       </c>
       <c r="F12">
-        <v>8.096253306043868</v>
+        <v>8.055159544200434</v>
       </c>
       <c r="G12">
-        <v>9.54315688605698</v>
+        <v>9.518117284991176</v>
       </c>
       <c r="H12">
-        <v>9.849730082604699</v>
+        <v>9.851895249662681</v>
       </c>
       <c r="I12">
-        <v>9.697983030911409</v>
+        <v>9.576591991676972</v>
       </c>
       <c r="J12">
-        <v>8.772736726760199</v>
+        <v>8.724802908249773</v>
       </c>
       <c r="K12">
-        <v>10.10439315030502</v>
+        <v>10.10529146909384</v>
       </c>
       <c r="L12">
-        <v>10.21554476022978</v>
+        <v>10.08718495016932</v>
       </c>
       <c r="M12">
-        <v>11.58341181686083</v>
+        <v>11.50939357639957</v>
       </c>
       <c r="N12">
-        <v>9.193532598312744</v>
+        <v>9.122016834879311</v>
       </c>
       <c r="O12">
-        <v>10.88449805318668</v>
+        <v>10.87950384090719</v>
       </c>
       <c r="P12">
-        <v>12.36687807444751</v>
+        <v>12.37924276530644</v>
       </c>
       <c r="Q12">
-        <v>10.88421241982941</v>
+        <v>10.47986723996454</v>
       </c>
       <c r="R12">
-        <v>11.42458351480114</v>
+        <v>11.42865818851599</v>
       </c>
       <c r="S12">
-        <v>8.565237751360382</v>
+        <v>6.949305201381694</v>
       </c>
       <c r="T12">
-        <v>12.01596815918118</v>
+        <v>12.0241284044916</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>4.491822283198199</v>
+        <v>4.405341808826609</v>
       </c>
       <c r="C13">
-        <v>4.791178204635652</v>
+        <v>4.792842662926686</v>
       </c>
       <c r="D13">
-        <v>4.65684026050845</v>
+        <v>4.558325148444035</v>
       </c>
       <c r="E13">
-        <v>3.910550011128143</v>
+        <v>3.905715898637036</v>
       </c>
       <c r="F13">
-        <v>4.035859602558231</v>
+        <v>4.015374984912034</v>
       </c>
       <c r="G13">
-        <v>3.34851767568873</v>
+        <v>3.339731741666881</v>
       </c>
       <c r="H13">
-        <v>4.169164546291015</v>
+        <v>4.1700810117839</v>
       </c>
       <c r="I13">
-        <v>4.414996985472118</v>
+        <v>4.359733837395337</v>
       </c>
       <c r="J13">
-        <v>3.541107373708436</v>
+        <v>3.521758930518581</v>
       </c>
       <c r="K13">
-        <v>4.046372267188454</v>
+        <v>4.046732004995579</v>
       </c>
       <c r="L13">
-        <v>4.268364029784514</v>
+        <v>4.214731413121232</v>
       </c>
       <c r="M13">
-        <v>4.247197005147404</v>
+        <v>4.220057328670069</v>
       </c>
       <c r="N13">
-        <v>3.304464889908726</v>
+        <v>3.278759718712165</v>
       </c>
       <c r="O13">
-        <v>4.458710045883699</v>
+        <v>4.456664223986077</v>
       </c>
       <c r="P13">
-        <v>5.050886379024822</v>
+        <v>5.055936372100215</v>
       </c>
       <c r="Q13">
-        <v>4.074788343530146</v>
+        <v>3.923411196326161</v>
       </c>
       <c r="R13">
-        <v>4.096578341566107</v>
+        <v>4.098039420656433</v>
       </c>
       <c r="S13">
-        <v>3.937632596400921</v>
+        <v>3.194752028798378</v>
       </c>
       <c r="T13">
-        <v>5.898829011032957</v>
+        <v>5.902835004652164</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>8.477867328860324</v>
+        <v>8.314644043958406</v>
       </c>
       <c r="C14">
-        <v>7.584481221423738</v>
+        <v>7.587116074921775</v>
       </c>
       <c r="D14">
-        <v>7.66365728033927</v>
+        <v>7.501533176105239</v>
       </c>
       <c r="E14">
-        <v>8.295516834698176</v>
+        <v>8.28526214892848</v>
       </c>
       <c r="F14">
-        <v>5.527072924552106</v>
+        <v>5.499019427475465</v>
       </c>
       <c r="G14">
-        <v>7.034335905168232</v>
+        <v>7.015879018528799</v>
       </c>
       <c r="H14">
-        <v>7.759628870006839</v>
+        <v>7.76133459114545</v>
       </c>
       <c r="I14">
-        <v>6.925149558328311</v>
+        <v>6.838466471849413</v>
       </c>
       <c r="J14">
-        <v>6.725817389831431</v>
+        <v>6.689067841755398</v>
       </c>
       <c r="K14">
-        <v>8.977836961049087</v>
+        <v>8.978635124729497</v>
       </c>
       <c r="L14">
-        <v>7.571134140234743</v>
+        <v>7.476001735356427</v>
       </c>
       <c r="M14">
-        <v>7.543553185725195</v>
+        <v>7.495349725254198</v>
       </c>
       <c r="N14">
-        <v>6.069425307995619</v>
+        <v>6.022211728246833</v>
       </c>
       <c r="O14">
-        <v>8.855516189047785</v>
+        <v>8.851452949064052</v>
       </c>
       <c r="P14">
-        <v>8.160846130784854</v>
+        <v>8.169005533582142</v>
       </c>
       <c r="Q14">
-        <v>6.556606097296238</v>
+        <v>6.313030175635214</v>
       </c>
       <c r="R14">
-        <v>6.421928804780754</v>
+        <v>6.424219239654422</v>
       </c>
       <c r="S14">
-        <v>7.27397805308116</v>
+        <v>5.9016567883343</v>
       </c>
       <c r="T14">
-        <v>7.269282035046353</v>
+        <v>7.274218726276789</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.775099211481113</v>
+        <v>1.740923455588068</v>
       </c>
       <c r="C15">
-        <v>1.934758839264287</v>
+        <v>1.93543097568953</v>
       </c>
       <c r="D15">
-        <v>1.624912430436589</v>
+        <v>1.590537527879411</v>
       </c>
       <c r="E15">
-        <v>1.445088671549183</v>
+        <v>1.443302293372708</v>
       </c>
       <c r="F15">
-        <v>1.938193973265047</v>
+        <v>1.928356375732831</v>
       </c>
       <c r="G15">
-        <v>2.015904012351413</v>
+        <v>2.010614627207804</v>
       </c>
       <c r="H15">
-        <v>1.844114197007315</v>
+        <v>1.844519570076124</v>
       </c>
       <c r="I15">
-        <v>1.486349687274612</v>
+        <v>1.467744835871084</v>
       </c>
       <c r="J15">
-        <v>1.644789575051391</v>
+        <v>1.635802522614509</v>
       </c>
       <c r="K15">
-        <v>1.916052040980276</v>
+        <v>1.916222385257581</v>
       </c>
       <c r="L15">
-        <v>1.660247586827396</v>
+        <v>1.639386333717513</v>
       </c>
       <c r="M15">
-        <v>2.627365958180431</v>
+        <v>2.610577035508334</v>
       </c>
       <c r="N15">
-        <v>1.278970630147397</v>
+        <v>1.26902161870421</v>
       </c>
       <c r="O15">
-        <v>2.238314798335478</v>
+        <v>2.237287776308685</v>
       </c>
       <c r="P15">
-        <v>2.329775233923137</v>
+        <v>2.332104597111229</v>
       </c>
       <c r="Q15">
-        <v>1.62339567606241</v>
+        <v>1.563087020616343</v>
       </c>
       <c r="R15">
-        <v>1.299773507773622</v>
+        <v>1.300237082917566</v>
       </c>
       <c r="S15">
-        <v>1.536031454271711</v>
+        <v>1.246241106729457</v>
       </c>
       <c r="T15">
-        <v>2.607246780405201</v>
+        <v>2.609017405379491</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.805185638794352</v>
+        <v>1.770430632801425</v>
       </c>
       <c r="C16">
-        <v>1.743791425602065</v>
+        <v>1.744397219828915</v>
       </c>
       <c r="D16">
-        <v>2.06637667499688</v>
+        <v>2.022662628923419</v>
       </c>
       <c r="E16">
-        <v>1.995562782493661</v>
+        <v>1.993095923625678</v>
       </c>
       <c r="F16">
-        <v>2.031730233050781</v>
+        <v>2.021417878042722</v>
       </c>
       <c r="G16">
-        <v>1.706251044936932</v>
+        <v>1.701774135881214</v>
       </c>
       <c r="H16">
-        <v>1.813365820058497</v>
+        <v>1.813764434020985</v>
       </c>
       <c r="I16">
-        <v>1.55650669776068</v>
+        <v>1.537023681032946</v>
       </c>
       <c r="J16">
-        <v>1.479206731925412</v>
+        <v>1.471124416311035</v>
       </c>
       <c r="K16">
-        <v>1.601242630376205</v>
+        <v>1.601384986905582</v>
       </c>
       <c r="L16">
-        <v>1.574998473319736</v>
+        <v>1.55520838775642</v>
       </c>
       <c r="M16">
-        <v>1.981053370440608</v>
+        <v>1.968394398536802</v>
       </c>
       <c r="N16">
-        <v>1.589499366835545</v>
+        <v>1.577134776893583</v>
       </c>
       <c r="O16">
-        <v>1.82779418030015</v>
+        <v>1.826955520391808</v>
       </c>
       <c r="P16">
-        <v>1.633329968266399</v>
+        <v>1.634963009362676</v>
       </c>
       <c r="Q16">
-        <v>1.50966380585188</v>
+        <v>1.453580254781106</v>
       </c>
       <c r="R16">
-        <v>1.73194001413664</v>
+        <v>1.732557725096706</v>
       </c>
       <c r="S16">
-        <v>1.395021638319515</v>
+        <v>1.131834446238704</v>
       </c>
       <c r="T16">
-        <v>1.416788236788883</v>
+        <v>1.417750401419477</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>22.18670727680356</v>
+        <v>21.75954946666076</v>
       </c>
       <c r="C17">
-        <v>21.94345052411916</v>
+        <v>21.95107369249212</v>
       </c>
       <c r="D17">
-        <v>19.5321602368482</v>
+        <v>19.11895882839294</v>
       </c>
       <c r="E17">
-        <v>22.69369057102979</v>
+        <v>22.66563726580507</v>
       </c>
       <c r="F17">
-        <v>20.85628586025675</v>
+        <v>20.75042661750799</v>
       </c>
       <c r="G17">
-        <v>18.57601832071153</v>
+        <v>18.52727804601047</v>
       </c>
       <c r="H17">
-        <v>20.7228292236598</v>
+        <v>20.72738451469894</v>
       </c>
       <c r="I17">
-        <v>20.2076663575628</v>
+        <v>19.95472411051735</v>
       </c>
       <c r="J17">
-        <v>19.77059146924189</v>
+        <v>19.6625658926348</v>
       </c>
       <c r="K17">
-        <v>24.06478952630754</v>
+        <v>24.06692897716413</v>
       </c>
       <c r="L17">
-        <v>22.04660242396115</v>
+        <v>21.76958364855183</v>
       </c>
       <c r="M17">
-        <v>20.41878026254218</v>
+        <v>20.28830383545025</v>
       </c>
       <c r="N17">
-        <v>22.59802306535113</v>
+        <v>22.42223483005391</v>
       </c>
       <c r="O17">
-        <v>22.53302058993911</v>
+        <v>22.52268160254856</v>
       </c>
       <c r="P17">
-        <v>20.25494980951681</v>
+        <v>20.2752011770204</v>
       </c>
       <c r="Q17">
-        <v>18.34632703791013</v>
+        <v>17.66476657033891</v>
       </c>
       <c r="R17">
-        <v>18.1559042502736</v>
+        <v>18.16237970609411</v>
       </c>
       <c r="S17">
-        <v>28.42101617496853</v>
+        <v>23.05905816822108</v>
       </c>
       <c r="T17">
-        <v>27.52489851220665</v>
+        <v>27.54359113197966</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>20.65799151061735</v>
+        <v>20.26026586771181</v>
       </c>
       <c r="C18">
-        <v>19.77645588942667</v>
+        <v>19.78332624251448</v>
       </c>
       <c r="D18">
-        <v>20.00845560529123</v>
+        <v>19.58517820346427</v>
       </c>
       <c r="E18">
-        <v>18.69879979324532</v>
+        <v>18.67568486020725</v>
       </c>
       <c r="F18">
-        <v>21.71957953663984</v>
+        <v>21.60933851587633</v>
       </c>
       <c r="G18">
-        <v>18.62420411411021</v>
+        <v>18.57533740818119</v>
       </c>
       <c r="H18">
-        <v>17.83011653070561</v>
+        <v>17.83403594581938</v>
       </c>
       <c r="I18">
-        <v>20.40345336357043</v>
+        <v>20.14806042259697</v>
       </c>
       <c r="J18">
-        <v>18.9095606849868</v>
+        <v>18.80623973985674</v>
       </c>
       <c r="K18">
-        <v>22.2443340602751</v>
+        <v>22.24631166575166</v>
       </c>
       <c r="L18">
-        <v>19.45283484169343</v>
+        <v>19.20840713430987</v>
       </c>
       <c r="M18">
-        <v>20.35722668275744</v>
+        <v>20.2271435843101</v>
       </c>
       <c r="N18">
-        <v>19.30139981020726</v>
+        <v>19.15125574664955</v>
       </c>
       <c r="O18">
-        <v>19.88988684881879</v>
+        <v>19.88076062943296</v>
       </c>
       <c r="P18">
-        <v>22.3144379522446</v>
+        <v>22.33674844364826</v>
       </c>
       <c r="Q18">
-        <v>15.3356923080059</v>
+        <v>14.76597600466219</v>
       </c>
       <c r="R18">
-        <v>21.75811030046989</v>
+        <v>21.76587051334864</v>
       </c>
       <c r="S18">
-        <v>22.72563857720126</v>
+        <v>18.43818034638703</v>
       </c>
       <c r="T18">
-        <v>18.0742972295759</v>
+        <v>18.08657178766835</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>9.518695084561571</v>
+        <v>9.335432877285353</v>
       </c>
       <c r="C19">
-        <v>10.71683231585789</v>
+        <v>10.72055535007618</v>
       </c>
       <c r="D19">
-        <v>11.67571673594865</v>
+        <v>11.42871780999693</v>
       </c>
       <c r="E19">
-        <v>9.74587680416338</v>
+        <v>9.733829223986236</v>
       </c>
       <c r="F19">
-        <v>9.90334317747809</v>
+        <v>9.853077256859564</v>
       </c>
       <c r="G19">
-        <v>10.13086557931303</v>
+        <v>10.1042839317947</v>
       </c>
       <c r="H19">
-        <v>9.505978996715349</v>
+        <v>9.508068600430876</v>
       </c>
       <c r="I19">
-        <v>9.215857528617613</v>
+        <v>9.100501323180918</v>
       </c>
       <c r="J19">
-        <v>10.09897645122637</v>
+        <v>10.04379612159474</v>
       </c>
       <c r="K19">
-        <v>11.46252380128803</v>
+        <v>11.46354286303126</v>
       </c>
       <c r="L19">
-        <v>8.607628312387281</v>
+        <v>8.499472207041787</v>
       </c>
       <c r="M19">
-        <v>11.24000763490383</v>
+        <v>11.16818375424928</v>
       </c>
       <c r="N19">
-        <v>10.35644703394033</v>
+        <v>10.2758850510279</v>
       </c>
       <c r="O19">
-        <v>8.379019043113923</v>
+        <v>8.375174437731966</v>
       </c>
       <c r="P19">
-        <v>14.2083125209042</v>
+        <v>14.22251832053207</v>
       </c>
       <c r="Q19">
-        <v>8.647968576900066</v>
+        <v>8.326699175420748</v>
       </c>
       <c r="R19">
-        <v>13.83587618098571</v>
+        <v>13.84081086249278</v>
       </c>
       <c r="S19">
-        <v>9.487566107274111</v>
+        <v>7.69762549641555</v>
       </c>
       <c r="T19">
-        <v>8.310042198926491</v>
+        <v>8.31568568782267</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5935970794233681</v>
+        <v>0.5821686315067749</v>
       </c>
       <c r="C20">
-        <v>0.8261768192759668</v>
+        <v>0.8264638336173191</v>
       </c>
       <c r="D20">
-        <v>1.483157856495212</v>
+        <v>1.451781761489134</v>
       </c>
       <c r="E20">
-        <v>1.043716987372156</v>
+        <v>1.042426773639694</v>
       </c>
       <c r="F20">
-        <v>0.6470869119603242</v>
+        <v>0.6438025241766254</v>
       </c>
       <c r="G20">
-        <v>1.473221388336749</v>
+        <v>1.469355908990029</v>
       </c>
       <c r="H20">
-        <v>0.5148382089122602</v>
+        <v>0.5149513806155231</v>
       </c>
       <c r="I20">
-        <v>0.6477286782085851</v>
+        <v>0.6396209657967291</v>
       </c>
       <c r="J20">
-        <v>1.752024178218692</v>
+        <v>1.742451200982473</v>
       </c>
       <c r="K20">
-        <v>1.377909252696353</v>
+        <v>1.378031754043301</v>
       </c>
       <c r="L20">
-        <v>1.30321417084977</v>
+        <v>1.286839094692344</v>
       </c>
       <c r="M20">
-        <v>1.032642292441445</v>
+        <v>1.026043686890606</v>
       </c>
       <c r="N20">
-        <v>1.267992341476604</v>
+        <v>1.258128729273273</v>
       </c>
       <c r="O20">
-        <v>0.7184110815618237</v>
+        <v>0.7180814478545341</v>
       </c>
       <c r="P20">
-        <v>1.578609268821941</v>
+        <v>1.580187598896718</v>
       </c>
       <c r="Q20">
-        <v>0.8982644526182009</v>
+        <v>0.8648942015012338</v>
       </c>
       <c r="R20">
-        <v>0.6883561209304887</v>
+        <v>0.6886016289254866</v>
       </c>
       <c r="S20">
-        <v>0.687311995993404</v>
+        <v>0.5576425275492662</v>
       </c>
       <c r="T20">
-        <v>0.5399834411912344</v>
+        <v>0.5403501529938385</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>34.27657217662087</v>
+        <v>33.61664975877408</v>
       </c>
       <c r="C21">
-        <v>30.91082712668162</v>
+        <v>30.92156556726894</v>
       </c>
       <c r="D21">
-        <v>30.42701177691406</v>
+        <v>29.78333058810285</v>
       </c>
       <c r="E21">
-        <v>29.50420747852892</v>
+        <v>29.46773520288832</v>
       </c>
       <c r="F21">
-        <v>29.83193334641732</v>
+        <v>29.68051684326125</v>
       </c>
       <c r="G21">
-        <v>26.51166554174691</v>
+        <v>26.4421034946506</v>
       </c>
       <c r="H21">
-        <v>31.14022164993498</v>
+        <v>31.14706689153341</v>
       </c>
       <c r="I21">
-        <v>33.1614241425428</v>
+        <v>32.74633785848494</v>
       </c>
       <c r="J21">
-        <v>27.47019367459991</v>
+        <v>27.32009783574635</v>
       </c>
       <c r="K21">
-        <v>33.17118739849337</v>
+        <v>33.17413644258188</v>
       </c>
       <c r="L21">
-        <v>33.40499173557083</v>
+        <v>32.98525314160549</v>
       </c>
       <c r="M21">
-        <v>31.55754845701057</v>
+        <v>31.35589507137692</v>
       </c>
       <c r="N21">
-        <v>26.53217122687749</v>
+        <v>26.32577956398341</v>
       </c>
       <c r="O21">
-        <v>31.36247197784179</v>
+        <v>31.3480817099671</v>
       </c>
       <c r="P21">
-        <v>37.17939886648229</v>
+        <v>37.21657168977183</v>
       </c>
       <c r="Q21">
-        <v>24.76022499233073</v>
+        <v>23.84039016718723</v>
       </c>
       <c r="R21">
-        <v>30.72065432447566</v>
+        <v>30.73161110399559</v>
       </c>
       <c r="S21">
-        <v>22.59704471988637</v>
+        <v>18.33384722832943</v>
       </c>
       <c r="T21">
-        <v>27.30569731330724</v>
+        <v>27.32424106987325</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>82.3758248369648</v>
+        <v>80.78985371889567</v>
       </c>
       <c r="C22">
-        <v>72.39607019293067</v>
+        <v>72.4212206327858</v>
       </c>
       <c r="D22">
-        <v>78.4388809577902</v>
+        <v>76.77951221944305</v>
       </c>
       <c r="E22">
-        <v>80.29240985683172</v>
+        <v>80.19315462666576</v>
       </c>
       <c r="F22">
-        <v>80.97863356417228</v>
+        <v>80.56761422518881</v>
       </c>
       <c r="G22">
-        <v>86.37658935681422</v>
+        <v>86.14995205379769</v>
       </c>
       <c r="H22">
-        <v>73.41450943502915</v>
+        <v>73.43064740795568</v>
       </c>
       <c r="I22">
-        <v>88.24772984117367</v>
+        <v>87.14312039801887</v>
       </c>
       <c r="J22">
-        <v>73.80736958881135</v>
+        <v>73.40408961258568</v>
       </c>
       <c r="K22">
-        <v>84.24036113075432</v>
+        <v>84.24785041764724</v>
       </c>
       <c r="L22">
-        <v>80.53509074587491</v>
+        <v>79.52315558294687</v>
       </c>
       <c r="M22">
-        <v>92.19349395364877</v>
+        <v>91.60437562544672</v>
       </c>
       <c r="N22">
-        <v>71.25379845430619</v>
+        <v>70.69952078796857</v>
       </c>
       <c r="O22">
-        <v>87.90842901206506</v>
+        <v>87.86809335731117</v>
       </c>
       <c r="P22">
-        <v>72.13514749190344</v>
+        <v>72.20726988151792</v>
       </c>
       <c r="Q22">
-        <v>63.77822494952552</v>
+        <v>61.40888329723518</v>
       </c>
       <c r="R22">
-        <v>75.15195476275228</v>
+        <v>75.1787583389434</v>
       </c>
       <c r="S22">
-        <v>65.12613732358145</v>
+        <v>52.83932775558758</v>
       </c>
       <c r="T22">
-        <v>74.08644098086469</v>
+        <v>74.13675432428995</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>13.00628121284489</v>
+        <v>12.75587296020666</v>
       </c>
       <c r="C23">
-        <v>12.55206152851009</v>
+        <v>12.55642212249937</v>
       </c>
       <c r="D23">
-        <v>12.98471897303017</v>
+        <v>12.71002820134943</v>
       </c>
       <c r="E23">
-        <v>17.71231404038996</v>
+        <v>17.6904185734338</v>
       </c>
       <c r="F23">
-        <v>25.1351864001271</v>
+        <v>25.00760894858589</v>
       </c>
       <c r="G23">
-        <v>12.41218642087686</v>
+        <v>12.37961898013959</v>
       </c>
       <c r="H23">
-        <v>10.03106666461055</v>
+        <v>10.03327169306478</v>
       </c>
       <c r="I23">
-        <v>8.722311117640039</v>
+        <v>8.613132703146887</v>
       </c>
       <c r="J23">
-        <v>12.69389614992922</v>
+        <v>12.62453730180776</v>
       </c>
       <c r="K23">
-        <v>11.47488542735887</v>
+        <v>11.47590558809744</v>
       </c>
       <c r="L23">
-        <v>8.058995403674619</v>
+        <v>7.95773295085654</v>
       </c>
       <c r="M23">
-        <v>10.96625618796641</v>
+        <v>10.89618158470494</v>
       </c>
       <c r="N23">
-        <v>25.23830149067688</v>
+        <v>25.04197473819436</v>
       </c>
       <c r="O23">
-        <v>8.374946417935002</v>
+        <v>8.371103681224852</v>
       </c>
       <c r="P23">
-        <v>10.23608720214059</v>
+        <v>10.24632147898051</v>
       </c>
       <c r="Q23">
-        <v>11.83390975642817</v>
+        <v>11.39428360945496</v>
       </c>
       <c r="R23">
-        <v>8.294650332353832</v>
+        <v>8.297608689097363</v>
       </c>
       <c r="S23">
-        <v>25.73384798418142</v>
+        <v>20.87885577018976</v>
       </c>
       <c r="T23">
-        <v>29.07356389304884</v>
+        <v>29.09330823743063</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.2593937922411704</v>
+        <v>0.2543997170557003</v>
       </c>
       <c r="C24">
-        <v>0.3277195022593209</v>
+        <v>0.3278333522184273</v>
       </c>
       <c r="D24">
-        <v>0.3288706115439957</v>
+        <v>0.3219133780254441</v>
       </c>
       <c r="E24">
-        <v>0.1272641925439354</v>
+        <v>0.1271068721104678</v>
       </c>
       <c r="F24">
-        <v>0.2054730952670224</v>
+        <v>0.2044301854020564</v>
       </c>
       <c r="G24">
-        <v>0.4020748990152308</v>
+        <v>0.401019923686823</v>
       </c>
       <c r="H24">
-        <v>0.3737110429164034</v>
+        <v>0.3737931920547595</v>
       </c>
       <c r="I24">
-        <v>0.1525507088476139</v>
+        <v>0.1506412098287007</v>
       </c>
       <c r="J24">
-        <v>0.2239310830846573</v>
+        <v>0.222707534238984</v>
       </c>
       <c r="K24">
-        <v>0.1623493557303718</v>
+        <v>0.1623637892024703</v>
       </c>
       <c r="L24">
-        <v>0.2312698722881069</v>
+        <v>0.22836393260732</v>
       </c>
       <c r="M24">
-        <v>0.1636029357436643</v>
+        <v>0.1625575096093352</v>
       </c>
       <c r="N24">
-        <v>0.176436782209175</v>
+        <v>0.17506429442578</v>
       </c>
       <c r="O24">
-        <v>0.4113351430711122</v>
+        <v>0.411146407218299</v>
       </c>
       <c r="P24">
-        <v>0.2935019333839112</v>
+        <v>0.2937953834083185</v>
       </c>
       <c r="Q24">
-        <v>0.3382979833650805</v>
+        <v>0.3257303162105453</v>
       </c>
       <c r="R24">
-        <v>0.2848370155574436</v>
+        <v>0.2849386050726151</v>
       </c>
       <c r="S24">
-        <v>0.3343440290187268</v>
+        <v>0.2712661069497722</v>
       </c>
       <c r="T24">
-        <v>0.3902850614550506</v>
+        <v>0.3905501105797051</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>2.571982961939881</v>
+        <v>2.522464906104012</v>
       </c>
       <c r="C25">
-        <v>2.557830485535094</v>
+        <v>2.558719077438145</v>
       </c>
       <c r="D25">
-        <v>3.245774730189139</v>
+        <v>3.177110605290529</v>
       </c>
       <c r="E25">
-        <v>1.976736718507872</v>
+        <v>1.97429313189336</v>
       </c>
       <c r="F25">
-        <v>2.596014554381112</v>
+        <v>2.582838088699116</v>
       </c>
       <c r="G25">
-        <v>1.66991421712809</v>
+        <v>1.665532649654113</v>
       </c>
       <c r="H25">
-        <v>2.641206737911289</v>
+        <v>2.641787327813174</v>
       </c>
       <c r="I25">
-        <v>2.076158042872605</v>
+        <v>2.050170476010926</v>
       </c>
       <c r="J25">
-        <v>2.800715518016558</v>
+        <v>2.785412540904475</v>
       </c>
       <c r="K25">
-        <v>3.651624341326281</v>
+        <v>3.651948984548963</v>
       </c>
       <c r="L25">
-        <v>3.436974160427633</v>
+        <v>3.393788078748202</v>
       </c>
       <c r="M25">
-        <v>2.59010984410019</v>
+        <v>2.573558988765614</v>
       </c>
       <c r="N25">
-        <v>2.010595153708109</v>
+        <v>1.994954892923111</v>
       </c>
       <c r="O25">
-        <v>2.583673413508055</v>
+        <v>2.582487928111771</v>
       </c>
       <c r="P25">
-        <v>3.407607192677614</v>
+        <v>3.411014197198274</v>
       </c>
       <c r="Q25">
-        <v>2.169598415799606</v>
+        <v>2.088998494754996</v>
       </c>
       <c r="R25">
-        <v>3.102104278628481</v>
+        <v>3.103210670187389</v>
       </c>
       <c r="S25">
-        <v>0.9480471273767082</v>
+        <v>0.7691869186453749</v>
       </c>
       <c r="T25">
-        <v>3.256830821046141</v>
+        <v>3.259042589426534</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>27.77139870348807</v>
+        <v>27.23671955048066</v>
       </c>
       <c r="C26">
-        <v>27.99857406833274</v>
+        <v>28.00830079039457</v>
       </c>
       <c r="D26">
-        <v>29.34481685813875</v>
+        <v>28.72402942297479</v>
       </c>
       <c r="E26">
-        <v>28.16906302065674</v>
+        <v>28.13424121323235</v>
       </c>
       <c r="F26">
-        <v>26.93307598371354</v>
+        <v>26.79637307085388</v>
       </c>
       <c r="G26">
-        <v>26.00610967658041</v>
+        <v>25.93787412105616</v>
       </c>
       <c r="H26">
-        <v>27.83753059766322</v>
+        <v>27.84364984191867</v>
       </c>
       <c r="I26">
-        <v>26.9215291052412</v>
+        <v>26.58454847891418</v>
       </c>
       <c r="J26">
-        <v>27.18554888236906</v>
+        <v>27.03700832919609</v>
       </c>
       <c r="K26">
-        <v>29.5962051388063</v>
+        <v>29.59883635344321</v>
       </c>
       <c r="L26">
-        <v>30.76480136871974</v>
+        <v>30.37823715184017</v>
       </c>
       <c r="M26">
-        <v>26.65917937098244</v>
+        <v>26.48882666485583</v>
       </c>
       <c r="N26">
-        <v>27.48257736037758</v>
+        <v>27.26879256329028</v>
       </c>
       <c r="O26">
-        <v>25.10040350273147</v>
+        <v>25.08888650463188</v>
       </c>
       <c r="P26">
-        <v>26.08104609733812</v>
+        <v>26.10712253072168</v>
       </c>
       <c r="Q26">
-        <v>24.1212981800652</v>
+        <v>23.22519929160329</v>
       </c>
       <c r="R26">
-        <v>29.87350975234361</v>
+        <v>29.88416439063307</v>
       </c>
       <c r="S26">
-        <v>34.95092356400006</v>
+        <v>28.35702194931172</v>
       </c>
       <c r="T26">
-        <v>29.50751098192695</v>
+        <v>29.52755002704779</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>6.985743163460486</v>
+        <v>6.8512475524311</v>
       </c>
       <c r="C27">
-        <v>7.8264272243263</v>
+        <v>7.829146130016367</v>
       </c>
       <c r="D27">
-        <v>7.195462173264319</v>
+        <v>7.043242701970493</v>
       </c>
       <c r="E27">
-        <v>5.95204838974713</v>
+        <v>5.94469063408957</v>
       </c>
       <c r="F27">
-        <v>7.154757182954676</v>
+        <v>7.118442127507429</v>
       </c>
       <c r="G27">
-        <v>6.125125278907857</v>
+        <v>6.109054004455059</v>
       </c>
       <c r="H27">
-        <v>6.539154831115294</v>
+        <v>6.540592267726109</v>
       </c>
       <c r="I27">
-        <v>5.993529721408658</v>
+        <v>5.918507853537241</v>
       </c>
       <c r="J27">
-        <v>7.500902793606847</v>
+        <v>7.459918215547376</v>
       </c>
       <c r="K27">
-        <v>7.690579632872231</v>
+        <v>7.691263354504835</v>
       </c>
       <c r="L27">
-        <v>6.825837435014309</v>
+        <v>6.740069791954004</v>
       </c>
       <c r="M27">
-        <v>6.225820629017563</v>
+        <v>6.186037506767128</v>
       </c>
       <c r="N27">
-        <v>6.976702450289022</v>
+        <v>6.922431233360733</v>
       </c>
       <c r="O27">
-        <v>5.995718788408825</v>
+        <v>5.992967729770097</v>
       </c>
       <c r="P27">
-        <v>7.723080535229189</v>
+        <v>7.730802249854482</v>
       </c>
       <c r="Q27">
-        <v>6.918085098793402</v>
+        <v>6.661080342207082</v>
       </c>
       <c r="R27">
-        <v>7.22651152401342</v>
+        <v>7.229088920075056</v>
       </c>
       <c r="S27">
-        <v>7.310339074804682</v>
+        <v>5.931157876888519</v>
       </c>
       <c r="T27">
-        <v>7.453731824364152</v>
+        <v>7.458793778537061</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.6066074263696337</v>
+        <v>0.5949284919233618</v>
       </c>
       <c r="C28">
-        <v>0.4725634304183787</v>
+        <v>0.4727275992483</v>
       </c>
       <c r="D28">
-        <v>0.2729788081042526</v>
+        <v>0.2672039615629918</v>
       </c>
       <c r="E28">
-        <v>0.595656664510372</v>
+        <v>0.5949203304105325</v>
       </c>
       <c r="F28">
-        <v>0.1694386345298954</v>
+        <v>0.1685786230367704</v>
       </c>
       <c r="G28">
-        <v>0.2725262085663156</v>
+        <v>0.2718111467032494</v>
       </c>
       <c r="H28">
-        <v>0.6141791190545954</v>
+        <v>0.6143141278705858</v>
       </c>
       <c r="I28">
-        <v>0.3189696639541017</v>
+        <v>0.3149770750963741</v>
       </c>
       <c r="J28">
-        <v>0.5708665639200418</v>
+        <v>0.5677473760176915</v>
       </c>
       <c r="K28">
-        <v>0.6856581927292859</v>
+        <v>0.6857191503373362</v>
       </c>
       <c r="L28">
-        <v>0.4988339216141285</v>
+        <v>0.4925660006238181</v>
       </c>
       <c r="M28">
-        <v>0.4130569169765782</v>
+        <v>0.4104174747562424</v>
       </c>
       <c r="N28">
-        <v>0.5246053657686137</v>
+        <v>0.5205245020926527</v>
       </c>
       <c r="O28">
-        <v>0.1457999814054041</v>
+        <v>0.145733082954605</v>
       </c>
       <c r="P28">
-        <v>0.4518603211701459</v>
+        <v>0.4523121015749536</v>
       </c>
       <c r="Q28">
-        <v>0.6316827440992508</v>
+        <v>0.6082159223460288</v>
       </c>
       <c r="R28">
-        <v>0.6015954207894283</v>
+        <v>0.6018099848516442</v>
       </c>
       <c r="S28">
-        <v>0.2101844426457248</v>
+        <v>0.1705306826182918</v>
       </c>
       <c r="T28">
-        <v>0.1987067778641011</v>
+        <v>0.1988417229663795</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>10.64083750867698</v>
+        <v>10.43597083821597</v>
       </c>
       <c r="C29">
-        <v>11.19748758583823</v>
+        <v>11.20137759999654</v>
       </c>
       <c r="D29">
-        <v>10.26627125790296</v>
+        <v>10.04908904703074</v>
       </c>
       <c r="E29">
-        <v>12.16088429226042</v>
+        <v>12.14585134740795</v>
       </c>
       <c r="F29">
-        <v>14.55868882845332</v>
+        <v>14.48479399477481</v>
       </c>
       <c r="G29">
-        <v>10.56137799574388</v>
+        <v>10.53366675774621</v>
       </c>
       <c r="H29">
-        <v>8.894165137426047</v>
+        <v>8.896120252256841</v>
       </c>
       <c r="I29">
-        <v>9.683299005460837</v>
+        <v>9.562091768270999</v>
       </c>
       <c r="J29">
-        <v>11.99135180123756</v>
+        <v>11.92583162220587</v>
       </c>
       <c r="K29">
-        <v>11.90589412302884</v>
+        <v>11.90695260207151</v>
       </c>
       <c r="L29">
-        <v>9.031341728039212</v>
+        <v>8.917861601818702</v>
       </c>
       <c r="M29">
-        <v>11.44815592443909</v>
+        <v>11.37500197192056</v>
       </c>
       <c r="N29">
-        <v>9.899279727149445</v>
+        <v>9.822274012582431</v>
       </c>
       <c r="O29">
-        <v>11.61268343517791</v>
+        <v>11.60735510437879</v>
       </c>
       <c r="P29">
-        <v>10.45165359389148</v>
+        <v>10.46210339899792</v>
       </c>
       <c r="Q29">
-        <v>9.780216431288975</v>
+        <v>9.416884366506578</v>
       </c>
       <c r="R29">
-        <v>8.593401799820692</v>
+        <v>8.596466708785595</v>
       </c>
       <c r="S29">
-        <v>13.07932557020738</v>
+        <v>10.61175741457623</v>
       </c>
       <c r="T29">
-        <v>12.74842094574751</v>
+        <v>12.7570786120179</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>20.9678003972753</v>
+        <v>20.56411004388178</v>
       </c>
       <c r="C30">
-        <v>25.42132316784895</v>
+        <v>25.43015455134348</v>
       </c>
       <c r="D30">
-        <v>25.17480230585183</v>
+        <v>24.64223122081965</v>
       </c>
       <c r="E30">
-        <v>22.70498620942127</v>
+        <v>22.67691894084446</v>
       </c>
       <c r="F30">
-        <v>24.70813970585944</v>
+        <v>24.58272979459728</v>
       </c>
       <c r="G30">
-        <v>22.42219255117353</v>
+        <v>22.36336057730937</v>
       </c>
       <c r="H30">
-        <v>20.92072262402271</v>
+        <v>20.92532141597689</v>
       </c>
       <c r="I30">
-        <v>19.82751325423131</v>
+        <v>19.5793294378961</v>
       </c>
       <c r="J30">
-        <v>28.82639600877459</v>
+        <v>28.66888994451766</v>
       </c>
       <c r="K30">
-        <v>27.19063270542075</v>
+        <v>27.19305005556499</v>
       </c>
       <c r="L30">
-        <v>20.07067990196677</v>
+        <v>19.81848888127541</v>
       </c>
       <c r="M30">
-        <v>20.83345701056573</v>
+        <v>20.70033079049965</v>
       </c>
       <c r="N30">
-        <v>28.91838068582202</v>
+        <v>28.69342688815074</v>
       </c>
       <c r="O30">
-        <v>21.38291123941156</v>
+        <v>21.37309996494017</v>
       </c>
       <c r="P30">
-        <v>30.11462492760007</v>
+        <v>30.14473422643205</v>
       </c>
       <c r="Q30">
-        <v>24.14665241864716</v>
+        <v>23.24961162793598</v>
       </c>
       <c r="R30">
-        <v>26.73948408404059</v>
+        <v>26.74902094573927</v>
       </c>
       <c r="S30">
-        <v>26.26418678883181</v>
+        <v>21.30913993983422</v>
       </c>
       <c r="T30">
-        <v>23.96065137563085</v>
+        <v>23.97692345545267</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>10.03016434888664</v>
+        <v>9.837054889912423</v>
       </c>
       <c r="C31">
-        <v>9.944061637690849</v>
+        <v>9.947516210894451</v>
       </c>
       <c r="D31">
-        <v>11.43594899945353</v>
+        <v>11.19402234227394</v>
       </c>
       <c r="E31">
-        <v>8.855780498915264</v>
+        <v>8.844833230882253</v>
       </c>
       <c r="F31">
-        <v>10.59489814736934</v>
+        <v>10.54112213459335</v>
       </c>
       <c r="G31">
-        <v>9.817262956701942</v>
+        <v>9.791504148486908</v>
       </c>
       <c r="H31">
-        <v>9.490210598280058</v>
+        <v>9.492296735787217</v>
       </c>
       <c r="I31">
-        <v>7.960373352593667</v>
+        <v>7.86073222197038</v>
       </c>
       <c r="J31">
-        <v>9.778061131453644</v>
+        <v>9.724634267949437</v>
       </c>
       <c r="K31">
-        <v>10.40189628440991</v>
+        <v>10.40282105235319</v>
       </c>
       <c r="L31">
-        <v>9.03893818369831</v>
+        <v>8.925362606904343</v>
       </c>
       <c r="M31">
-        <v>10.18954720094575</v>
+        <v>10.12443578413389</v>
       </c>
       <c r="N31">
-        <v>11.34527717778819</v>
+        <v>11.25702316334305</v>
       </c>
       <c r="O31">
-        <v>10.52692156247733</v>
+        <v>10.52209141958276</v>
       </c>
       <c r="P31">
-        <v>11.74588104590359</v>
+        <v>11.75762484956398</v>
       </c>
       <c r="Q31">
-        <v>9.903365590115664</v>
+        <v>9.5354585715511</v>
       </c>
       <c r="R31">
-        <v>9.51093712867096</v>
+        <v>9.51432928432123</v>
       </c>
       <c r="S31">
-        <v>11.6373006599038</v>
+        <v>9.44178741484061</v>
       </c>
       <c r="T31">
-        <v>11.87072508836572</v>
+        <v>11.87878669667313</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>8.963315899292857</v>
+        <v>8.790746335752301</v>
       </c>
       <c r="C32">
-        <v>13.03271679849042</v>
+        <v>13.03724437241973</v>
       </c>
       <c r="D32">
-        <v>14.28967107942765</v>
+        <v>13.98737414223364</v>
       </c>
       <c r="E32">
-        <v>9.290286055707281</v>
+        <v>9.278801664064147</v>
       </c>
       <c r="F32">
-        <v>10.47759447731018</v>
+        <v>10.42441385710636</v>
       </c>
       <c r="G32">
-        <v>12.16493800556887</v>
+        <v>12.13301930211606</v>
       </c>
       <c r="H32">
-        <v>11.35088161364443</v>
+        <v>11.35337676373918</v>
       </c>
       <c r="I32">
-        <v>10.37426398082944</v>
+        <v>10.24440783631865</v>
       </c>
       <c r="J32">
-        <v>16.64265271361923</v>
+        <v>16.55171804641632</v>
       </c>
       <c r="K32">
-        <v>12.67890780665873</v>
+        <v>12.68003500954317</v>
       </c>
       <c r="L32">
-        <v>9.16385767675904</v>
+        <v>9.048712468312678</v>
       </c>
       <c r="M32">
-        <v>9.659862448587544</v>
+        <v>9.598135728270003</v>
       </c>
       <c r="N32">
-        <v>16.39058498549412</v>
+        <v>16.26308392038958</v>
       </c>
       <c r="O32">
-        <v>14.09454121921292</v>
+        <v>14.08807411981276</v>
       </c>
       <c r="P32">
-        <v>19.68535707439041</v>
+        <v>19.70503894989747</v>
       </c>
       <c r="Q32">
-        <v>14.49682921435116</v>
+        <v>13.95827641971185</v>
       </c>
       <c r="R32">
-        <v>16.62858852892248</v>
+        <v>16.63451925475647</v>
       </c>
       <c r="S32">
-        <v>10.43916065140433</v>
+        <v>8.469690570041825</v>
       </c>
       <c r="T32">
-        <v>15.35299454080028</v>
+        <v>15.36342101664</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.397156424849437</v>
+        <v>2.351004281756127</v>
       </c>
       <c r="C33">
-        <v>3.010164317048577</v>
+        <v>3.011210050006295</v>
       </c>
       <c r="D33">
-        <v>2.486780240000164</v>
+        <v>2.434172587532299</v>
       </c>
       <c r="E33">
-        <v>4.219297460495087</v>
+        <v>4.214081683047047</v>
       </c>
       <c r="F33">
-        <v>3.766751183010751</v>
+        <v>3.747632465971281</v>
       </c>
       <c r="G33">
-        <v>2.387961531872382</v>
+        <v>2.381695931837458</v>
       </c>
       <c r="H33">
-        <v>2.664859335564226</v>
+        <v>2.665445124778665</v>
       </c>
       <c r="I33">
-        <v>2.074526484489209</v>
+        <v>2.04855934007693</v>
       </c>
       <c r="J33">
-        <v>4.908348564091519</v>
+        <v>4.881529579710124</v>
       </c>
       <c r="K33">
-        <v>2.809385551699682</v>
+        <v>2.809635316706706</v>
       </c>
       <c r="L33">
-        <v>1.907554421062488</v>
+        <v>1.883585721505632</v>
       </c>
       <c r="M33">
-        <v>2.857381966849741</v>
+        <v>2.8391232371373</v>
       </c>
       <c r="N33">
-        <v>5.63421457854632</v>
+        <v>5.590386468663242</v>
       </c>
       <c r="O33">
-        <v>1.648598672427586</v>
+        <v>1.647842234078885</v>
       </c>
       <c r="P33">
-        <v>4.377655955556643</v>
+        <v>4.382032837276615</v>
       </c>
       <c r="Q33">
-        <v>3.775608328262954</v>
+        <v>3.635345627600347</v>
       </c>
       <c r="R33">
-        <v>2.010229052324947</v>
+        <v>2.010946017409031</v>
       </c>
       <c r="S33">
-        <v>1.747102751105814</v>
+        <v>1.417491328092974</v>
       </c>
       <c r="T33">
-        <v>2.224090213223302</v>
+        <v>2.22560063015284</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.228664639737958</v>
+        <v>1.20500931809142</v>
       </c>
       <c r="C34">
-        <v>1.543113804465493</v>
+        <v>1.543649883161829</v>
       </c>
       <c r="D34">
-        <v>1.274981139335589</v>
+        <v>1.24800900741884</v>
       </c>
       <c r="E34">
-        <v>2.163491273246901</v>
+        <v>2.160816825877952</v>
       </c>
       <c r="F34">
-        <v>1.931293757379214</v>
+        <v>1.921491182939478</v>
       </c>
       <c r="G34">
-        <v>1.224393110950114</v>
+        <v>1.221180514174019</v>
       </c>
       <c r="H34">
-        <v>1.36633172441799</v>
+        <v>1.366632071373203</v>
       </c>
       <c r="I34">
-        <v>1.063776065974805</v>
+        <v>1.050460628965913</v>
       </c>
       <c r="J34">
-        <v>2.51685921551488</v>
+        <v>2.503107215812806</v>
       </c>
       <c r="K34">
-        <v>1.440541491455279</v>
+        <v>1.440669561045269</v>
       </c>
       <c r="L34">
-        <v>0.9782546787661166</v>
+        <v>0.9659627660287735</v>
       </c>
       <c r="M34">
-        <v>1.465137181981627</v>
+        <v>1.455774925164789</v>
       </c>
       <c r="N34">
-        <v>2.888858247371558</v>
+        <v>2.866386047398105</v>
       </c>
       <c r="O34">
-        <v>0.845476987144187</v>
+        <v>0.8450890508764245</v>
       </c>
       <c r="P34">
-        <v>2.244377778729513</v>
+        <v>2.24662175956587</v>
       </c>
       <c r="Q34">
-        <v>1.936339420845525</v>
+        <v>1.864405000494192</v>
       </c>
       <c r="R34">
-        <v>1.030487938467878</v>
+        <v>1.030855470650639</v>
       </c>
       <c r="S34">
-        <v>0.8957227302623718</v>
+        <v>0.7267341326771083</v>
       </c>
       <c r="T34">
-        <v>1.140559083704257</v>
+        <v>1.141333656488636</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>3.313572737877021</v>
+        <v>3.249776949849463</v>
       </c>
       <c r="C35">
-        <v>4.469932174025897</v>
+        <v>4.471485031245907</v>
       </c>
       <c r="D35">
-        <v>4.759713579883051</v>
+        <v>4.659022190338694</v>
       </c>
       <c r="E35">
-        <v>4.22532180097054</v>
+        <v>4.220098576401388</v>
       </c>
       <c r="F35">
-        <v>4.66914608274689</v>
+        <v>4.645447123501953</v>
       </c>
       <c r="G35">
-        <v>3.534151469929554</v>
+        <v>3.524878464783588</v>
       </c>
       <c r="H35">
-        <v>5.425117481661965</v>
+        <v>5.426310030651478</v>
       </c>
       <c r="I35">
-        <v>3.49724539481134</v>
+        <v>3.453469874522138</v>
       </c>
       <c r="J35">
-        <v>7.411014964481316</v>
+        <v>7.370521529268346</v>
       </c>
       <c r="K35">
-        <v>3.415929337575588</v>
+        <v>3.416233026620503</v>
       </c>
       <c r="L35">
-        <v>2.858799479707366</v>
+        <v>2.822878247229902</v>
       </c>
       <c r="M35">
-        <v>4.473163436199297</v>
+        <v>4.444579829566131</v>
       </c>
       <c r="N35">
-        <v>5.800457235561188</v>
+        <v>5.755335937188867</v>
       </c>
       <c r="O35">
-        <v>2.924144878465926</v>
+        <v>2.922803172106323</v>
       </c>
       <c r="P35">
-        <v>6.479428275127871</v>
+        <v>6.485906557446354</v>
       </c>
       <c r="Q35">
-        <v>7.768538701514182</v>
+        <v>7.479939852338089</v>
       </c>
       <c r="R35">
-        <v>6.831177390351795</v>
+        <v>6.833613787172546</v>
       </c>
       <c r="S35">
-        <v>2.586066813311956</v>
+        <v>2.098174981075691</v>
       </c>
       <c r="T35">
-        <v>3.2924732924119</v>
+        <v>3.294709266191804</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>2.188990873709188</v>
+        <v>2.146846515090737</v>
       </c>
       <c r="C36">
-        <v>2.027005810270614</v>
+        <v>2.027709993351013</v>
       </c>
       <c r="D36">
-        <v>3.539004191713589</v>
+        <v>3.464136819194989</v>
       </c>
       <c r="E36">
-        <v>2.290002423231404</v>
+        <v>2.287171586319127</v>
       </c>
       <c r="F36">
-        <v>2.789987289838412</v>
+        <v>2.775826286112251</v>
       </c>
       <c r="G36">
-        <v>1.649376010105701</v>
+        <v>1.64504833135184</v>
       </c>
       <c r="H36">
-        <v>2.126368528999029</v>
+        <v>2.126835947197651</v>
       </c>
       <c r="I36">
-        <v>1.703346952266405</v>
+        <v>1.682025915092658</v>
       </c>
       <c r="J36">
-        <v>2.548398804681734</v>
+        <v>2.534474474156325</v>
       </c>
       <c r="K36">
-        <v>2.731919361655748</v>
+        <v>2.732162239625324</v>
       </c>
       <c r="L36">
-        <v>1.857755433963954</v>
+        <v>1.834412465944202</v>
       </c>
       <c r="M36">
-        <v>2.127648080191119</v>
+        <v>2.114052365067939</v>
       </c>
       <c r="N36">
-        <v>2.624595155796039</v>
+        <v>2.604178637524825</v>
       </c>
       <c r="O36">
-        <v>2.342574002915878</v>
+        <v>2.341499142890748</v>
       </c>
       <c r="P36">
-        <v>3.023733195059673</v>
+        <v>3.026756393474964</v>
       </c>
       <c r="Q36">
-        <v>2.89038319834405</v>
+        <v>2.783006341927357</v>
       </c>
       <c r="R36">
-        <v>2.773068415829365</v>
+        <v>2.774057453982816</v>
       </c>
       <c r="S36">
-        <v>1.207008550383255</v>
+        <v>0.9792922322510341</v>
       </c>
       <c r="T36">
-        <v>1.536190515864172</v>
+        <v>1.537233768583131</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>95.07717604325659</v>
+        <v>93.24666745058856</v>
       </c>
       <c r="C37">
-        <v>87.49220607972052</v>
+        <v>87.52260092658081</v>
       </c>
       <c r="D37">
-        <v>95.04522678848836</v>
+        <v>93.03455202954066</v>
       </c>
       <c r="E37">
-        <v>75.96994556569452</v>
+        <v>75.87603364492563</v>
       </c>
       <c r="F37">
-        <v>83.59458207555691</v>
+        <v>83.17028509306873</v>
       </c>
       <c r="G37">
-        <v>78.96466641484976</v>
+        <v>78.75747672186556</v>
       </c>
       <c r="H37">
-        <v>82.65715617787512</v>
+        <v>82.6753258688374</v>
       </c>
       <c r="I37">
-        <v>87.35118850949705</v>
+        <v>86.25780120228761</v>
       </c>
       <c r="J37">
-        <v>79.60828852632483</v>
+        <v>79.17331260341739</v>
       </c>
       <c r="K37">
-        <v>93.60058439159475</v>
+        <v>93.60890583775719</v>
       </c>
       <c r="L37">
-        <v>92.44970942185637</v>
+        <v>91.28806533727143</v>
       </c>
       <c r="M37">
-        <v>77.47894872300078</v>
+        <v>76.98385664236551</v>
       </c>
       <c r="N37">
-        <v>90.2078138444305</v>
+        <v>89.50609439048203</v>
       </c>
       <c r="O37">
-        <v>89.53666455859803</v>
+        <v>89.49558180885448</v>
       </c>
       <c r="P37">
-        <v>92.17701821418956</v>
+        <v>92.26917892990572</v>
       </c>
       <c r="Q37">
-        <v>91.76206027584898</v>
+        <v>88.35312765529376</v>
       </c>
       <c r="R37">
-        <v>93.98966715658725</v>
+        <v>94.02318936120271</v>
       </c>
       <c r="S37">
-        <v>87.89611861020164</v>
+        <v>71.31348503923584</v>
       </c>
       <c r="T37">
-        <v>92.45746178456052</v>
+        <v>92.52025119602916</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>7.740343286343891</v>
+        <v>7.591319456593138</v>
       </c>
       <c r="C38">
-        <v>12.41611862386918</v>
+        <v>12.42043199120876</v>
       </c>
       <c r="D38">
-        <v>7.136330265277345</v>
+        <v>6.985361725133406</v>
       </c>
       <c r="E38">
-        <v>6.465623415279461</v>
+        <v>6.457630792547197</v>
       </c>
       <c r="F38">
-        <v>6.175693217820393</v>
+        <v>6.144347550050613</v>
       </c>
       <c r="G38">
-        <v>5.427616171185955</v>
+        <v>5.41337504057399</v>
       </c>
       <c r="H38">
-        <v>11.20502392811798</v>
+        <v>11.20748701578532</v>
       </c>
       <c r="I38">
-        <v>9.481801545111313</v>
+        <v>9.363116480422395</v>
       </c>
       <c r="J38">
-        <v>7.038847812312448</v>
+        <v>7.000387880814823</v>
       </c>
       <c r="K38">
-        <v>6.978549971191819</v>
+        <v>6.979170390692985</v>
       </c>
       <c r="L38">
-        <v>11.61076044961752</v>
+        <v>11.46486955089889</v>
       </c>
       <c r="M38">
-        <v>8.221452478880874</v>
+        <v>8.168917227942384</v>
       </c>
       <c r="N38">
-        <v>9.584046009602384</v>
+        <v>9.50949247320837</v>
       </c>
       <c r="O38">
-        <v>5.937887510868133</v>
+        <v>5.935162987369108</v>
       </c>
       <c r="P38">
-        <v>13.12633505461605</v>
+        <v>13.139459068137</v>
       </c>
       <c r="Q38">
-        <v>8.417607209212495</v>
+        <v>8.104895662455109</v>
       </c>
       <c r="R38">
-        <v>13.3144934829682</v>
+        <v>13.31924220895469</v>
       </c>
       <c r="S38">
-        <v>6.896178168831884</v>
+        <v>5.595133282868509</v>
       </c>
       <c r="T38">
-        <v>6.804147783723211</v>
+        <v>6.808768594490019</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>26.67039809316034</v>
+        <v>26.156916362727</v>
       </c>
       <c r="C39">
-        <v>26.05410502159411</v>
+        <v>26.06315623389857</v>
       </c>
       <c r="D39">
-        <v>27.69074348677708</v>
+        <v>27.10494785172367</v>
       </c>
       <c r="E39">
-        <v>26.83015334998741</v>
+        <v>26.79698666522992</v>
       </c>
       <c r="F39">
-        <v>28.1651478646617</v>
+        <v>28.02219138406696</v>
       </c>
       <c r="G39">
-        <v>31.45979357206401</v>
+        <v>31.37724848870612</v>
       </c>
       <c r="H39">
-        <v>25.05677353359961</v>
+        <v>25.0622815120091</v>
       </c>
       <c r="I39">
-        <v>28.47314112785169</v>
+        <v>28.11673875214513</v>
       </c>
       <c r="J39">
-        <v>22.31347084581942</v>
+        <v>22.19155109658101</v>
       </c>
       <c r="K39">
-        <v>32.52755873440494</v>
+        <v>32.53045055746954</v>
       </c>
       <c r="L39">
-        <v>27.77517404155012</v>
+        <v>27.42617492813532</v>
       </c>
       <c r="M39">
-        <v>33.25756114080242</v>
+        <v>33.04504463905015</v>
       </c>
       <c r="N39">
-        <v>20.21573442378903</v>
+        <v>20.05847782354049</v>
       </c>
       <c r="O39">
-        <v>30.73854580043095</v>
+        <v>30.72444181307756</v>
       </c>
       <c r="P39">
-        <v>26.21701874444254</v>
+        <v>26.24323112642496</v>
       </c>
       <c r="Q39">
-        <v>23.17739609799946</v>
+        <v>22.3163628847032</v>
       </c>
       <c r="R39">
-        <v>28.70060330609701</v>
+        <v>28.71083961744612</v>
       </c>
       <c r="S39">
-        <v>37.67800019326422</v>
+        <v>30.56960359087816</v>
       </c>
       <c r="T39">
-        <v>30.51975716871447</v>
+        <v>30.54048364718145</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>5.268377366553427</v>
+        <v>5.166945977441636</v>
       </c>
       <c r="C40">
-        <v>6.209677679846983</v>
+        <v>6.211834925738793</v>
       </c>
       <c r="D40">
-        <v>5.831378158879864</v>
+        <v>5.708015784249192</v>
       </c>
       <c r="E40">
-        <v>4.43165546225479</v>
+        <v>4.42617717378759</v>
       </c>
       <c r="F40">
-        <v>4.566409535113379</v>
+        <v>4.543232030800926</v>
       </c>
       <c r="G40">
-        <v>4.212702232707713</v>
+        <v>4.201648827154866</v>
       </c>
       <c r="H40">
-        <v>5.727082311697792</v>
+        <v>5.72834123857758</v>
       </c>
       <c r="I40">
-        <v>5.063541442872402</v>
+        <v>5.000160371159065</v>
       </c>
       <c r="J40">
-        <v>4.859462200882898</v>
+        <v>4.83291032927767</v>
       </c>
       <c r="K40">
-        <v>6.127245989113269</v>
+        <v>6.127790724468864</v>
       </c>
       <c r="L40">
-        <v>5.412052631793218</v>
+        <v>5.344049401015095</v>
       </c>
       <c r="M40">
-        <v>6.003903775583087</v>
+        <v>5.96553870660397</v>
       </c>
       <c r="N40">
-        <v>4.319172428480603</v>
+        <v>4.285573927543095</v>
       </c>
       <c r="O40">
-        <v>6.207495297712764</v>
+        <v>6.204647068139915</v>
       </c>
       <c r="P40">
-        <v>6.70162747893264</v>
+        <v>6.708327921156605</v>
       </c>
       <c r="Q40">
-        <v>4.808612448773885</v>
+        <v>4.629973959326765</v>
       </c>
       <c r="R40">
-        <v>6.047875597568824</v>
+        <v>6.050032623222855</v>
       </c>
       <c r="S40">
-        <v>4.96017547560143</v>
+        <v>4.024380202042641</v>
       </c>
       <c r="T40">
-        <v>7.392248561258218</v>
+        <v>7.39726876111697</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>2.901307369017229</v>
+        <v>2.845448872898867</v>
       </c>
       <c r="C41">
-        <v>4.302431095093356</v>
+        <v>4.303925762334266</v>
       </c>
       <c r="D41">
-        <v>3.590845864469292</v>
+        <v>3.514881785189147</v>
       </c>
       <c r="E41">
-        <v>4.816460210124323</v>
+        <v>4.810506236796164</v>
       </c>
       <c r="F41">
-        <v>3.248468300919306</v>
+        <v>3.231980207270571</v>
       </c>
       <c r="G41">
-        <v>2.474853946197874</v>
+        <v>2.468360355424001</v>
       </c>
       <c r="H41">
-        <v>3.025955659732396</v>
+        <v>3.026620825118496</v>
       </c>
       <c r="I41">
-        <v>2.703492241288729</v>
+        <v>2.669652242632696</v>
       </c>
       <c r="J41">
-        <v>4.417907952546953</v>
+        <v>4.393768712468406</v>
       </c>
       <c r="K41">
-        <v>3.39779895267169</v>
+        <v>3.398101029856776</v>
       </c>
       <c r="L41">
-        <v>2.55494125334343</v>
+        <v>2.522838043804226</v>
       </c>
       <c r="M41">
-        <v>2.144656306184273</v>
+        <v>2.130951908146137</v>
       </c>
       <c r="N41">
-        <v>4.681455954616776</v>
+        <v>4.64503927876403</v>
       </c>
       <c r="O41">
-        <v>3.377020798362042</v>
+        <v>3.375471295697164</v>
       </c>
       <c r="P41">
-        <v>3.947352273561586</v>
+        <v>3.951298927703402</v>
       </c>
       <c r="Q41">
-        <v>2.719423189619941</v>
+        <v>2.618397445512606</v>
       </c>
       <c r="R41">
-        <v>3.558825700125761</v>
+        <v>3.560094985217617</v>
       </c>
       <c r="S41">
-        <v>2.281875826698101</v>
+        <v>1.851373191463564</v>
       </c>
       <c r="T41">
-        <v>1.54242794835318</v>
+        <v>1.543475437017054</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>11.71337798505975</v>
+        <v>11.48786183130835</v>
       </c>
       <c r="C42">
-        <v>10.72816089124463</v>
+        <v>10.73188786101706</v>
       </c>
       <c r="D42">
-        <v>12.85916492182496</v>
+        <v>12.58713023683233</v>
       </c>
       <c r="E42">
-        <v>13.92074475365201</v>
+        <v>13.90353631854501</v>
       </c>
       <c r="F42">
-        <v>9.394260583234423</v>
+        <v>9.34657858854999</v>
       </c>
       <c r="G42">
-        <v>11.5314133120321</v>
+        <v>11.50115686833053</v>
       </c>
       <c r="H42">
-        <v>10.79583398872217</v>
+        <v>10.79820712828232</v>
       </c>
       <c r="I42">
-        <v>11.68685270027228</v>
+        <v>11.54056669521907</v>
       </c>
       <c r="J42">
-        <v>15.8762406968647</v>
+        <v>15.78949366866881</v>
       </c>
       <c r="K42">
-        <v>13.04233961314144</v>
+        <v>13.0434991264888</v>
       </c>
       <c r="L42">
-        <v>11.96526171370877</v>
+        <v>11.81491645489551</v>
       </c>
       <c r="M42">
-        <v>11.38174285151344</v>
+        <v>11.30901327990093</v>
       </c>
       <c r="N42">
-        <v>14.17924398180579</v>
+        <v>14.06894476358646</v>
       </c>
       <c r="O42">
-        <v>12.83447098885449</v>
+        <v>12.82858205651235</v>
       </c>
       <c r="P42">
-        <v>11.26168576597081</v>
+        <v>11.27294545998641</v>
       </c>
       <c r="Q42">
-        <v>11.83898060414456</v>
+        <v>11.3991660767215</v>
       </c>
       <c r="R42">
-        <v>11.21914072484448</v>
+        <v>11.22314212566189</v>
       </c>
       <c r="S42">
-        <v>9.605517714328462</v>
+        <v>7.793324149530456</v>
       </c>
       <c r="T42">
-        <v>9.898805360055153</v>
+        <v>9.905527804634575</v>
       </c>
     </row>
     <row r="43">
@@ -3090,61 +3090,61 @@
         </is>
       </c>
       <c r="B43">
-        <v>1.181502132057745</v>
+        <v>1.158754824081293</v>
       </c>
       <c r="C43">
-        <v>1.223486141768131</v>
+        <v>1.223911181615462</v>
       </c>
       <c r="D43">
-        <v>0.8302767902280678</v>
+        <v>0.8127123460001976</v>
       </c>
       <c r="E43">
-        <v>0.7455121338372544</v>
+        <v>0.7445905525997815</v>
       </c>
       <c r="F43">
-        <v>0.7873913016389253</v>
+        <v>0.7833947776414624</v>
       </c>
       <c r="G43">
-        <v>1.823160838756685</v>
+        <v>1.818377178524926</v>
       </c>
       <c r="H43">
-        <v>1.035983777198637</v>
+        <v>1.036211507088511</v>
       </c>
       <c r="I43">
-        <v>0.6420182238666957</v>
+        <v>0.6339819900277404</v>
       </c>
       <c r="J43">
-        <v>0.5606161974408145</v>
+        <v>0.5575530170560479</v>
       </c>
       <c r="K43">
-        <v>0.8323494887699264</v>
+        <v>0.8324234877893144</v>
       </c>
       <c r="L43">
-        <v>0.6997179712658418</v>
+        <v>0.6909259128885705</v>
       </c>
       <c r="M43">
-        <v>0.605816811565648</v>
+        <v>0.6019456296424888</v>
       </c>
       <c r="N43">
-        <v>0.8445440641745842</v>
+        <v>0.8379744226514003</v>
       </c>
       <c r="O43">
-        <v>1.173730576565293</v>
+        <v>1.173192025349641</v>
       </c>
       <c r="P43">
-        <v>0.5098974266415408</v>
+        <v>0.5104072338873329</v>
       </c>
       <c r="Q43">
-        <v>0.6722495258303955</v>
+        <v>0.6472756604783426</v>
       </c>
       <c r="R43">
-        <v>0.7161850247493194</v>
+        <v>0.7164404581567192</v>
       </c>
       <c r="S43">
-        <v>0.578228930822838</v>
+        <v>0.4691392618866086</v>
       </c>
       <c r="T43">
-        <v>0.801955605729556</v>
+        <v>0.8025002272185721</v>
       </c>
     </row>
     <row r="44">
@@ -3154,61 +3154,61 @@
         </is>
       </c>
       <c r="B44">
-        <v>6.491349979502393</v>
+        <v>6.3663728566008</v>
       </c>
       <c r="C44">
-        <v>6.462952258136286</v>
+        <v>6.465197491774267</v>
       </c>
       <c r="D44">
-        <v>7.467630955231763</v>
+        <v>7.309653773439825</v>
       </c>
       <c r="E44">
-        <v>8.035717151694284</v>
+        <v>8.025783623022493</v>
       </c>
       <c r="F44">
-        <v>4.832451192044934</v>
+        <v>4.807923352944632</v>
       </c>
       <c r="G44">
-        <v>6.285481279890356</v>
+        <v>6.268989258892043</v>
       </c>
       <c r="H44">
-        <v>5.352582848859624</v>
+        <v>5.353759453290638</v>
       </c>
       <c r="I44">
-        <v>4.800860543145495</v>
+        <v>4.740767485785581</v>
       </c>
       <c r="J44">
-        <v>5.688953395971134</v>
+        <v>5.657869223712216</v>
       </c>
       <c r="K44">
-        <v>6.799718447366992</v>
+        <v>6.800322968068944</v>
       </c>
       <c r="L44">
-        <v>4.747784786936502</v>
+        <v>4.688128178526187</v>
       </c>
       <c r="M44">
-        <v>6.80814989040219</v>
+        <v>6.764645672158772</v>
       </c>
       <c r="N44">
-        <v>4.918273324515313</v>
+        <v>4.880014465059966</v>
       </c>
       <c r="O44">
-        <v>7.7909319672776</v>
+        <v>7.787357198105009</v>
       </c>
       <c r="P44">
-        <v>5.920613859589012</v>
+        <v>5.9265334263243</v>
       </c>
       <c r="Q44">
-        <v>5.094028734525152</v>
+        <v>4.904787116900544</v>
       </c>
       <c r="R44">
-        <v>4.360134430673857</v>
+        <v>4.361689509258106</v>
       </c>
       <c r="S44">
-        <v>5.826632017647309</v>
+        <v>4.727369556127329</v>
       </c>
       <c r="T44">
-        <v>6.700784616762513</v>
+        <v>6.705335231870735</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2020.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2020.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>155.6045626240207</v>
+        <v>152.4626960230554</v>
       </c>
       <c r="C2">
-        <v>145.0219486294209</v>
+        <v>144.5622998824762</v>
       </c>
       <c r="D2">
-        <v>142.2187189177684</v>
+        <v>139.2109474439348</v>
       </c>
       <c r="E2">
-        <v>123.1570984247956</v>
+        <v>123.0040173848653</v>
       </c>
       <c r="F2">
-        <v>138.1860234016504</v>
+        <v>136.5427564539895</v>
       </c>
       <c r="G2">
-        <v>152.1462476908184</v>
+        <v>151.6334018708757</v>
       </c>
       <c r="H2">
-        <v>158.7932911828355</v>
+        <v>158.3232680103423</v>
       </c>
       <c r="I2">
-        <v>162.9616828920697</v>
+        <v>160.9217833763324</v>
       </c>
       <c r="J2">
-        <v>143.3308744790349</v>
+        <v>142.3615365046769</v>
       </c>
       <c r="K2">
-        <v>146.3245678005389</v>
+        <v>145.3251823409435</v>
       </c>
       <c r="L2">
-        <v>185.2733332722661</v>
+        <v>182.9454083564371</v>
       </c>
       <c r="M2">
-        <v>154.0232549319016</v>
+        <v>152.2610153190651</v>
       </c>
       <c r="N2">
-        <v>123.2163912235994</v>
+        <v>122.0107032353503</v>
       </c>
       <c r="O2">
-        <v>152.1516476344507</v>
+        <v>151.5256662433501</v>
       </c>
       <c r="P2">
-        <v>139.4963285080313</v>
+        <v>138.7929020541184</v>
       </c>
       <c r="Q2">
-        <v>131.7398992650753</v>
+        <v>126.7466905560499</v>
       </c>
       <c r="R2">
-        <v>151.3180275205496</v>
+        <v>151.3727107873986</v>
       </c>
       <c r="S2">
-        <v>202.8244397363709</v>
+        <v>164.5584125422246</v>
       </c>
       <c r="T2">
-        <v>179.0285694230661</v>
+        <v>179.149929119967</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>12.48342789494184</v>
+        <v>12.23137059978756</v>
       </c>
       <c r="C3">
-        <v>10.37940260612422</v>
+        <v>10.34650496926974</v>
       </c>
       <c r="D3">
-        <v>9.276419318723741</v>
+        <v>9.080233123133633</v>
       </c>
       <c r="E3">
-        <v>10.85812066444381</v>
+        <v>10.844624305531</v>
       </c>
       <c r="F3">
-        <v>14.43371825185434</v>
+        <v>14.26207678225229</v>
       </c>
       <c r="G3">
-        <v>9.615040610635344</v>
+        <v>9.582630784822461</v>
       </c>
       <c r="H3">
-        <v>9.073924879588366</v>
+        <v>9.047066345911659</v>
       </c>
       <c r="I3">
-        <v>11.19983252282829</v>
+        <v>11.05963678764564</v>
       </c>
       <c r="J3">
-        <v>10.72346031673007</v>
+        <v>10.6509382077336</v>
       </c>
       <c r="K3">
-        <v>11.8210109573424</v>
+        <v>11.74027436849705</v>
       </c>
       <c r="L3">
-        <v>13.4659837316951</v>
+        <v>13.29678615484202</v>
       </c>
       <c r="M3">
-        <v>11.30723062335296</v>
+        <v>11.17786022584538</v>
       </c>
       <c r="N3">
-        <v>9.37467436138083</v>
+        <v>9.282941985850105</v>
       </c>
       <c r="O3">
-        <v>12.20565766122894</v>
+        <v>12.15544121808907</v>
       </c>
       <c r="P3">
-        <v>8.841538467813642</v>
+        <v>8.796953982199817</v>
       </c>
       <c r="Q3">
-        <v>7.456319363547694</v>
+        <v>7.173709774569425</v>
       </c>
       <c r="R3">
-        <v>8.392051495719739</v>
+        <v>8.395084212963484</v>
       </c>
       <c r="S3">
-        <v>17.85060110368417</v>
+        <v>14.48280386902504</v>
       </c>
       <c r="T3">
-        <v>17.55213502406755</v>
+        <v>17.56403324675541</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>7.55169325562304</v>
+        <v>7.399214353844911</v>
       </c>
       <c r="C4">
-        <v>5.948311261995722</v>
+        <v>5.929458020511564</v>
       </c>
       <c r="D4">
-        <v>6.284992795492273</v>
+        <v>6.152072022563208</v>
       </c>
       <c r="E4">
-        <v>7.584644658594773</v>
+        <v>7.575217144414191</v>
       </c>
       <c r="F4">
-        <v>6.2868633626477</v>
+        <v>6.212101859899542</v>
       </c>
       <c r="G4">
-        <v>7.031176181010941</v>
+        <v>7.007475896788096</v>
       </c>
       <c r="H4">
-        <v>6.031412401498915</v>
+        <v>6.013559609542462</v>
       </c>
       <c r="I4">
-        <v>7.066279358492146</v>
+        <v>6.977826051029684</v>
       </c>
       <c r="J4">
-        <v>7.19891122733423</v>
+        <v>7.150225429162337</v>
       </c>
       <c r="K4">
-        <v>6.467602760263745</v>
+        <v>6.423429534576468</v>
       </c>
       <c r="L4">
-        <v>6.968481991279602</v>
+        <v>6.880924313299217</v>
       </c>
       <c r="M4">
-        <v>8.121832869492405</v>
+        <v>8.028907839322219</v>
       </c>
       <c r="N4">
-        <v>5.820845485949804</v>
+        <v>5.763887775906761</v>
       </c>
       <c r="O4">
-        <v>9.324682609659588</v>
+        <v>9.286319056702281</v>
       </c>
       <c r="P4">
-        <v>5.958752528898787</v>
+        <v>5.928704826525702</v>
       </c>
       <c r="Q4">
-        <v>5.956797253128602</v>
+        <v>5.731022585862664</v>
       </c>
       <c r="R4">
-        <v>7.096370473801827</v>
+        <v>7.098934958196957</v>
       </c>
       <c r="S4">
-        <v>8.631751815488776</v>
+        <v>7.00323579378084</v>
       </c>
       <c r="T4">
-        <v>6.679399133943059</v>
+        <v>6.683926957948958</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>20.01479248346135</v>
+        <v>19.61066674981572</v>
       </c>
       <c r="C5">
-        <v>15.44813090773505</v>
+        <v>15.39916787778347</v>
       </c>
       <c r="D5">
-        <v>14.02479253269148</v>
+        <v>13.72818339974989</v>
       </c>
       <c r="E5">
-        <v>13.84694658282771</v>
+        <v>13.82973519176809</v>
       </c>
       <c r="F5">
-        <v>13.4408538549484</v>
+        <v>13.2810192324267</v>
       </c>
       <c r="G5">
-        <v>15.73147664811065</v>
+        <v>15.67844989153297</v>
       </c>
       <c r="H5">
-        <v>14.76947039441558</v>
+        <v>14.72575322425607</v>
       </c>
       <c r="I5">
-        <v>18.14374500256567</v>
+        <v>17.91662770733678</v>
       </c>
       <c r="J5">
-        <v>13.13939284691102</v>
+        <v>13.05053193335829</v>
       </c>
       <c r="K5">
-        <v>17.06481273659294</v>
+        <v>16.94826138793004</v>
       </c>
       <c r="L5">
-        <v>20.89025306252061</v>
+        <v>20.62777092467971</v>
       </c>
       <c r="M5">
-        <v>14.00181956998252</v>
+        <v>13.84161933847253</v>
       </c>
       <c r="N5">
-        <v>15.89734615878491</v>
+        <v>15.74178861389704</v>
       </c>
       <c r="O5">
-        <v>22.47437478736263</v>
+        <v>22.38191085015105</v>
       </c>
       <c r="P5">
-        <v>13.07990537023894</v>
+        <v>13.01394842678022</v>
       </c>
       <c r="Q5">
-        <v>11.83028772234503</v>
+        <v>11.38189588346384</v>
       </c>
       <c r="R5">
-        <v>16.13667172906609</v>
+        <v>16.14250319502341</v>
       </c>
       <c r="S5">
-        <v>23.06441687716188</v>
+        <v>18.7129511238938</v>
       </c>
       <c r="T5">
-        <v>24.8436936037175</v>
+        <v>24.86053462040754</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>43.04148028498317</v>
+        <v>42.17241457712058</v>
       </c>
       <c r="C6">
-        <v>42.87056599925634</v>
+        <v>42.73468724346383</v>
       </c>
       <c r="D6">
-        <v>43.27969648964456</v>
+        <v>42.3643779050847</v>
       </c>
       <c r="E6">
-        <v>32.72045224986115</v>
+        <v>32.67978158676937</v>
       </c>
       <c r="F6">
-        <v>30.08954140615508</v>
+        <v>29.73172556019725</v>
       </c>
       <c r="G6">
-        <v>45.32782289841252</v>
+        <v>45.17503448033867</v>
       </c>
       <c r="H6">
-        <v>39.96894793385457</v>
+        <v>39.85064109879151</v>
       </c>
       <c r="I6">
-        <v>45.62163551654523</v>
+        <v>45.05055923317755</v>
       </c>
       <c r="J6">
-        <v>35.03259866708212</v>
+        <v>34.79567533600028</v>
       </c>
       <c r="K6">
-        <v>40.05908544516569</v>
+        <v>39.78548499569668</v>
       </c>
       <c r="L6">
-        <v>46.87603977103867</v>
+        <v>46.28705106440147</v>
       </c>
       <c r="M6">
-        <v>48.35357658301112</v>
+        <v>47.8003446173928</v>
       </c>
       <c r="N6">
-        <v>34.73295286395994</v>
+        <v>34.3930865227318</v>
       </c>
       <c r="O6">
-        <v>45.18740541021008</v>
+        <v>45.00149565938787</v>
       </c>
       <c r="P6">
-        <v>49.32490683863177</v>
+        <v>49.07618026153708</v>
       </c>
       <c r="Q6">
-        <v>39.11434606380625</v>
+        <v>37.63183321459984</v>
       </c>
       <c r="R6">
-        <v>40.84055334847633</v>
+        <v>40.85531229632682</v>
       </c>
       <c r="S6">
-        <v>49.51750360811834</v>
+        <v>40.17524612614335</v>
       </c>
       <c r="T6">
-        <v>59.35362544182859</v>
+        <v>59.39386001453844</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>12.72737190018433</v>
+        <v>12.47038904558852</v>
       </c>
       <c r="C7">
-        <v>11.40140194279958</v>
+        <v>11.36526506720282</v>
       </c>
       <c r="D7">
-        <v>13.21557642202042</v>
+        <v>12.93608133111467</v>
       </c>
       <c r="E7">
-        <v>10.6216653007823</v>
+        <v>10.60846284967853</v>
       </c>
       <c r="F7">
-        <v>11.81086952458388</v>
+        <v>11.67041818923811</v>
       </c>
       <c r="G7">
-        <v>13.88461787817429</v>
+        <v>13.83781640690309</v>
       </c>
       <c r="H7">
-        <v>12.65256290447772</v>
+        <v>12.61511171424018</v>
       </c>
       <c r="I7">
-        <v>14.59265818110223</v>
+        <v>14.40999219589228</v>
       </c>
       <c r="J7">
-        <v>11.8912136056328</v>
+        <v>11.81079405226694</v>
       </c>
       <c r="K7">
-        <v>11.14524206546979</v>
+        <v>11.06912092579156</v>
       </c>
       <c r="L7">
-        <v>13.59681157915736</v>
+        <v>13.42597017477436</v>
       </c>
       <c r="M7">
-        <v>16.36272332093688</v>
+        <v>16.17551107676773</v>
       </c>
       <c r="N7">
-        <v>10.53131548919653</v>
+        <v>10.42826523379062</v>
       </c>
       <c r="O7">
-        <v>12.83935813906919</v>
+        <v>12.78653452924511</v>
       </c>
       <c r="P7">
-        <v>13.47953229648483</v>
+        <v>13.41156018779113</v>
       </c>
       <c r="Q7">
-        <v>11.64411517047174</v>
+        <v>11.20277964795773</v>
       </c>
       <c r="R7">
-        <v>12.01062748933887</v>
+        <v>12.01496788657233</v>
       </c>
       <c r="S7">
-        <v>14.20030926431792</v>
+        <v>11.52119711599906</v>
       </c>
       <c r="T7">
-        <v>16.75196154190628</v>
+        <v>16.7633173438421</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>204.61</v>
+        <v>220.67</v>
       </c>
       <c r="C8">
-        <v>214.39</v>
+        <v>216.88</v>
       </c>
       <c r="D8">
-        <v>208.47</v>
+        <v>225.21</v>
       </c>
       <c r="E8">
-        <v>275.93</v>
+        <v>276.83</v>
       </c>
       <c r="F8">
-        <v>261.67</v>
+        <v>270.45</v>
       </c>
       <c r="G8">
-        <v>234.59</v>
+        <v>237.17</v>
       </c>
       <c r="H8">
-        <v>233.1</v>
+        <v>235.37</v>
       </c>
       <c r="I8">
-        <v>200.33</v>
+        <v>210.34</v>
       </c>
       <c r="J8">
-        <v>245.89</v>
+        <v>250.99</v>
       </c>
       <c r="K8">
-        <v>194.72</v>
+        <v>200.22</v>
       </c>
       <c r="L8">
-        <v>170.7</v>
+        <v>181.12</v>
       </c>
       <c r="M8">
-        <v>210.76</v>
+        <v>219.79</v>
       </c>
       <c r="N8">
-        <v>248.86</v>
+        <v>256.21</v>
       </c>
       <c r="O8">
-        <v>202.76</v>
+        <v>206.04</v>
       </c>
       <c r="P8">
-        <v>186.93</v>
+        <v>191.03</v>
       </c>
       <c r="Q8">
-        <v>289.22</v>
+        <v>316.16</v>
       </c>
       <c r="R8">
-        <v>197.52</v>
+        <v>197.23</v>
       </c>
       <c r="S8">
-        <v>146.48</v>
+        <v>307.51</v>
       </c>
       <c r="T8">
-        <v>144.39</v>
+        <v>143.81</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>10.52537067952887</v>
+        <v>10.31284920815856</v>
       </c>
       <c r="C9">
-        <v>9.342028774281134</v>
+        <v>9.31241910580955</v>
       </c>
       <c r="D9">
-        <v>10.71988589451537</v>
+        <v>10.49317194826672</v>
       </c>
       <c r="E9">
-        <v>11.29563839147355</v>
+        <v>11.2815982095128</v>
       </c>
       <c r="F9">
-        <v>11.35852203873484</v>
+        <v>11.22344988468436</v>
       </c>
       <c r="G9">
-        <v>11.64279358857659</v>
+        <v>11.6035487296663</v>
       </c>
       <c r="H9">
-        <v>8.58037400856375</v>
+        <v>8.554976370019686</v>
       </c>
       <c r="I9">
-        <v>9.038833444019046</v>
+        <v>8.925688368206982</v>
       </c>
       <c r="J9">
-        <v>8.971436138511375</v>
+        <v>8.910762862323008</v>
       </c>
       <c r="K9">
-        <v>7.476311447644329</v>
+        <v>7.425248819785641</v>
       </c>
       <c r="L9">
-        <v>11.10855032548823</v>
+        <v>10.96897346019029</v>
       </c>
       <c r="M9">
-        <v>9.836424032706946</v>
+        <v>9.72388170209098</v>
       </c>
       <c r="N9">
-        <v>7.793800792786623</v>
+        <v>7.717537465275131</v>
       </c>
       <c r="O9">
-        <v>10.71752042085088</v>
+        <v>10.6734264629707</v>
       </c>
       <c r="P9">
-        <v>14.02093558038227</v>
+        <v>13.95023338268765</v>
       </c>
       <c r="Q9">
-        <v>7.370114952369013</v>
+        <v>7.090772684977104</v>
       </c>
       <c r="R9">
-        <v>5.991399292760021</v>
+        <v>5.993564462975978</v>
       </c>
       <c r="S9">
-        <v>7.0363011305957</v>
+        <v>5.708792025876625</v>
       </c>
       <c r="T9">
-        <v>7.106217728548011</v>
+        <v>7.111034883890466</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>27.31522341368463</v>
+        <v>26.76369210448565</v>
       </c>
       <c r="C10">
-        <v>32.3786868232209</v>
+        <v>32.27606220007478</v>
       </c>
       <c r="D10">
-        <v>28.46107834288136</v>
+        <v>27.85915744100798</v>
       </c>
       <c r="E10">
-        <v>27.34598750319804</v>
+        <v>27.31199715868318</v>
       </c>
       <c r="F10">
-        <v>22.89644969050133</v>
+        <v>22.62417194439512</v>
       </c>
       <c r="G10">
-        <v>27.82769065325845</v>
+        <v>27.733890674312</v>
       </c>
       <c r="H10">
-        <v>27.47012691412094</v>
+        <v>27.3888161981279</v>
       </c>
       <c r="I10">
-        <v>24.9506065780977</v>
+        <v>24.63828327992875</v>
       </c>
       <c r="J10">
-        <v>27.45757783893317</v>
+        <v>27.27188391234611</v>
       </c>
       <c r="K10">
-        <v>27.85980873005557</v>
+        <v>27.66952839524619</v>
       </c>
       <c r="L10">
-        <v>27.60214366264844</v>
+        <v>27.25532786985356</v>
       </c>
       <c r="M10">
-        <v>20.49005282860873</v>
+        <v>20.2556182117085</v>
       </c>
       <c r="N10">
-        <v>34.76431940301935</v>
+        <v>34.42414613623527</v>
       </c>
       <c r="O10">
-        <v>31.30789880044423</v>
+        <v>31.17909203201131</v>
       </c>
       <c r="P10">
-        <v>26.35133318853348</v>
+        <v>26.21845352740592</v>
       </c>
       <c r="Q10">
-        <v>29.48045980947605</v>
+        <v>28.36309073990842</v>
       </c>
       <c r="R10">
-        <v>31.74213879406098</v>
+        <v>31.75360975938133</v>
       </c>
       <c r="S10">
-        <v>30.30026020014276</v>
+        <v>24.58363856265449</v>
       </c>
       <c r="T10">
-        <v>23.74768760922044</v>
+        <v>23.76378566652851</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>41.94942428818101</v>
+        <v>41.10240866808497</v>
       </c>
       <c r="C11">
-        <v>51.66477723519289</v>
+        <v>51.50102512496562</v>
       </c>
       <c r="D11">
-        <v>48.65178982895436</v>
+        <v>47.62285730367204</v>
       </c>
       <c r="E11">
-        <v>37.59037848170512</v>
+        <v>37.54365462816398</v>
       </c>
       <c r="F11">
-        <v>27.80633663859839</v>
+        <v>27.47567198229715</v>
       </c>
       <c r="G11">
-        <v>44.03312592496269</v>
+        <v>43.88470159697324</v>
       </c>
       <c r="H11">
-        <v>55.86349355662819</v>
+        <v>55.69813936393871</v>
       </c>
       <c r="I11">
-        <v>59.55759144833019</v>
+        <v>58.812069557553</v>
       </c>
       <c r="J11">
-        <v>46.4294292125245</v>
+        <v>46.11542981060186</v>
       </c>
       <c r="K11">
-        <v>44.71200149823006</v>
+        <v>44.40662199266645</v>
       </c>
       <c r="L11">
-        <v>50.93845544739874</v>
+        <v>50.29842324462303</v>
       </c>
       <c r="M11">
-        <v>45.98619350786889</v>
+        <v>45.46004768736301</v>
       </c>
       <c r="N11">
-        <v>41.40147906799027</v>
+        <v>40.99636035356988</v>
       </c>
       <c r="O11">
-        <v>36.38890597366719</v>
+        <v>36.23919495616477</v>
       </c>
       <c r="P11">
-        <v>49.1267515785223</v>
+        <v>48.87902422236363</v>
       </c>
       <c r="Q11">
-        <v>40.57112817204432</v>
+        <v>39.03340033367679</v>
       </c>
       <c r="R11">
-        <v>58.25899164755093</v>
+        <v>58.28004526580656</v>
       </c>
       <c r="S11">
-        <v>35.27551219694663</v>
+        <v>28.62023085723073</v>
       </c>
       <c r="T11">
-        <v>37.3729133505656</v>
+        <v>37.3982476614588</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>10.04154840246462</v>
+        <v>9.838795957319997</v>
       </c>
       <c r="C12">
-        <v>11.2606039344215</v>
+        <v>11.22491331974411</v>
       </c>
       <c r="D12">
-        <v>10.76848746272384</v>
+        <v>10.54074564608265</v>
       </c>
       <c r="E12">
-        <v>9.76470286814917</v>
+        <v>9.752565598850161</v>
       </c>
       <c r="F12">
-        <v>8.096253306043868</v>
+        <v>7.999975078114534</v>
       </c>
       <c r="G12">
-        <v>9.54315688605698</v>
+        <v>9.510989361768003</v>
       </c>
       <c r="H12">
-        <v>9.849730082604699</v>
+        <v>9.820575189805748</v>
       </c>
       <c r="I12">
-        <v>9.697983030911409</v>
+        <v>9.576586942350596</v>
       </c>
       <c r="J12">
-        <v>8.772736726760199</v>
+        <v>8.713407242591472</v>
       </c>
       <c r="K12">
-        <v>10.10439315030502</v>
+        <v>10.03538092806346</v>
       </c>
       <c r="L12">
-        <v>10.21554476022978</v>
+        <v>10.08718834349085</v>
       </c>
       <c r="M12">
-        <v>11.58341181686083</v>
+        <v>11.45088152353275</v>
       </c>
       <c r="N12">
-        <v>9.193532598312744</v>
+        <v>9.103572717867555</v>
       </c>
       <c r="O12">
-        <v>10.88449805318668</v>
+        <v>10.83971711693855</v>
       </c>
       <c r="P12">
-        <v>12.36687807444751</v>
+        <v>12.30451665402217</v>
       </c>
       <c r="Q12">
-        <v>10.88421241982941</v>
+        <v>10.47167874894643</v>
       </c>
       <c r="R12">
-        <v>11.42458351480114</v>
+        <v>11.4287121276255</v>
       </c>
       <c r="S12">
-        <v>8.565237751360382</v>
+        <v>6.949270656152815</v>
       </c>
       <c r="T12">
-        <v>12.01596815918118</v>
+        <v>12.02411353094206</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>4.491822283198199</v>
+        <v>4.401126315348259</v>
       </c>
       <c r="C13">
-        <v>4.791178204635652</v>
+        <v>4.775992509787644</v>
       </c>
       <c r="D13">
-        <v>4.65684026050845</v>
+        <v>4.558353145729589</v>
       </c>
       <c r="E13">
-        <v>3.910550011128143</v>
+        <v>3.905689300133329</v>
       </c>
       <c r="F13">
-        <v>4.035859602558231</v>
+        <v>3.987866364696488</v>
       </c>
       <c r="G13">
-        <v>3.34851767568873</v>
+        <v>3.337230684921328</v>
       </c>
       <c r="H13">
-        <v>4.169164546291015</v>
+        <v>4.15682394970726</v>
       </c>
       <c r="I13">
-        <v>4.414996985472118</v>
+        <v>4.359731538694602</v>
       </c>
       <c r="J13">
-        <v>3.541107373708436</v>
+        <v>3.517159080215559</v>
       </c>
       <c r="K13">
-        <v>4.046372267188454</v>
+        <v>4.01873585815118</v>
       </c>
       <c r="L13">
-        <v>4.268364029784514</v>
+        <v>4.214732830953748</v>
       </c>
       <c r="M13">
-        <v>4.247197005147404</v>
+        <v>4.198603182030885</v>
       </c>
       <c r="N13">
-        <v>3.304464889908726</v>
+        <v>3.272130282590744</v>
       </c>
       <c r="O13">
-        <v>4.458710045883699</v>
+        <v>4.44036604790254</v>
       </c>
       <c r="P13">
-        <v>5.050886379024822</v>
+        <v>5.025416697258184</v>
       </c>
       <c r="Q13">
-        <v>4.074788343530146</v>
+        <v>3.920345621485769</v>
       </c>
       <c r="R13">
-        <v>4.096578341566107</v>
+        <v>4.098058761911853</v>
       </c>
       <c r="S13">
-        <v>3.937632596400921</v>
+        <v>3.194736147579054</v>
       </c>
       <c r="T13">
-        <v>5.898829011032957</v>
+        <v>5.90282770299121</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>8.477867328860324</v>
+        <v>8.306687719735873</v>
       </c>
       <c r="C14">
-        <v>7.584481221423738</v>
+        <v>7.560442120290421</v>
       </c>
       <c r="D14">
-        <v>7.66365728033927</v>
+        <v>7.501579250608392</v>
       </c>
       <c r="E14">
-        <v>8.295516834698176</v>
+        <v>8.285205725066197</v>
       </c>
       <c r="F14">
-        <v>5.527072924552106</v>
+        <v>5.461346622928756</v>
       </c>
       <c r="G14">
-        <v>7.034335905168232</v>
+        <v>7.010624970328951</v>
       </c>
       <c r="H14">
-        <v>7.759628870006839</v>
+        <v>7.736660611387831</v>
       </c>
       <c r="I14">
-        <v>6.925149558328311</v>
+        <v>6.838462866219231</v>
       </c>
       <c r="J14">
-        <v>6.725817389831431</v>
+        <v>6.680331096468207</v>
       </c>
       <c r="K14">
-        <v>8.977836961049087</v>
+        <v>8.916519030284919</v>
       </c>
       <c r="L14">
-        <v>7.571134140234743</v>
+        <v>7.476004250277857</v>
       </c>
       <c r="M14">
-        <v>7.543553185725195</v>
+        <v>7.457244477009088</v>
       </c>
       <c r="N14">
-        <v>6.069425307995619</v>
+        <v>6.010035212921774</v>
       </c>
       <c r="O14">
-        <v>8.855516189047785</v>
+        <v>8.819082877748706</v>
       </c>
       <c r="P14">
-        <v>8.160846130784854</v>
+        <v>8.119694115415678</v>
       </c>
       <c r="Q14">
-        <v>6.556606097296238</v>
+        <v>6.308097461345368</v>
       </c>
       <c r="R14">
-        <v>6.421928804780754</v>
+        <v>6.424249559632448</v>
       </c>
       <c r="S14">
-        <v>7.27397805308116</v>
+        <v>5.901627451000766</v>
       </c>
       <c r="T14">
-        <v>7.269282035046353</v>
+        <v>7.274209728248079</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.775099211481113</v>
+        <v>1.739257557278286</v>
       </c>
       <c r="C15">
-        <v>1.934758839264287</v>
+        <v>1.928626598699925</v>
       </c>
       <c r="D15">
-        <v>1.624912430436589</v>
+        <v>1.590547296979223</v>
       </c>
       <c r="E15">
-        <v>1.445088671549183</v>
+        <v>1.443292464270337</v>
       </c>
       <c r="F15">
-        <v>1.938193973265047</v>
+        <v>1.915145549003176</v>
       </c>
       <c r="G15">
-        <v>2.015904012351413</v>
+        <v>2.009108919065635</v>
       </c>
       <c r="H15">
-        <v>1.844114197007315</v>
+        <v>1.838655676695401</v>
       </c>
       <c r="I15">
-        <v>1.486349687274612</v>
+        <v>1.467744061992159</v>
       </c>
       <c r="J15">
-        <v>1.644789575051391</v>
+        <v>1.633665963333256</v>
       </c>
       <c r="K15">
-        <v>1.916052040980276</v>
+        <v>1.902965554012524</v>
       </c>
       <c r="L15">
-        <v>1.660247586827396</v>
+        <v>1.639386885205858</v>
       </c>
       <c r="M15">
-        <v>2.627365958180431</v>
+        <v>2.597305248380662</v>
       </c>
       <c r="N15">
-        <v>1.278970630147397</v>
+        <v>1.266455740604059</v>
       </c>
       <c r="O15">
-        <v>2.238314798335478</v>
+        <v>2.229105937091009</v>
       </c>
       <c r="P15">
-        <v>2.329775233923137</v>
+        <v>2.318027071453628</v>
       </c>
       <c r="Q15">
-        <v>1.62339567606241</v>
+        <v>1.56186569559993</v>
       </c>
       <c r="R15">
-        <v>1.299773507773622</v>
+        <v>1.300243219563641</v>
       </c>
       <c r="S15">
-        <v>1.536031454271711</v>
+        <v>1.246234911623181</v>
       </c>
       <c r="T15">
-        <v>2.607246780405201</v>
+        <v>2.609014178089468</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.805185638794352</v>
+        <v>1.76873649892707</v>
       </c>
       <c r="C16">
-        <v>1.743791425602065</v>
+        <v>1.738264458468565</v>
       </c>
       <c r="D16">
-        <v>2.06637667499688</v>
+        <v>2.022675052140578</v>
       </c>
       <c r="E16">
-        <v>1.995562782493661</v>
+        <v>1.99308235034726</v>
       </c>
       <c r="F16">
-        <v>2.031730233050781</v>
+        <v>2.007569503504121</v>
       </c>
       <c r="G16">
-        <v>1.706251044936932</v>
+        <v>1.700499712061823</v>
       </c>
       <c r="H16">
-        <v>1.813365820058497</v>
+        <v>1.807998313980086</v>
       </c>
       <c r="I16">
-        <v>1.55650669776068</v>
+        <v>1.537022870626257</v>
       </c>
       <c r="J16">
-        <v>1.479206731925412</v>
+        <v>1.469202946890311</v>
       </c>
       <c r="K16">
-        <v>1.601242630376205</v>
+        <v>1.590306267288746</v>
       </c>
       <c r="L16">
-        <v>1.574998473319736</v>
+        <v>1.555208910927367</v>
       </c>
       <c r="M16">
-        <v>1.981053370440608</v>
+        <v>1.958387372854223</v>
       </c>
       <c r="N16">
-        <v>1.589499366835545</v>
+        <v>1.573945914288428</v>
       </c>
       <c r="O16">
-        <v>1.82779418030015</v>
+        <v>1.820274280506631</v>
       </c>
       <c r="P16">
-        <v>1.633329968266399</v>
+        <v>1.625093712015532</v>
       </c>
       <c r="Q16">
-        <v>1.50966380585188</v>
+        <v>1.452444493364683</v>
       </c>
       <c r="R16">
-        <v>1.73194001413664</v>
+        <v>1.732565902138957</v>
       </c>
       <c r="S16">
-        <v>1.395021638319515</v>
+        <v>1.131828819851768</v>
       </c>
       <c r="T16">
-        <v>1.416788236788883</v>
+        <v>1.417748647697284</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>22.18670727680356</v>
+        <v>21.7387276455969</v>
       </c>
       <c r="C17">
-        <v>21.94345052411916</v>
+        <v>21.87390050336452</v>
       </c>
       <c r="D17">
-        <v>19.5321602368482</v>
+        <v>19.11907625725823</v>
       </c>
       <c r="E17">
-        <v>22.69369057102979</v>
+        <v>22.66548290945851</v>
       </c>
       <c r="F17">
-        <v>20.85628586025675</v>
+        <v>20.60826913351796</v>
       </c>
       <c r="G17">
-        <v>18.57601832071153</v>
+        <v>18.51340334668788</v>
       </c>
       <c r="H17">
-        <v>20.7228292236598</v>
+        <v>20.66149029767504</v>
       </c>
       <c r="I17">
-        <v>20.2076663575628</v>
+        <v>19.95471358924685</v>
       </c>
       <c r="J17">
-        <v>19.77059146924189</v>
+        <v>19.63688416328767</v>
       </c>
       <c r="K17">
-        <v>24.06478952630754</v>
+        <v>23.90042887858912</v>
       </c>
       <c r="L17">
-        <v>22.04660242396115</v>
+        <v>21.76959097182359</v>
       </c>
       <c r="M17">
-        <v>20.41878026254218</v>
+        <v>20.18516110262789</v>
       </c>
       <c r="N17">
-        <v>22.59802306535113</v>
+        <v>22.37689854857619</v>
       </c>
       <c r="O17">
-        <v>22.53302058993911</v>
+        <v>22.44031537252025</v>
       </c>
       <c r="P17">
-        <v>20.25494980951681</v>
+        <v>20.1528118703246</v>
       </c>
       <c r="Q17">
-        <v>18.34632703791013</v>
+        <v>17.65096412617753</v>
       </c>
       <c r="R17">
-        <v>18.1559042502736</v>
+        <v>18.16246542591982</v>
       </c>
       <c r="S17">
-        <v>28.42101617496853</v>
+        <v>23.0589435408707</v>
       </c>
       <c r="T17">
-        <v>27.52489851220665</v>
+        <v>27.54355706123844</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>20.65799151061735</v>
+        <v>20.24087871857758</v>
       </c>
       <c r="C18">
-        <v>19.77645588942667</v>
+        <v>19.71377418328154</v>
       </c>
       <c r="D18">
-        <v>20.00845560529123</v>
+        <v>19.58529849585434</v>
       </c>
       <c r="E18">
-        <v>18.69879979324532</v>
+        <v>18.67555767602748</v>
       </c>
       <c r="F18">
-        <v>21.71957953663984</v>
+        <v>21.46129677915782</v>
       </c>
       <c r="G18">
-        <v>18.62420411411021</v>
+        <v>18.56142671818593</v>
       </c>
       <c r="H18">
-        <v>17.83011653070561</v>
+        <v>17.77733994376507</v>
       </c>
       <c r="I18">
-        <v>20.40345336357043</v>
+        <v>20.14804979938852</v>
       </c>
       <c r="J18">
-        <v>18.9095606849868</v>
+        <v>18.78167647778435</v>
       </c>
       <c r="K18">
-        <v>22.2443340602751</v>
+        <v>22.09240698232518</v>
       </c>
       <c r="L18">
-        <v>19.45283484169343</v>
+        <v>19.20841359600376</v>
       </c>
       <c r="M18">
-        <v>20.35722668275744</v>
+        <v>20.12431178114918</v>
       </c>
       <c r="N18">
-        <v>19.30139981020726</v>
+        <v>19.11253316936131</v>
       </c>
       <c r="O18">
-        <v>19.88988684881879</v>
+        <v>19.80805599629743</v>
       </c>
       <c r="P18">
-        <v>22.3144379522446</v>
+        <v>22.20191480466297</v>
       </c>
       <c r="Q18">
-        <v>15.3356923080059</v>
+        <v>14.75443854344067</v>
       </c>
       <c r="R18">
-        <v>21.75811030046989</v>
+        <v>21.76597324034022</v>
       </c>
       <c r="S18">
-        <v>22.72563857720126</v>
+        <v>18.43808868957506</v>
       </c>
       <c r="T18">
-        <v>18.0742972295759</v>
+        <v>18.08654941502623</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>9.518695084561571</v>
+        <v>9.32649975515328</v>
       </c>
       <c r="C19">
-        <v>10.71683231585789</v>
+        <v>10.68286519162769</v>
       </c>
       <c r="D19">
-        <v>11.67571673594865</v>
+        <v>11.42878800531332</v>
       </c>
       <c r="E19">
-        <v>9.74587680416338</v>
+        <v>9.73376293516764</v>
       </c>
       <c r="F19">
-        <v>9.90334317747809</v>
+        <v>9.785575576136878</v>
       </c>
       <c r="G19">
-        <v>10.13086557931303</v>
+        <v>10.09671704036707</v>
       </c>
       <c r="H19">
-        <v>9.505978996715349</v>
+        <v>9.477841596373</v>
       </c>
       <c r="I19">
-        <v>9.215857528617613</v>
+        <v>9.100496524876741</v>
       </c>
       <c r="J19">
-        <v>10.09897645122637</v>
+        <v>10.03067768857735</v>
       </c>
       <c r="K19">
-        <v>11.46252380128803</v>
+        <v>11.38423565193987</v>
       </c>
       <c r="L19">
-        <v>8.607628312387281</v>
+        <v>8.499475066257924</v>
       </c>
       <c r="M19">
-        <v>11.24000763490383</v>
+        <v>11.1114063615989</v>
       </c>
       <c r="N19">
-        <v>10.35644703394033</v>
+        <v>10.25510788850877</v>
       </c>
       <c r="O19">
-        <v>8.379019043113923</v>
+        <v>8.344546133498984</v>
       </c>
       <c r="P19">
-        <v>14.2083125209042</v>
+        <v>14.13666545320314</v>
       </c>
       <c r="Q19">
-        <v>8.647968576900066</v>
+        <v>8.320193071875043</v>
       </c>
       <c r="R19">
-        <v>13.83587618098571</v>
+        <v>13.84087618608551</v>
       </c>
       <c r="S19">
-        <v>9.487566107274111</v>
+        <v>7.697587231261424</v>
       </c>
       <c r="T19">
-        <v>8.310042198926491</v>
+        <v>8.315675401525077</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5935970794233681</v>
+        <v>0.5816115514489916</v>
       </c>
       <c r="C20">
-        <v>0.8261768192759668</v>
+        <v>0.8235582422721135</v>
       </c>
       <c r="D20">
-        <v>1.483157856495212</v>
+        <v>1.451790678349431</v>
       </c>
       <c r="E20">
-        <v>1.043716987372156</v>
+        <v>1.042419674558982</v>
       </c>
       <c r="F20">
-        <v>0.6470869119603242</v>
+        <v>0.6393919475311237</v>
       </c>
       <c r="G20">
-        <v>1.473221388336749</v>
+        <v>1.46825553842375</v>
       </c>
       <c r="H20">
-        <v>0.5148382089122602</v>
+        <v>0.5133143039256507</v>
       </c>
       <c r="I20">
-        <v>0.6477286782085851</v>
+        <v>0.6396206285520166</v>
       </c>
       <c r="J20">
-        <v>1.752024178218692</v>
+        <v>1.740175345410592</v>
       </c>
       <c r="K20">
-        <v>1.377909252696353</v>
+        <v>1.368498239272662</v>
       </c>
       <c r="L20">
-        <v>1.30321417084977</v>
+        <v>1.286839527584059</v>
       </c>
       <c r="M20">
-        <v>1.032642292441445</v>
+        <v>1.020827432702017</v>
       </c>
       <c r="N20">
-        <v>1.267992341476604</v>
+        <v>1.255584875877844</v>
       </c>
       <c r="O20">
-        <v>0.7184110815618237</v>
+        <v>0.7154553990226599</v>
       </c>
       <c r="P20">
-        <v>1.578609268821941</v>
+        <v>1.570648948059682</v>
       </c>
       <c r="Q20">
-        <v>0.8982644526182009</v>
+        <v>0.8642184125586407</v>
       </c>
       <c r="R20">
-        <v>0.6883561209304887</v>
+        <v>0.688604878874699</v>
       </c>
       <c r="S20">
-        <v>0.687311995993404</v>
+        <v>0.5576397554895871</v>
       </c>
       <c r="T20">
-        <v>0.5399834411912344</v>
+        <v>0.5403494845940593</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>34.27657217662087</v>
+        <v>33.58448181949225</v>
       </c>
       <c r="C21">
-        <v>30.91082712668162</v>
+        <v>30.81285490185576</v>
       </c>
       <c r="D21">
-        <v>30.42701177691406</v>
+        <v>29.7835135176623</v>
       </c>
       <c r="E21">
-        <v>29.50420747852892</v>
+        <v>29.46753452324742</v>
       </c>
       <c r="F21">
-        <v>29.83193334641732</v>
+        <v>29.47718089862088</v>
       </c>
       <c r="G21">
-        <v>26.51166554174691</v>
+        <v>26.42230154454579</v>
       </c>
       <c r="H21">
-        <v>31.14022164993498</v>
+        <v>31.0480475683789</v>
       </c>
       <c r="I21">
-        <v>33.1614241425428</v>
+        <v>32.74632059274493</v>
       </c>
       <c r="J21">
-        <v>27.47019367459991</v>
+        <v>27.28441442788462</v>
       </c>
       <c r="K21">
-        <v>33.17118739849337</v>
+        <v>32.94463075894972</v>
       </c>
       <c r="L21">
-        <v>33.40499173557083</v>
+        <v>32.98526423782014</v>
       </c>
       <c r="M21">
-        <v>31.55754845701057</v>
+        <v>31.19648634337364</v>
       </c>
       <c r="N21">
-        <v>26.53217122687749</v>
+        <v>26.27255057224913</v>
       </c>
       <c r="O21">
-        <v>31.36247197784179</v>
+        <v>31.23344068477154</v>
       </c>
       <c r="P21">
-        <v>37.17939886648229</v>
+        <v>36.9919174253363</v>
       </c>
       <c r="Q21">
-        <v>24.76022499233073</v>
+        <v>23.8217623719793</v>
       </c>
       <c r="R21">
-        <v>30.72065432447566</v>
+        <v>30.7317561460215</v>
       </c>
       <c r="S21">
-        <v>22.59704471988637</v>
+        <v>18.33375609016088</v>
       </c>
       <c r="T21">
-        <v>27.30569731330724</v>
+        <v>27.32420727046263</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>82.3758248369648</v>
+        <v>80.7125455062193</v>
       </c>
       <c r="C22">
-        <v>72.39607019293067</v>
+        <v>72.16661000940398</v>
       </c>
       <c r="D22">
-        <v>78.4388809577902</v>
+        <v>76.77998380009127</v>
       </c>
       <c r="E22">
-        <v>80.29240985683172</v>
+        <v>80.19260849940615</v>
       </c>
       <c r="F22">
-        <v>80.97863356417228</v>
+        <v>80.01565982249386</v>
       </c>
       <c r="G22">
-        <v>86.37658935681422</v>
+        <v>86.08543611797415</v>
       </c>
       <c r="H22">
-        <v>73.41450943502915</v>
+        <v>73.19720478459554</v>
       </c>
       <c r="I22">
-        <v>88.24772984117367</v>
+        <v>87.1430744511876</v>
       </c>
       <c r="J22">
-        <v>73.80736958881135</v>
+        <v>73.30821484361113</v>
       </c>
       <c r="K22">
-        <v>84.24036113075432</v>
+        <v>83.66500599189686</v>
       </c>
       <c r="L22">
-        <v>80.53509074587491</v>
+        <v>79.52318233447733</v>
       </c>
       <c r="M22">
-        <v>92.19349395364877</v>
+        <v>91.13867254266927</v>
       </c>
       <c r="N22">
-        <v>71.25379845430619</v>
+        <v>70.55657101516148</v>
       </c>
       <c r="O22">
-        <v>87.90842901206506</v>
+        <v>87.5467566835823</v>
       </c>
       <c r="P22">
-        <v>72.13514749190344</v>
+        <v>71.7713976244667</v>
       </c>
       <c r="Q22">
-        <v>63.77822494952552</v>
+        <v>61.36090119232891</v>
       </c>
       <c r="R22">
-        <v>75.15195476275228</v>
+        <v>75.17911315533678</v>
       </c>
       <c r="S22">
-        <v>65.12613732358145</v>
+        <v>52.83906508951979</v>
       </c>
       <c r="T22">
-        <v>74.08644098086469</v>
+        <v>74.13666261895787</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>13.00628121284489</v>
+        <v>12.74366680195427</v>
       </c>
       <c r="C23">
-        <v>12.55206152851009</v>
+        <v>12.51227762402059</v>
       </c>
       <c r="D23">
-        <v>12.98471897303017</v>
+        <v>12.71010626648901</v>
       </c>
       <c r="E23">
-        <v>17.71231404038996</v>
+        <v>17.69029809906337</v>
       </c>
       <c r="F23">
-        <v>25.1351864001271</v>
+        <v>24.83628626523739</v>
       </c>
       <c r="G23">
-        <v>12.41218642087686</v>
+        <v>12.37034813686455</v>
       </c>
       <c r="H23">
-        <v>10.03106666461055</v>
+        <v>10.00137502120376</v>
       </c>
       <c r="I23">
-        <v>8.722311117640039</v>
+        <v>8.613128161811286</v>
       </c>
       <c r="J23">
-        <v>12.69389614992922</v>
+        <v>12.60804810340465</v>
       </c>
       <c r="K23">
-        <v>11.47488542735887</v>
+        <v>11.39651284906253</v>
       </c>
       <c r="L23">
-        <v>8.058995403674619</v>
+        <v>7.957735627831992</v>
       </c>
       <c r="M23">
-        <v>10.96625618796641</v>
+        <v>10.84078701081201</v>
       </c>
       <c r="N23">
-        <v>25.23830149067688</v>
+        <v>24.99134151523092</v>
       </c>
       <c r="O23">
-        <v>8.374946417935002</v>
+        <v>8.340490263890009</v>
       </c>
       <c r="P23">
-        <v>10.23608720214059</v>
+        <v>10.184470542408</v>
       </c>
       <c r="Q23">
-        <v>11.83390975642817</v>
+        <v>11.38538063512738</v>
       </c>
       <c r="R23">
-        <v>8.294650332353832</v>
+        <v>8.297647850792153</v>
       </c>
       <c r="S23">
-        <v>25.73384798418142</v>
+        <v>20.87875198069851</v>
       </c>
       <c r="T23">
-        <v>29.07356389304884</v>
+        <v>29.09327224972767</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.2593937922411704</v>
+        <v>0.2541562807016826</v>
       </c>
       <c r="C24">
-        <v>0.3277195022593209</v>
+        <v>0.3266807914987326</v>
       </c>
       <c r="D24">
-        <v>0.3288706115439957</v>
+        <v>0.321915355221119</v>
       </c>
       <c r="E24">
-        <v>0.1272641925439354</v>
+        <v>0.1271060064938442</v>
       </c>
       <c r="F24">
-        <v>0.2054730952670224</v>
+        <v>0.2030296705430583</v>
       </c>
       <c r="G24">
-        <v>0.4020748990152308</v>
+        <v>0.4007196080738278</v>
       </c>
       <c r="H24">
-        <v>0.3737110429164034</v>
+        <v>0.3726048699245917</v>
       </c>
       <c r="I24">
-        <v>0.1525507088476139</v>
+        <v>0.1506411304020493</v>
       </c>
       <c r="J24">
-        <v>0.2239310830846573</v>
+        <v>0.2224166508085546</v>
       </c>
       <c r="K24">
-        <v>0.1623493557303718</v>
+        <v>0.1612405222109537</v>
       </c>
       <c r="L24">
-        <v>0.2312698722881069</v>
+        <v>0.2283640094287773</v>
       </c>
       <c r="M24">
-        <v>0.1636029357436643</v>
+        <v>0.1617310912986725</v>
       </c>
       <c r="N24">
-        <v>0.176436782209175</v>
+        <v>0.1747103259570283</v>
       </c>
       <c r="O24">
-        <v>0.4113351430711122</v>
+        <v>0.4096428305061715</v>
       </c>
       <c r="P24">
-        <v>0.2935019333839112</v>
+        <v>0.2920219157631972</v>
       </c>
       <c r="Q24">
-        <v>0.3382979833650805</v>
+        <v>0.3254758053749074</v>
       </c>
       <c r="R24">
-        <v>0.2848370155574436</v>
+        <v>0.2849399498791858</v>
       </c>
       <c r="S24">
-        <v>0.3343440290187268</v>
+        <v>0.2712647584768701</v>
       </c>
       <c r="T24">
-        <v>0.3902850614550506</v>
+        <v>0.3905496274788746</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>2.571982961939881</v>
+        <v>2.52005114689474</v>
       </c>
       <c r="C25">
-        <v>2.557830485535094</v>
+        <v>2.549723412166651</v>
       </c>
       <c r="D25">
-        <v>3.245774730189139</v>
+        <v>3.177130119140453</v>
       </c>
       <c r="E25">
-        <v>1.976736718507872</v>
+        <v>1.974279686664739</v>
       </c>
       <c r="F25">
-        <v>2.596014554381112</v>
+        <v>2.565143524099982</v>
       </c>
       <c r="G25">
-        <v>1.66991421712809</v>
+        <v>1.664285366341988</v>
       </c>
       <c r="H25">
-        <v>2.641206737911289</v>
+        <v>2.633388848623169</v>
       </c>
       <c r="I25">
-        <v>2.076158042872605</v>
+        <v>2.050169395043932</v>
       </c>
       <c r="J25">
-        <v>2.800715518016558</v>
+        <v>2.781774449549246</v>
       </c>
       <c r="K25">
-        <v>3.651624341326281</v>
+        <v>3.626684030034191</v>
       </c>
       <c r="L25">
-        <v>3.436974160427633</v>
+        <v>3.39378922041599</v>
       </c>
       <c r="M25">
-        <v>2.59010984410019</v>
+        <v>2.560475395906706</v>
       </c>
       <c r="N25">
-        <v>2.010595153708109</v>
+        <v>1.990921225572536</v>
       </c>
       <c r="O25">
-        <v>2.583673413508055</v>
+        <v>2.573043679931834</v>
       </c>
       <c r="P25">
-        <v>3.407607192677614</v>
+        <v>3.390423937250679</v>
       </c>
       <c r="Q25">
-        <v>2.169598415799606</v>
+        <v>2.087366246462201</v>
       </c>
       <c r="R25">
-        <v>3.102104278628481</v>
+        <v>3.103225316212972</v>
       </c>
       <c r="S25">
-        <v>0.9480471273767082</v>
+        <v>0.7691830949914433</v>
       </c>
       <c r="T25">
-        <v>3.256830821046141</v>
+        <v>3.25903855807143</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>27.77139870348807</v>
+        <v>27.21065659813344</v>
       </c>
       <c r="C26">
-        <v>27.99857406833274</v>
+        <v>27.90983226332752</v>
       </c>
       <c r="D26">
-        <v>29.34481685813875</v>
+        <v>28.72420584629428</v>
       </c>
       <c r="E26">
-        <v>28.16906302065674</v>
+        <v>28.13404961488301</v>
       </c>
       <c r="F26">
-        <v>26.93307598371354</v>
+        <v>26.61279588248915</v>
       </c>
       <c r="G26">
-        <v>26.00610967658041</v>
+        <v>25.91844977800896</v>
       </c>
       <c r="H26">
-        <v>27.83753059766322</v>
+        <v>27.75513237826474</v>
       </c>
       <c r="I26">
-        <v>26.9215291052412</v>
+        <v>26.58453446202153</v>
       </c>
       <c r="J26">
-        <v>27.18554888236906</v>
+        <v>27.00169467104699</v>
       </c>
       <c r="K26">
-        <v>29.5962051388063</v>
+        <v>29.39406535107603</v>
       </c>
       <c r="L26">
-        <v>30.76480136871974</v>
+        <v>30.37824737105658</v>
       </c>
       <c r="M26">
-        <v>26.65917937098244</v>
+        <v>26.35416139201537</v>
       </c>
       <c r="N26">
-        <v>27.48257736037758</v>
+        <v>27.21365686140432</v>
       </c>
       <c r="O26">
-        <v>25.10040350273147</v>
+        <v>24.99713557401619</v>
       </c>
       <c r="P26">
-        <v>26.08104609733812</v>
+        <v>25.94952939029066</v>
       </c>
       <c r="Q26">
-        <v>24.1212981800652</v>
+        <v>23.20705217853034</v>
       </c>
       <c r="R26">
-        <v>29.87350975234361</v>
+        <v>29.88430543301875</v>
       </c>
       <c r="S26">
-        <v>34.95092356400006</v>
+        <v>28.35688098560597</v>
       </c>
       <c r="T26">
-        <v>29.50751098192695</v>
+        <v>29.52751350219847</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>6.985743163460486</v>
+        <v>6.844691559586694</v>
       </c>
       <c r="C27">
-        <v>7.8264272243263</v>
+        <v>7.801621272532696</v>
       </c>
       <c r="D27">
-        <v>7.195462173264319</v>
+        <v>7.043285961648276</v>
       </c>
       <c r="E27">
-        <v>5.95204838974713</v>
+        <v>5.944650149865943</v>
       </c>
       <c r="F27">
-        <v>7.154757182954676</v>
+        <v>7.0696749459247</v>
       </c>
       <c r="G27">
-        <v>6.125125278907857</v>
+        <v>6.104479058947859</v>
       </c>
       <c r="H27">
-        <v>6.539154831115294</v>
+        <v>6.519799137456886</v>
       </c>
       <c r="I27">
-        <v>5.993529721408658</v>
+        <v>5.918504732961797</v>
       </c>
       <c r="J27">
-        <v>7.500902793606847</v>
+        <v>7.450174644865422</v>
       </c>
       <c r="K27">
-        <v>7.690579632872231</v>
+        <v>7.638053569911775</v>
       </c>
       <c r="L27">
-        <v>6.825837435014309</v>
+        <v>6.740072059308474</v>
       </c>
       <c r="M27">
-        <v>6.225820629017563</v>
+        <v>6.154588607984633</v>
       </c>
       <c r="N27">
-        <v>6.976702450289022</v>
+        <v>6.908434533509693</v>
       </c>
       <c r="O27">
-        <v>5.995718788408825</v>
+        <v>5.97105123832857</v>
       </c>
       <c r="P27">
-        <v>7.723080535229189</v>
+        <v>7.684136003768876</v>
       </c>
       <c r="Q27">
-        <v>6.918085098793402</v>
+        <v>6.655875677366951</v>
       </c>
       <c r="R27">
-        <v>7.22651152401342</v>
+        <v>7.229123038745206</v>
       </c>
       <c r="S27">
-        <v>7.310339074804682</v>
+        <v>5.931128392904086</v>
       </c>
       <c r="T27">
-        <v>7.453731824364152</v>
+        <v>7.458784552193574</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.6066074263696337</v>
+        <v>0.5943592018917092</v>
       </c>
       <c r="C28">
-        <v>0.4725634304183787</v>
+        <v>0.4710656351487897</v>
       </c>
       <c r="D28">
-        <v>0.2729788081042526</v>
+        <v>0.2672056027328008</v>
       </c>
       <c r="E28">
-        <v>0.595656664510372</v>
+        <v>0.5949162789149748</v>
       </c>
       <c r="F28">
-        <v>0.1694386345298954</v>
+        <v>0.1674237208582682</v>
       </c>
       <c r="G28">
-        <v>0.2725262085663156</v>
+        <v>0.2716075928987634</v>
       </c>
       <c r="H28">
-        <v>0.6141791190545954</v>
+        <v>0.6123611680828206</v>
       </c>
       <c r="I28">
-        <v>0.3189696639541017</v>
+        <v>0.3149769090224666</v>
       </c>
       <c r="J28">
-        <v>0.5708665639200418</v>
+        <v>0.5670058281175828</v>
       </c>
       <c r="K28">
-        <v>0.6856581927292859</v>
+        <v>0.6809752004036215</v>
       </c>
       <c r="L28">
-        <v>0.4988339216141285</v>
+        <v>0.4925661663226547</v>
       </c>
       <c r="M28">
-        <v>0.4130569169765782</v>
+        <v>0.4083309730808069</v>
       </c>
       <c r="N28">
-        <v>0.5246053657686137</v>
+        <v>0.5194720358455642</v>
       </c>
       <c r="O28">
-        <v>0.1457999814054041</v>
+        <v>0.1452001320011974</v>
       </c>
       <c r="P28">
-        <v>0.4518603211701459</v>
+        <v>0.449581762968764</v>
       </c>
       <c r="Q28">
-        <v>0.6316827440992508</v>
+        <v>0.6077406901218828</v>
       </c>
       <c r="R28">
-        <v>0.6015954207894283</v>
+        <v>0.6018128251758665</v>
       </c>
       <c r="S28">
-        <v>0.2101844426457248</v>
+        <v>0.1705298349045576</v>
       </c>
       <c r="T28">
-        <v>0.1987067778641011</v>
+        <v>0.1988414770040845</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>10.64083750867698</v>
+        <v>10.42598460583768</v>
       </c>
       <c r="C29">
-        <v>11.19748758583823</v>
+        <v>11.16199701915916</v>
       </c>
       <c r="D29">
-        <v>10.26627125790296</v>
+        <v>10.04915076865139</v>
       </c>
       <c r="E29">
-        <v>12.16088429226042</v>
+        <v>12.14576863236148</v>
       </c>
       <c r="F29">
-        <v>14.55868882845332</v>
+        <v>14.38556124605274</v>
       </c>
       <c r="G29">
-        <v>10.56137799574388</v>
+        <v>10.5257783103086</v>
       </c>
       <c r="H29">
-        <v>8.894165137426047</v>
+        <v>8.867838686960591</v>
       </c>
       <c r="I29">
-        <v>9.683299005460837</v>
+        <v>9.562086726589971</v>
       </c>
       <c r="J29">
-        <v>11.99135180123756</v>
+        <v>11.91025501935387</v>
       </c>
       <c r="K29">
-        <v>11.90589412302884</v>
+        <v>11.82457778873933</v>
       </c>
       <c r="L29">
-        <v>9.031341728039212</v>
+        <v>8.917864601780719</v>
       </c>
       <c r="M29">
-        <v>11.44815592443909</v>
+        <v>11.31717314607295</v>
       </c>
       <c r="N29">
-        <v>9.899279727149445</v>
+        <v>9.80241402169567</v>
       </c>
       <c r="O29">
-        <v>11.61268343517791</v>
+        <v>11.56490660302275</v>
       </c>
       <c r="P29">
-        <v>10.45165359389148</v>
+        <v>10.39894991556741</v>
       </c>
       <c r="Q29">
-        <v>9.780216431288975</v>
+        <v>9.409526441898555</v>
       </c>
       <c r="R29">
-        <v>8.593401799820692</v>
+        <v>8.596507280981529</v>
       </c>
       <c r="S29">
-        <v>13.07932557020738</v>
+        <v>10.61170466317475</v>
       </c>
       <c r="T29">
-        <v>12.74842094574751</v>
+        <v>12.75706283182707</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>20.9678003972753</v>
+        <v>20.54443214474479</v>
       </c>
       <c r="C30">
-        <v>25.42132316784895</v>
+        <v>25.34074998944243</v>
       </c>
       <c r="D30">
-        <v>25.17480230585183</v>
+        <v>24.64238257368758</v>
       </c>
       <c r="E30">
-        <v>22.70498620942127</v>
+        <v>22.67676450766802</v>
       </c>
       <c r="F30">
-        <v>24.70813970585944</v>
+        <v>24.41431788280275</v>
       </c>
       <c r="G30">
-        <v>22.42219255117353</v>
+        <v>22.34661311429392</v>
       </c>
       <c r="H30">
-        <v>20.92072262402271</v>
+        <v>20.85879793976591</v>
       </c>
       <c r="I30">
-        <v>19.82751325423131</v>
+        <v>19.57931911455512</v>
       </c>
       <c r="J30">
-        <v>28.82639600877459</v>
+        <v>28.63144484827446</v>
       </c>
       <c r="K30">
-        <v>27.19063270542075</v>
+        <v>27.00492279100611</v>
       </c>
       <c r="L30">
-        <v>20.07067990196677</v>
+        <v>19.81849554820035</v>
       </c>
       <c r="M30">
-        <v>20.83345701056573</v>
+        <v>20.59509337364234</v>
       </c>
       <c r="N30">
-        <v>28.91838068582202</v>
+        <v>28.63541066952573</v>
       </c>
       <c r="O30">
-        <v>21.38291123941156</v>
+        <v>21.29493779494656</v>
       </c>
       <c r="P30">
-        <v>30.11462492760007</v>
+        <v>29.96276843036963</v>
       </c>
       <c r="Q30">
-        <v>24.14665241864716</v>
+        <v>23.23144544017514</v>
       </c>
       <c r="R30">
-        <v>26.73948408404059</v>
+        <v>26.74914719138828</v>
       </c>
       <c r="S30">
-        <v>26.26418678883181</v>
+        <v>21.30903401138596</v>
       </c>
       <c r="T30">
-        <v>23.96065137563085</v>
+        <v>23.97689379659118</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>10.03016434888664</v>
+        <v>9.827641763182617</v>
       </c>
       <c r="C31">
-        <v>9.944061637690849</v>
+        <v>9.912543819081296</v>
       </c>
       <c r="D31">
-        <v>11.43594899945353</v>
+        <v>11.19409109608807</v>
       </c>
       <c r="E31">
-        <v>8.855780498915264</v>
+        <v>8.844772996258031</v>
       </c>
       <c r="F31">
-        <v>10.59489814736934</v>
+        <v>10.46890678072583</v>
       </c>
       <c r="G31">
-        <v>9.817262956701942</v>
+        <v>9.784171491437196</v>
       </c>
       <c r="H31">
-        <v>9.490210598280058</v>
+        <v>9.46211987190361</v>
       </c>
       <c r="I31">
-        <v>7.960373352593667</v>
+        <v>7.860728077343296</v>
       </c>
       <c r="J31">
-        <v>9.778061131453644</v>
+        <v>9.711932699566498</v>
       </c>
       <c r="K31">
-        <v>10.40189628440991</v>
+        <v>10.33085213881552</v>
       </c>
       <c r="L31">
-        <v>9.03893818369831</v>
+        <v>8.925365609389694</v>
       </c>
       <c r="M31">
-        <v>10.18954720094575</v>
+        <v>10.07296465162673</v>
       </c>
       <c r="N31">
-        <v>11.34527717778819</v>
+        <v>11.23426220420571</v>
       </c>
       <c r="O31">
-        <v>10.52692156247733</v>
+        <v>10.48361176527081</v>
       </c>
       <c r="P31">
-        <v>11.74588104590359</v>
+        <v>11.68665107518987</v>
       </c>
       <c r="Q31">
-        <v>9.903365590115664</v>
+        <v>9.528007998459012</v>
       </c>
       <c r="R31">
-        <v>9.51093712867096</v>
+        <v>9.514374188494651</v>
       </c>
       <c r="S31">
-        <v>11.6373006599038</v>
+        <v>9.441740479399177</v>
       </c>
       <c r="T31">
-        <v>11.87072508836572</v>
+        <v>11.87877200290769</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>8.963315899292857</v>
+        <v>8.782334426879771</v>
       </c>
       <c r="C32">
-        <v>13.03271679849042</v>
+        <v>12.99140945155207</v>
       </c>
       <c r="D32">
-        <v>14.28967107942765</v>
+        <v>13.9874600528467</v>
       </c>
       <c r="E32">
-        <v>9.290286055707281</v>
+        <v>9.278738474050623</v>
       </c>
       <c r="F32">
-        <v>10.47759447731018</v>
+        <v>10.35299805090087</v>
       </c>
       <c r="G32">
-        <v>12.16493800556887</v>
+        <v>12.12393313229263</v>
       </c>
       <c r="H32">
-        <v>11.35088161364443</v>
+        <v>11.31728335929187</v>
       </c>
       <c r="I32">
-        <v>10.37426398082944</v>
+        <v>10.24440243488161</v>
       </c>
       <c r="J32">
-        <v>16.64265271361923</v>
+        <v>16.53009946695832</v>
       </c>
       <c r="K32">
-        <v>12.67890780665873</v>
+        <v>12.59231184880976</v>
       </c>
       <c r="L32">
-        <v>9.16385767675904</v>
+        <v>9.048715512292828</v>
       </c>
       <c r="M32">
-        <v>9.659862448587544</v>
+        <v>9.549340227323103</v>
       </c>
       <c r="N32">
-        <v>16.39058498549412</v>
+        <v>16.23020103623914</v>
       </c>
       <c r="O32">
-        <v>14.09454121921292</v>
+        <v>14.03655354273028</v>
       </c>
       <c r="P32">
-        <v>19.68535707439041</v>
+        <v>19.58609137278415</v>
       </c>
       <c r="Q32">
-        <v>14.49682921435116</v>
+        <v>13.94737005816413</v>
       </c>
       <c r="R32">
-        <v>16.62858852892248</v>
+        <v>16.63459776363661</v>
       </c>
       <c r="S32">
-        <v>10.43916065140433</v>
+        <v>8.469648466926362</v>
       </c>
       <c r="T32">
-        <v>15.35299454080028</v>
+        <v>15.36340201246806</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>2.397156424849437</v>
+        <v>2.348754594070722</v>
       </c>
       <c r="C33">
-        <v>3.010164317048577</v>
+        <v>3.000623566358729</v>
       </c>
       <c r="D33">
-        <v>2.486780240000164</v>
+        <v>2.434187538248363</v>
       </c>
       <c r="E33">
-        <v>4.219297460495087</v>
+        <v>4.214052984526679</v>
       </c>
       <c r="F33">
-        <v>3.766751183010751</v>
+        <v>3.721958102156885</v>
       </c>
       <c r="G33">
-        <v>2.387961531872382</v>
+        <v>2.379912328501339</v>
       </c>
       <c r="H33">
-        <v>2.664859335564226</v>
+        <v>2.656971435327257</v>
       </c>
       <c r="I33">
-        <v>2.074526484489209</v>
+        <v>2.048558259959419</v>
       </c>
       <c r="J33">
-        <v>4.908348564091519</v>
+        <v>4.875153701701592</v>
       </c>
       <c r="K33">
-        <v>2.809385551699682</v>
+        <v>2.790197666076858</v>
       </c>
       <c r="L33">
-        <v>1.907554421062488</v>
+        <v>1.88358635514247</v>
       </c>
       <c r="M33">
-        <v>2.857381966849741</v>
+        <v>2.824689554958993</v>
       </c>
       <c r="N33">
-        <v>5.63421457854632</v>
+        <v>5.579083075561104</v>
       </c>
       <c r="O33">
-        <v>1.648598672427586</v>
+        <v>1.641816017711863</v>
       </c>
       <c r="P33">
-        <v>4.377655955556643</v>
+        <v>4.355581116468026</v>
       </c>
       <c r="Q33">
-        <v>3.775608328262954</v>
+        <v>3.632505134077125</v>
       </c>
       <c r="R33">
-        <v>2.010229052324947</v>
+        <v>2.010955508342759</v>
       </c>
       <c r="S33">
-        <v>1.747102751105814</v>
+        <v>1.417484281696112</v>
       </c>
       <c r="T33">
-        <v>2.224090213223302</v>
+        <v>2.225597877139888</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.228664639737958</v>
+        <v>1.203856238684146</v>
       </c>
       <c r="C34">
-        <v>1.543113804465493</v>
+        <v>1.538222887377983</v>
       </c>
       <c r="D34">
-        <v>1.274981139335589</v>
+        <v>1.248016672704535</v>
       </c>
       <c r="E34">
-        <v>2.163491273246901</v>
+        <v>2.160802110395351</v>
       </c>
       <c r="F34">
-        <v>1.931293757379214</v>
+        <v>1.908327388425238</v>
       </c>
       <c r="G34">
-        <v>1.224393110950114</v>
+        <v>1.220265997081401</v>
       </c>
       <c r="H34">
-        <v>1.36633172441799</v>
+        <v>1.362287425272822</v>
       </c>
       <c r="I34">
-        <v>1.063776065974805</v>
+        <v>1.05046007510306</v>
       </c>
       <c r="J34">
-        <v>2.51685921551488</v>
+        <v>2.499837849932768</v>
       </c>
       <c r="K34">
-        <v>1.440541491455279</v>
+        <v>1.430702704694147</v>
       </c>
       <c r="L34">
-        <v>0.9782546787661166</v>
+        <v>0.9659630909779303</v>
       </c>
       <c r="M34">
-        <v>1.465137181981627</v>
+        <v>1.448373980986627</v>
       </c>
       <c r="N34">
-        <v>2.888858247371558</v>
+        <v>2.860590403669744</v>
       </c>
       <c r="O34">
-        <v>0.845476987144187</v>
+        <v>0.8419985308225861</v>
       </c>
       <c r="P34">
-        <v>2.244377778729513</v>
+        <v>2.233060242855861</v>
       </c>
       <c r="Q34">
-        <v>1.936339420845525</v>
+        <v>1.862948239330037</v>
       </c>
       <c r="R34">
-        <v>1.030487938467878</v>
+        <v>1.030860335913491</v>
       </c>
       <c r="S34">
-        <v>0.8957227302623718</v>
+        <v>0.7267305200573974</v>
       </c>
       <c r="T34">
-        <v>1.140559083704257</v>
+        <v>1.141332244687122</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>3.313572737877021</v>
+        <v>3.246667222129645</v>
       </c>
       <c r="C35">
-        <v>4.469932174025897</v>
+        <v>4.455764672195059</v>
       </c>
       <c r="D35">
-        <v>4.759713579883051</v>
+        <v>4.659050806106639</v>
       </c>
       <c r="E35">
-        <v>4.22532180097054</v>
+        <v>4.220069836905086</v>
       </c>
       <c r="F35">
-        <v>4.66914608274689</v>
+        <v>4.613621991071734</v>
       </c>
       <c r="G35">
-        <v>3.534151469929554</v>
+        <v>3.522238755446573</v>
       </c>
       <c r="H35">
-        <v>5.425117481661965</v>
+        <v>5.409059303694337</v>
       </c>
       <c r="I35">
-        <v>3.49724539481134</v>
+        <v>3.453468053655536</v>
       </c>
       <c r="J35">
-        <v>7.411014964481316</v>
+        <v>7.360894721653536</v>
       </c>
       <c r="K35">
-        <v>3.415929337575588</v>
+        <v>3.392598804895446</v>
       </c>
       <c r="L35">
-        <v>2.858799479707366</v>
+        <v>2.822879196844047</v>
       </c>
       <c r="M35">
-        <v>4.473163436199297</v>
+        <v>4.421984243775091</v>
       </c>
       <c r="N35">
-        <v>5.800457235561188</v>
+        <v>5.743699027129504</v>
       </c>
       <c r="O35">
-        <v>2.924144878465926</v>
+        <v>2.912114379241892</v>
       </c>
       <c r="P35">
-        <v>6.479428275127871</v>
+        <v>6.446755004772278</v>
       </c>
       <c r="Q35">
-        <v>7.768538701514182</v>
+        <v>7.474095367966825</v>
       </c>
       <c r="R35">
-        <v>6.831177390351795</v>
+        <v>6.833646039343921</v>
       </c>
       <c r="S35">
-        <v>2.586066813311956</v>
+        <v>2.098164550977595</v>
       </c>
       <c r="T35">
-        <v>3.2924732924119</v>
+        <v>3.294705190717903</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>2.188990873709188</v>
+        <v>2.14479218698724</v>
       </c>
       <c r="C36">
-        <v>2.027005810270614</v>
+        <v>2.020581191862531</v>
       </c>
       <c r="D36">
-        <v>3.539004191713589</v>
+        <v>3.464158095963224</v>
       </c>
       <c r="E36">
-        <v>2.290002423231404</v>
+        <v>2.287156010341894</v>
       </c>
       <c r="F36">
-        <v>2.789987289838412</v>
+        <v>2.75680959367981</v>
       </c>
       <c r="G36">
-        <v>1.649376010105701</v>
+        <v>1.643816388326429</v>
       </c>
       <c r="H36">
-        <v>2.126368528999029</v>
+        <v>2.120074544697519</v>
       </c>
       <c r="I36">
-        <v>1.703346952266405</v>
+        <v>1.682025028232507</v>
       </c>
       <c r="J36">
-        <v>2.548398804681734</v>
+        <v>2.531164138779044</v>
       </c>
       <c r="K36">
-        <v>2.731919361655748</v>
+        <v>2.713260564108179</v>
       </c>
       <c r="L36">
-        <v>1.857755433963954</v>
+        <v>1.834413083039193</v>
       </c>
       <c r="M36">
-        <v>2.127648080191119</v>
+        <v>2.103304835849568</v>
       </c>
       <c r="N36">
-        <v>2.624595155796039</v>
+        <v>2.598913159902994</v>
       </c>
       <c r="O36">
-        <v>2.342574002915878</v>
+        <v>2.332936199080692</v>
       </c>
       <c r="P36">
-        <v>3.023733195059673</v>
+        <v>3.008485668893729</v>
       </c>
       <c r="Q36">
-        <v>2.89038319834405</v>
+        <v>2.780831827507239</v>
       </c>
       <c r="R36">
-        <v>2.773068415829365</v>
+        <v>2.774070546524947</v>
       </c>
       <c r="S36">
-        <v>1.207008550383255</v>
+        <v>0.9792873641565524</v>
       </c>
       <c r="T36">
-        <v>1.536190515864172</v>
+        <v>1.537231867062967</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>95.07717604325659</v>
+        <v>93.15743925092238</v>
       </c>
       <c r="C37">
-        <v>87.49220607972052</v>
+        <v>87.21489851854065</v>
       </c>
       <c r="D37">
-        <v>95.04522678848836</v>
+        <v>93.03512344883059</v>
       </c>
       <c r="E37">
-        <v>75.96994556569452</v>
+        <v>75.87551691789926</v>
       </c>
       <c r="F37">
-        <v>83.59458207555691</v>
+        <v>82.60050025493011</v>
       </c>
       <c r="G37">
-        <v>78.96466641484976</v>
+        <v>78.698496859513</v>
       </c>
       <c r="H37">
-        <v>82.65715617787512</v>
+        <v>82.41249358232969</v>
       </c>
       <c r="I37">
-        <v>87.35118850949705</v>
+        <v>86.25775572224721</v>
       </c>
       <c r="J37">
-        <v>79.60828852632483</v>
+        <v>79.06990251966231</v>
       </c>
       <c r="K37">
-        <v>93.60058439159475</v>
+        <v>92.96129965317611</v>
       </c>
       <c r="L37">
-        <v>92.44970942185637</v>
+        <v>91.2880960465088</v>
       </c>
       <c r="M37">
-        <v>77.47894872300078</v>
+        <v>76.59248211339064</v>
       </c>
       <c r="N37">
-        <v>90.2078138444305</v>
+        <v>89.32511896497185</v>
       </c>
       <c r="O37">
-        <v>89.53666455859803</v>
+        <v>89.16829335324931</v>
       </c>
       <c r="P37">
-        <v>92.17701821418956</v>
+        <v>91.71220488362988</v>
       </c>
       <c r="Q37">
-        <v>91.76206027584898</v>
+        <v>88.28409254486139</v>
       </c>
       <c r="R37">
-        <v>93.98966715658725</v>
+        <v>94.02363311645593</v>
       </c>
       <c r="S37">
-        <v>87.89611861020164</v>
+        <v>71.31313053751352</v>
       </c>
       <c r="T37">
-        <v>92.45746178456052</v>
+        <v>92.52013675076599</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>7.740343286343891</v>
+        <v>7.584055285264315</v>
       </c>
       <c r="C38">
-        <v>12.41611862386918</v>
+        <v>12.37676559199149</v>
       </c>
       <c r="D38">
-        <v>7.136330265277345</v>
+        <v>6.985404629305563</v>
       </c>
       <c r="E38">
-        <v>6.465623415279461</v>
+        <v>6.457586815125125</v>
       </c>
       <c r="F38">
-        <v>6.175693217820393</v>
+        <v>6.102253717254977</v>
       </c>
       <c r="G38">
-        <v>5.427616171185955</v>
+        <v>5.409321074804069</v>
       </c>
       <c r="H38">
-        <v>11.20502392811798</v>
+        <v>11.17185740794999</v>
       </c>
       <c r="I38">
-        <v>9.481801545111313</v>
+        <v>9.363111543652504</v>
       </c>
       <c r="J38">
-        <v>7.038847812312448</v>
+        <v>6.991244513267488</v>
       </c>
       <c r="K38">
-        <v>6.978549971191819</v>
+        <v>6.930887015646474</v>
       </c>
       <c r="L38">
-        <v>11.61076044961752</v>
+        <v>11.46487340767248</v>
       </c>
       <c r="M38">
-        <v>8.221452478880874</v>
+        <v>8.127387662241706</v>
       </c>
       <c r="N38">
-        <v>9.584046009602384</v>
+        <v>9.490264905985779</v>
       </c>
       <c r="O38">
-        <v>5.937887510868133</v>
+        <v>5.913457889881168</v>
       </c>
       <c r="P38">
-        <v>13.12633505461605</v>
+        <v>13.0601439840761</v>
       </c>
       <c r="Q38">
-        <v>8.417607209212495</v>
+        <v>8.098562866073712</v>
       </c>
       <c r="R38">
-        <v>13.3144934829682</v>
+        <v>13.31930507093309</v>
       </c>
       <c r="S38">
-        <v>6.896178168831884</v>
+        <v>5.595105469273586</v>
       </c>
       <c r="T38">
-        <v>6.804147783723211</v>
+        <v>6.808760172211612</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>26.67039809316034</v>
+        <v>26.13188667941846</v>
       </c>
       <c r="C39">
-        <v>26.05410502159411</v>
+        <v>25.97152623376837</v>
       </c>
       <c r="D39">
-        <v>27.69074348677708</v>
+        <v>27.1051143306255</v>
       </c>
       <c r="E39">
-        <v>26.83015334998741</v>
+        <v>26.79680417378209</v>
       </c>
       <c r="F39">
-        <v>28.1651478646617</v>
+        <v>27.83021633234996</v>
       </c>
       <c r="G39">
-        <v>31.45979357206401</v>
+        <v>31.35375070952508</v>
       </c>
       <c r="H39">
-        <v>25.05677353359961</v>
+        <v>24.98260626808744</v>
       </c>
       <c r="I39">
-        <v>28.47314112785169</v>
+        <v>28.11672392739425</v>
       </c>
       <c r="J39">
-        <v>22.31347084581942</v>
+        <v>22.16256620151862</v>
       </c>
       <c r="K39">
-        <v>32.52755873440494</v>
+        <v>32.30539802876315</v>
       </c>
       <c r="L39">
-        <v>27.77517404155012</v>
+        <v>27.4261841542802</v>
       </c>
       <c r="M39">
-        <v>33.25756114080242</v>
+        <v>32.87704852473956</v>
       </c>
       <c r="N39">
-        <v>20.21573442378903</v>
+        <v>20.01792090298751</v>
       </c>
       <c r="O39">
-        <v>30.73854580043095</v>
+        <v>30.61208146067703</v>
       </c>
       <c r="P39">
-        <v>26.21701874444254</v>
+        <v>26.08481637951429</v>
       </c>
       <c r="Q39">
-        <v>23.17739609799946</v>
+        <v>22.29892589501106</v>
       </c>
       <c r="R39">
-        <v>28.70060330609701</v>
+        <v>28.71097512216566</v>
       </c>
       <c r="S39">
-        <v>37.67800019326422</v>
+        <v>30.56945162835498</v>
       </c>
       <c r="T39">
-        <v>30.51975716871447</v>
+        <v>30.54044586935829</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>5.268377366553427</v>
+        <v>5.162001701147967</v>
       </c>
       <c r="C40">
-        <v>6.209677679846983</v>
+        <v>6.189996034472282</v>
       </c>
       <c r="D40">
-        <v>5.831378158879864</v>
+        <v>5.708050842947871</v>
       </c>
       <c r="E40">
-        <v>4.43165546225479</v>
+        <v>4.426147030865519</v>
       </c>
       <c r="F40">
-        <v>4.566409535113379</v>
+        <v>4.512107155800205</v>
       </c>
       <c r="G40">
-        <v>4.212702232707713</v>
+        <v>4.198502298345233</v>
       </c>
       <c r="H40">
-        <v>5.727082311697792</v>
+        <v>5.710130327283195</v>
       </c>
       <c r="I40">
-        <v>5.063541442872402</v>
+        <v>5.000157734788876</v>
       </c>
       <c r="J40">
-        <v>4.859462200882898</v>
+        <v>4.826597953989866</v>
       </c>
       <c r="K40">
-        <v>6.127245989113269</v>
+        <v>6.085397373799189</v>
       </c>
       <c r="L40">
-        <v>5.412052631793218</v>
+        <v>5.344051198749344</v>
       </c>
       <c r="M40">
-        <v>6.003903775583087</v>
+        <v>5.935210791074552</v>
       </c>
       <c r="N40">
-        <v>4.319172428480603</v>
+        <v>4.276908779428053</v>
       </c>
       <c r="O40">
-        <v>6.207495297712764</v>
+        <v>6.181956457995115</v>
       </c>
       <c r="P40">
-        <v>6.70162747893264</v>
+        <v>6.667833743259669</v>
       </c>
       <c r="Q40">
-        <v>4.808612448773885</v>
+        <v>4.626356308519561</v>
       </c>
       <c r="R40">
-        <v>6.047875597568824</v>
+        <v>6.050061177176161</v>
       </c>
       <c r="S40">
-        <v>4.96017547560143</v>
+        <v>4.024360196713885</v>
       </c>
       <c r="T40">
-        <v>7.392248561258218</v>
+        <v>7.397259610878408</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>2.901307369017229</v>
+        <v>2.84272604872603</v>
       </c>
       <c r="C41">
-        <v>4.302431095093356</v>
+        <v>4.288794489873484</v>
       </c>
       <c r="D41">
-        <v>3.590845864469292</v>
+        <v>3.514903373633548</v>
       </c>
       <c r="E41">
-        <v>4.816460210124323</v>
+        <v>4.810473476536256</v>
       </c>
       <c r="F41">
-        <v>3.248468300919306</v>
+        <v>3.209838485413947</v>
       </c>
       <c r="G41">
-        <v>2.474853946197874</v>
+        <v>2.466511850874857</v>
       </c>
       <c r="H41">
-        <v>3.025955659732396</v>
+        <v>3.016998925676336</v>
       </c>
       <c r="I41">
-        <v>2.703492241288729</v>
+        <v>2.669650835039525</v>
       </c>
       <c r="J41">
-        <v>4.417907952546953</v>
+        <v>4.388029910142012</v>
       </c>
       <c r="K41">
-        <v>3.39779895267169</v>
+        <v>3.374592249115543</v>
       </c>
       <c r="L41">
-        <v>2.55494125334343</v>
+        <v>2.522838892485069</v>
       </c>
       <c r="M41">
-        <v>2.144656306184273</v>
+        <v>2.120118464152895</v>
       </c>
       <c r="N41">
-        <v>4.681455954616776</v>
+        <v>4.635647315393151</v>
       </c>
       <c r="O41">
-        <v>3.377020798362042</v>
+        <v>3.363127079759578</v>
       </c>
       <c r="P41">
-        <v>3.947352273561586</v>
+        <v>3.927447290815203</v>
       </c>
       <c r="Q41">
-        <v>2.719423189619941</v>
+        <v>2.616351548988014</v>
       </c>
       <c r="R41">
-        <v>3.558825700125761</v>
+        <v>3.560111787570976</v>
       </c>
       <c r="S41">
-        <v>2.281875826698101</v>
+        <v>1.851363988225429</v>
       </c>
       <c r="T41">
-        <v>1.54242794835318</v>
+        <v>1.5434735277761</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>11.71337798505975</v>
+        <v>11.47686903920921</v>
       </c>
       <c r="C42">
-        <v>10.72816089124463</v>
+        <v>10.69415786096345</v>
       </c>
       <c r="D42">
-        <v>12.85916492182496</v>
+        <v>12.58720754713119</v>
       </c>
       <c r="E42">
-        <v>13.92074475365201</v>
+        <v>13.90344163340357</v>
       </c>
       <c r="F42">
-        <v>9.394260583234423</v>
+        <v>9.282546840164525</v>
       </c>
       <c r="G42">
-        <v>11.5314133120321</v>
+        <v>11.49254388735116</v>
       </c>
       <c r="H42">
-        <v>10.79583398872217</v>
+        <v>10.76387865796927</v>
       </c>
       <c r="I42">
-        <v>11.68685270027228</v>
+        <v>11.54056061037303</v>
       </c>
       <c r="J42">
-        <v>15.8762406968647</v>
+        <v>15.76887064799383</v>
       </c>
       <c r="K42">
-        <v>13.04233961314144</v>
+        <v>12.953261444216</v>
       </c>
       <c r="L42">
-        <v>11.96526171370877</v>
+        <v>11.81492042942462</v>
       </c>
       <c r="M42">
-        <v>11.38174285151344</v>
+        <v>11.25151993079329</v>
       </c>
       <c r="N42">
-        <v>14.17924398180579</v>
+        <v>14.04049828424438</v>
       </c>
       <c r="O42">
-        <v>12.83447098885449</v>
+        <v>12.78166748571434</v>
       </c>
       <c r="P42">
-        <v>11.26168576597081</v>
+        <v>11.2048974062472</v>
       </c>
       <c r="Q42">
-        <v>11.83898060414456</v>
+        <v>11.39025928745634</v>
       </c>
       <c r="R42">
-        <v>11.21914072484448</v>
+        <v>11.22319509481034</v>
       </c>
       <c r="S42">
-        <v>9.605517714328462</v>
+        <v>7.79328540865512</v>
       </c>
       <c r="T42">
-        <v>9.898805360055153</v>
+        <v>9.905515551741592</v>
       </c>
     </row>
     <row r="43">
@@ -3090,61 +3090,61 @@
         </is>
       </c>
       <c r="B43">
-        <v>1.181502132057745</v>
+        <v>1.157646005829294</v>
       </c>
       <c r="C43">
-        <v>1.223486141768131</v>
+        <v>1.219608288261935</v>
       </c>
       <c r="D43">
-        <v>0.8302767902280678</v>
+        <v>0.8127173376887856</v>
       </c>
       <c r="E43">
-        <v>0.7455121338372544</v>
+        <v>0.7445854818278445</v>
       </c>
       <c r="F43">
-        <v>0.7873913016389253</v>
+        <v>0.7780278792825404</v>
       </c>
       <c r="G43">
-        <v>1.823160838756685</v>
+        <v>1.817015433073467</v>
       </c>
       <c r="H43">
-        <v>1.035983777198637</v>
+        <v>1.032917297639058</v>
       </c>
       <c r="I43">
-        <v>0.6420182238666957</v>
+        <v>0.633981655756218</v>
       </c>
       <c r="J43">
-        <v>0.5606161974408145</v>
+        <v>0.5568247842425433</v>
       </c>
       <c r="K43">
-        <v>0.8323494887699264</v>
+        <v>0.8266646062592039</v>
       </c>
       <c r="L43">
-        <v>0.6997179712658418</v>
+        <v>0.6909261453155343</v>
       </c>
       <c r="M43">
-        <v>0.605816811565648</v>
+        <v>0.5988854271851833</v>
       </c>
       <c r="N43">
-        <v>0.8445440641745842</v>
+        <v>0.8362800935809755</v>
       </c>
       <c r="O43">
-        <v>1.173730576565293</v>
+        <v>1.168901621305729</v>
       </c>
       <c r="P43">
-        <v>0.5098974266415408</v>
+        <v>0.5073262095886053</v>
       </c>
       <c r="Q43">
-        <v>0.6722495258303955</v>
+        <v>0.6467699087535633</v>
       </c>
       <c r="R43">
-        <v>0.7161850247493194</v>
+        <v>0.7164438394950793</v>
       </c>
       <c r="S43">
-        <v>0.578228930822838</v>
+        <v>0.4691369297796269</v>
       </c>
       <c r="T43">
-        <v>0.801955605729556</v>
+        <v>0.8024992345456327</v>
       </c>
     </row>
     <row r="44">
@@ -3154,61 +3154,61 @@
         </is>
       </c>
       <c r="B44">
-        <v>6.491349979502393</v>
+        <v>6.360280842763424</v>
       </c>
       <c r="C44">
-        <v>6.462952258136286</v>
+        <v>6.442467856050314</v>
       </c>
       <c r="D44">
-        <v>7.467630955231763</v>
+        <v>7.309698669417477</v>
       </c>
       <c r="E44">
-        <v>8.035717151694284</v>
+        <v>8.025728966247401</v>
       </c>
       <c r="F44">
-        <v>4.832451192044934</v>
+        <v>4.774985124749612</v>
       </c>
       <c r="G44">
-        <v>6.285481279890356</v>
+        <v>6.264294541146262</v>
       </c>
       <c r="H44">
-        <v>5.352582848859624</v>
+        <v>5.336739371135133</v>
       </c>
       <c r="I44">
-        <v>4.800860543145495</v>
+        <v>4.740764986182138</v>
       </c>
       <c r="J44">
-        <v>5.688953395971134</v>
+        <v>5.650479350646906</v>
       </c>
       <c r="K44">
-        <v>6.799718447366992</v>
+        <v>6.753276897271972</v>
       </c>
       <c r="L44">
-        <v>4.747784786936502</v>
+        <v>4.688129755609023</v>
       </c>
       <c r="M44">
-        <v>6.80814989040219</v>
+        <v>6.730255215131888</v>
       </c>
       <c r="N44">
-        <v>4.918273324515313</v>
+        <v>4.870147397344363</v>
       </c>
       <c r="O44">
-        <v>7.7909319672776</v>
+        <v>7.758878561963425</v>
       </c>
       <c r="P44">
-        <v>5.920613859589012</v>
+        <v>5.890758475889806</v>
       </c>
       <c r="Q44">
-        <v>5.094028734525152</v>
+        <v>4.900954739606743</v>
       </c>
       <c r="R44">
-        <v>4.360134430673857</v>
+        <v>4.361710094846043</v>
       </c>
       <c r="S44">
-        <v>5.826632017647309</v>
+        <v>4.727346056214952</v>
       </c>
       <c r="T44">
-        <v>6.700784616762513</v>
+        <v>6.705326937536841</v>
       </c>
     </row>
   </sheetData>
